--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.85</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT10" t="n">
         <v>0.54</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT11" t="n">
         <v>1.31</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -5369,7 +5369,7 @@
         <v>2.54</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU24" t="n">
         <v>1.75</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT26" t="n">
         <v>0.31</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT27" t="n">
         <v>1.31</v>
@@ -7196,7 +7196,7 @@
         <v>1.08</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU33" t="n">
         <v>1.33</v>
@@ -7805,7 +7805,7 @@
         <v>0.85</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU36" t="n">
         <v>1.28</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT44" t="n">
         <v>0.31</v>
@@ -9632,7 +9632,7 @@
         <v>1.62</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU45" t="n">
         <v>2.02</v>
@@ -10241,7 +10241,7 @@
         <v>2.46</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT57" t="n">
         <v>1.38</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU61" t="n">
         <v>2.4</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT65" t="n">
         <v>0.85</v>
@@ -13895,7 +13895,7 @@
         <v>0.85</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT73" t="n">
         <v>2.46</v>
@@ -16534,7 +16534,7 @@
         <v>1.08</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU79" t="n">
         <v>1.26</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU80" t="n">
         <v>1.41</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>0.46</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU92" t="n">
         <v>0.99</v>
@@ -19982,7 +19982,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         <v>2.46</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU97" t="n">
         <v>1.62</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT99" t="n">
         <v>2.38</v>
@@ -22827,7 +22827,7 @@
         <v>1.77</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23030,7 +23030,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT114" t="n">
         <v>2.38</v>
@@ -23839,7 +23839,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT115" t="n">
         <v>0.54</v>
@@ -24857,7 +24857,7 @@
         <v>1.85</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU120" t="n">
         <v>1.85</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT124" t="n">
         <v>0.85</v>
@@ -25869,7 +25869,7 @@
         <v>0.29</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT125" t="n">
         <v>0.77</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU132" t="n">
         <v>1.79</v>
@@ -27699,7 +27699,7 @@
         <v>2.54</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU134" t="n">
         <v>1.67</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT142" t="n">
         <v>1.69</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT143" t="n">
         <v>0.85</v>
@@ -29929,7 +29929,7 @@
         <v>1.13</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT145" t="n">
         <v>1.38</v>
@@ -30135,7 +30135,7 @@
         <v>1.62</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU146" t="n">
         <v>1.89</v>
@@ -30338,7 +30338,7 @@
         <v>2.08</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU147" t="n">
         <v>2.27</v>
@@ -32568,7 +32568,7 @@
         <v>1.44</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT158" t="n">
         <v>1.69</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT160" t="n">
         <v>1.15</v>
@@ -33789,7 +33789,7 @@
         <v>2</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU164" t="n">
         <v>1.66</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU168" t="n">
         <v>1.3</v>
@@ -35816,7 +35816,7 @@
         <v>1.2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT174" t="n">
         <v>1.15</v>
@@ -36222,7 +36222,7 @@
         <v>0.3</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT176" t="n">
         <v>0.54</v>
@@ -37037,7 +37037,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -37643,10 +37643,10 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU183" t="n">
         <v>2.11</v>
@@ -39267,7 +39267,7 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT191" t="n">
         <v>0.54</v>
@@ -40079,7 +40079,7 @@
         <v>0.42</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT195" t="n">
         <v>0.38</v>
@@ -40285,7 +40285,7 @@
         <v>2.08</v>
       </c>
       <c r="AT196" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU196" t="n">
         <v>2.23</v>
@@ -40488,7 +40488,7 @@
         <v>0.46</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU197" t="n">
         <v>1</v>
@@ -41500,7 +41500,7 @@
         <v>0.83</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT202" t="n">
         <v>0.85</v>
@@ -42976,6 +42976,412 @@
       </c>
       <c r="BK209" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2717652</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45037.42708333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['75', '84']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2</v>
+      </c>
+      <c r="S210" t="n">
+        <v>5</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2717654</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45037.53125</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>14</v>
+      </c>
+      <c r="R211" t="n">
+        <v>1</v>
+      </c>
+      <c r="S211" t="n">
+        <v>15</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V211" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>38</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1.38</v>
@@ -1918,7 +1918,7 @@
         <v>2.54</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.36</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT16" t="n">
         <v>0.85</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT19" t="n">
         <v>2.46</v>
@@ -4760,7 +4760,7 @@
         <v>1.62</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU21" t="n">
         <v>2.4</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT25" t="n">
         <v>1.69</v>
@@ -5978,7 +5978,7 @@
         <v>1.36</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU27" t="n">
         <v>1.65</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT34" t="n">
         <v>0.38</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU37" t="n">
         <v>1.6</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT39" t="n">
         <v>1.15</v>
@@ -9226,7 +9226,7 @@
         <v>1.85</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU43" t="n">
         <v>1.44</v>
@@ -9835,7 +9835,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU46" t="n">
         <v>1.55</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT48" t="n">
         <v>0.93</v>
@@ -11256,7 +11256,7 @@
         <v>1.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU53" t="n">
         <v>1.26</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT56" t="n">
         <v>0.54</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT64" t="n">
         <v>0.77</v>
@@ -14098,7 +14098,7 @@
         <v>2.08</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU67" t="n">
         <v>3.06</v>
@@ -15722,7 +15722,7 @@
         <v>0.85</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT77" t="n">
         <v>0.38</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT78" t="n">
         <v>0.85</v>
@@ -17346,7 +17346,7 @@
         <v>2.36</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU83" t="n">
         <v>2.07</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT92" t="n">
         <v>0.93</v>
@@ -19985,7 +19985,7 @@
         <v>1.36</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU96" t="n">
         <v>1.48</v>
@@ -20185,7 +20185,7 @@
         <v>1.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT97" t="n">
         <v>1.71</v>
@@ -20391,7 +20391,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU98" t="n">
         <v>1.38</v>
@@ -21203,7 +21203,7 @@
         <v>1.85</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU102" t="n">
         <v>1.76</v>
@@ -21809,7 +21809,7 @@
         <v>0.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT105" t="n">
         <v>0.31</v>
@@ -23436,7 +23436,7 @@
         <v>2.08</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU113" t="n">
         <v>2.51</v>
@@ -24245,7 +24245,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT117" t="n">
         <v>0.77</v>
@@ -24451,7 +24451,7 @@
         <v>1.08</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -25463,7 +25463,7 @@
         <v>0.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT123" t="n">
         <v>0.54</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT130" t="n">
         <v>0.54</v>
@@ -27090,7 +27090,7 @@
         <v>1.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU131" t="n">
         <v>1.34</v>
@@ -28914,10 +28914,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU140" t="n">
         <v>1.03</v>
@@ -30538,7 +30538,7 @@
         <v>0.78</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT148" t="n">
         <v>0.85</v>
@@ -30947,7 +30947,7 @@
         <v>0.85</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU150" t="n">
         <v>1.48</v>
@@ -31759,7 +31759,7 @@
         <v>1.77</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU154" t="n">
         <v>1.73</v>
@@ -33177,7 +33177,7 @@
         <v>0.22</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT161" t="n">
         <v>0.31</v>
@@ -33380,10 +33380,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU162" t="n">
         <v>1.78</v>
@@ -35616,7 +35616,7 @@
         <v>2.54</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -36019,7 +36019,7 @@
         <v>1.1</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT175" t="n">
         <v>1.38</v>
@@ -37443,7 +37443,7 @@
         <v>2</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU182" t="n">
         <v>1.62</v>
@@ -37846,7 +37846,7 @@
         <v>2.27</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT184" t="n">
         <v>2.38</v>
@@ -38861,7 +38861,7 @@
         <v>2.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT189" t="n">
         <v>2.46</v>
@@ -39676,7 +39676,7 @@
         <v>1.62</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -40485,7 +40485,7 @@
         <v>1.5</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT197" t="n">
         <v>1.71</v>
@@ -41097,7 +41097,7 @@
         <v>1.08</v>
       </c>
       <c r="AT200" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -41297,7 +41297,7 @@
         <v>0.58</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT201" t="n">
         <v>0.54</v>
@@ -42924,7 +42924,7 @@
         <v>1.85</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU209" t="n">
         <v>1.69</v>
@@ -43382,6 +43382,412 @@
       </c>
       <c r="BK211" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2717653</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45038.44791666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R212" t="n">
+        <v>4</v>
+      </c>
+      <c r="S212" t="n">
+        <v>10</v>
+      </c>
+      <c r="T212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2717659</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45038.5625</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>4</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2</v>
+      </c>
+      <c r="S213" t="n">
+        <v>6</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK213"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT8" t="n">
         <v>1.15</v>
@@ -2527,7 +2527,7 @@
         <v>1.36</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.85</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU12" t="n">
         <v>1.23</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT13" t="n">
         <v>0.31</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>1.69</v>
@@ -3745,7 +3745,7 @@
         <v>0.43</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.77</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT18" t="n">
         <v>0.54</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>1.15</v>
@@ -6384,7 +6384,7 @@
         <v>1.85</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU29" t="n">
         <v>1.29</v>
@@ -6587,7 +6587,7 @@
         <v>2.54</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6790,7 +6790,7 @@
         <v>1.77</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT32" t="n">
         <v>0.85</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT35" t="n">
         <v>0.54</v>
@@ -8820,7 +8820,7 @@
         <v>1.08</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU41" t="n">
         <v>1.22</v>
@@ -9023,7 +9023,7 @@
         <v>2.54</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU42" t="n">
         <v>1.68</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT47" t="n">
         <v>0.85</v>
@@ -10444,7 +10444,7 @@
         <v>0.85</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU49" t="n">
         <v>1.43</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT50" t="n">
         <v>0.38</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>2.46</v>
@@ -11053,7 +11053,7 @@
         <v>1.62</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU52" t="n">
         <v>1.85</v>
@@ -12674,7 +12674,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
         <v>0.38</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT61" t="n">
         <v>0.93</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU62" t="n">
         <v>1.5</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU63" t="n">
         <v>1.37</v>
@@ -13489,7 +13489,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU64" t="n">
         <v>1.44</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT67" t="n">
         <v>1.14</v>
@@ -15922,10 +15922,10 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16331,7 +16331,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>0.93</v>
@@ -16937,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>2.08</v>
@@ -17140,10 +17140,10 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU82" t="n">
         <v>2.83</v>
@@ -19373,10 +19373,10 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU93" t="n">
         <v>1.3</v>
@@ -19576,10 +19576,10 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU94" t="n">
         <v>2.01</v>
@@ -19779,10 +19779,10 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU95" t="n">
         <v>2.61</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT98" t="n">
         <v>1.21</v>
@@ -20594,7 +20594,7 @@
         <v>2.36</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU99" t="n">
         <v>2.23</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT100" t="n">
         <v>1.38</v>
@@ -22624,7 +22624,7 @@
         <v>1.62</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -23027,7 +23027,7 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT111" t="n">
         <v>1.71</v>
@@ -23230,7 +23230,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT112" t="n">
         <v>1.69</v>
@@ -23433,7 +23433,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT113" t="n">
         <v>1.21</v>
@@ -23639,7 +23639,7 @@
         <v>1.36</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU114" t="n">
         <v>1.44</v>
@@ -23842,7 +23842,7 @@
         <v>2.36</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU115" t="n">
         <v>2.05</v>
@@ -24042,10 +24042,10 @@
         <v>0.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24248,7 +24248,7 @@
         <v>0.43</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU117" t="n">
         <v>1.04</v>
@@ -24448,7 +24448,7 @@
         <v>1.57</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
         <v>1.21</v>
@@ -24654,7 +24654,7 @@
         <v>1.77</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU119" t="n">
         <v>1.72</v>
@@ -25057,7 +25057,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT121" t="n">
         <v>1.69</v>
@@ -25260,7 +25260,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT122" t="n">
         <v>0.31</v>
@@ -25466,7 +25466,7 @@
         <v>0.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU123" t="n">
         <v>1.05</v>
@@ -25669,7 +25669,7 @@
         <v>2.36</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU124" t="n">
         <v>2.01</v>
@@ -25872,7 +25872,7 @@
         <v>1.36</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU125" t="n">
         <v>1.41</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU126" t="n">
         <v>1.58</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT132" t="n">
         <v>1.71</v>
@@ -27493,7 +27493,7 @@
         <v>1.14</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT133" t="n">
         <v>1.38</v>
@@ -28102,7 +28102,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT136" t="n">
         <v>0.31</v>
@@ -28308,7 +28308,7 @@
         <v>1.77</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU137" t="n">
         <v>1.7</v>
@@ -28511,7 +28511,7 @@
         <v>1.85</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -28711,7 +28711,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT139" t="n">
         <v>1.15</v>
@@ -29120,7 +29120,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29526,7 +29526,7 @@
         <v>1.36</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -29726,7 +29726,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT144" t="n">
         <v>2.46</v>
@@ -30335,7 +30335,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT147" t="n">
         <v>1.71</v>
@@ -30741,7 +30741,7 @@
         <v>2.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT149" t="n">
         <v>2.46</v>
@@ -31150,7 +31150,7 @@
         <v>1.08</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU151" t="n">
         <v>1.32</v>
@@ -31553,7 +31553,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT153" t="n">
         <v>0.54</v>
@@ -31962,7 +31962,7 @@
         <v>1.85</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU155" t="n">
         <v>1.58</v>
@@ -32165,7 +32165,7 @@
         <v>1.85</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU156" t="n">
         <v>1.6</v>
@@ -32368,7 +32368,7 @@
         <v>2.54</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32771,7 +32771,7 @@
         <v>1.11</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT159" t="n">
         <v>1.38</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT163" t="n">
         <v>0.38</v>
@@ -33989,7 +33989,7 @@
         <v>0.7</v>
       </c>
       <c r="AS165" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT165" t="n">
         <v>0.85</v>
@@ -34195,7 +34195,7 @@
         <v>1.62</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU166" t="n">
         <v>1.86</v>
@@ -34398,7 +34398,7 @@
         <v>0.85</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU167" t="n">
         <v>1.44</v>
@@ -34598,7 +34598,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
         <v>1.71</v>
@@ -34801,7 +34801,7 @@
         <v>2.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT169" t="n">
         <v>2.46</v>
@@ -35210,7 +35210,7 @@
         <v>1.08</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU171" t="n">
         <v>1.29</v>
@@ -35413,7 +35413,7 @@
         <v>1.85</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU172" t="n">
         <v>1.6</v>
@@ -36631,7 +36631,7 @@
         <v>0.85</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU178" t="n">
         <v>1.39</v>
@@ -36831,7 +36831,7 @@
         <v>0.91</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT179" t="n">
         <v>0.85</v>
@@ -37034,7 +37034,7 @@
         <v>0.91</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT180" t="n">
         <v>0.93</v>
@@ -37237,7 +37237,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT181" t="n">
         <v>0.38</v>
@@ -37440,7 +37440,7 @@
         <v>1.09</v>
       </c>
       <c r="AS182" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT182" t="n">
         <v>1.14</v>
@@ -37849,7 +37849,7 @@
         <v>2.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU184" t="n">
         <v>1.73</v>
@@ -38052,7 +38052,7 @@
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU185" t="n">
         <v>1.71</v>
@@ -38255,7 +38255,7 @@
         <v>1.85</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU186" t="n">
         <v>1.66</v>
@@ -39879,7 +39879,7 @@
         <v>2</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU194" t="n">
         <v>1.63</v>
@@ -40282,7 +40282,7 @@
         <v>1.08</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT196" t="n">
         <v>0.93</v>
@@ -40688,10 +40688,10 @@
         <v>0.58</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU198" t="n">
         <v>1.43</v>
@@ -40891,10 +40891,10 @@
         <v>2.33</v>
       </c>
       <c r="AS199" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU199" t="n">
         <v>1.59</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT200" t="n">
         <v>1.14</v>
@@ -41300,7 +41300,7 @@
         <v>2.5</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU201" t="n">
         <v>1.7</v>
@@ -43788,6 +43788,818 @@
       </c>
       <c r="BK213" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2717655</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45039.48958333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>4</v>
+      </c>
+      <c r="R214" t="n">
+        <v>8</v>
+      </c>
+      <c r="S214" t="n">
+        <v>12</v>
+      </c>
+      <c r="T214" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V214" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2717656</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45039.58333333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>5</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
+      <c r="S215" t="n">
+        <v>5</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V215" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X215" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2717658</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45040.47916666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['9', '90']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>3</v>
+      </c>
+      <c r="R216" t="n">
+        <v>5</v>
+      </c>
+      <c r="S216" t="n">
+        <v>8</v>
+      </c>
+      <c r="T216" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V216" t="n">
+        <v>4</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2717657</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45040.58333333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" t="n">
+        <v>2</v>
+      </c>
+      <c r="T217" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.62</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT3" t="n">
         <v>2.46</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT4" t="n">
         <v>0.54</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT6" t="n">
         <v>1.71</v>
@@ -2121,7 +2121,7 @@
         <v>0.86</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT12" t="n">
         <v>2.43</v>
@@ -3136,7 +3136,7 @@
         <v>2.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.85</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.42</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT23" t="n">
         <v>0.38</v>
@@ -5775,7 +5775,7 @@
         <v>2.36</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU26" t="n">
         <v>1.81</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9399999999999999</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT29" t="n">
         <v>0.57</v>
@@ -6993,7 +6993,7 @@
         <v>0.86</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.22</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT36" t="n">
         <v>0.93</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT37" t="n">
         <v>1.14</v>
@@ -8414,7 +8414,7 @@
         <v>0.43</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU39" t="n">
         <v>1.05</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT43" t="n">
         <v>1.21</v>
@@ -9429,7 +9429,7 @@
         <v>1.36</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU44" t="n">
         <v>1.57</v>
@@ -10038,7 +10038,7 @@
         <v>2.14</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>3.04</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT49" t="n">
         <v>0.71</v>
@@ -11459,7 +11459,7 @@
         <v>1.77</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT63" t="n">
         <v>0.57</v>
@@ -13692,7 +13692,7 @@
         <v>2.36</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT66" t="n">
         <v>1.71</v>
@@ -14301,7 +14301,7 @@
         <v>1.08</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU68" t="n">
         <v>1.24</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT70" t="n">
         <v>1.38</v>
@@ -14910,7 +14910,7 @@
         <v>1.85</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.7</v>
@@ -15113,7 +15113,7 @@
         <v>2.54</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU72" t="n">
         <v>1.73</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT75" t="n">
         <v>1.21</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT80" t="n">
         <v>1.71</v>
@@ -17549,7 +17549,7 @@
         <v>1.77</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.5</v>
@@ -17749,10 +17749,10 @@
         <v>0</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -18158,7 +18158,7 @@
         <v>1.62</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU87" t="n">
         <v>1.88</v>
@@ -18358,7 +18358,7 @@
         <v>2.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT88" t="n">
         <v>2.46</v>
@@ -18561,7 +18561,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT89" t="n">
         <v>1.69</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT101" t="n">
         <v>0.38</v>
@@ -21609,7 +21609,7 @@
         <v>2.54</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.62</v>
@@ -21812,7 +21812,7 @@
         <v>2.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU105" t="n">
         <v>1.55</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT106" t="n">
         <v>1.38</v>
@@ -22215,10 +22215,10 @@
         <v>1.29</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -25263,7 +25263,7 @@
         <v>1.93</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -26072,7 +26072,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT126" t="n">
         <v>2.43</v>
@@ -26478,10 +26478,10 @@
         <v>0.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT135" t="n">
         <v>2.46</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -28714,7 +28714,7 @@
         <v>2.14</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU139" t="n">
         <v>2.31</v>
@@ -29117,7 +29117,7 @@
         <v>0.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT141" t="n">
         <v>0.71</v>
@@ -30541,7 +30541,7 @@
         <v>2.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.7</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT150" t="n">
         <v>1.14</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT152" t="n">
         <v>0.38</v>
@@ -31959,7 +31959,7 @@
         <v>0.78</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT155" t="n">
         <v>0.79</v>
@@ -32977,7 +32977,7 @@
         <v>2.36</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU160" t="n">
         <v>2.1</v>
@@ -33180,7 +33180,7 @@
         <v>0.43</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT164" t="n">
         <v>0.93</v>
@@ -33992,7 +33992,7 @@
         <v>1.93</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.61</v>
@@ -34395,7 +34395,7 @@
         <v>2.2</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT167" t="n">
         <v>2.43</v>
@@ -35004,7 +35004,7 @@
         <v>1.3</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT170" t="n">
         <v>1.69</v>
@@ -35819,7 +35819,7 @@
         <v>1.36</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU174" t="n">
         <v>1.44</v>
@@ -36428,7 +36428,7 @@
         <v>1.77</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU177" t="n">
         <v>1.78</v>
@@ -36628,7 +36628,7 @@
         <v>0.64</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT178" t="n">
         <v>0.57</v>
@@ -36834,7 +36834,7 @@
         <v>1</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.31</v>
@@ -38049,7 +38049,7 @@
         <v>0.55</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT185" t="n">
         <v>0.71</v>
@@ -38455,10 +38455,10 @@
         <v>1.09</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU187" t="n">
         <v>1.56</v>
@@ -39067,7 +39067,7 @@
         <v>2.54</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39876,7 +39876,7 @@
         <v>0.92</v>
       </c>
       <c r="AS194" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT194" t="n">
         <v>0.79</v>
@@ -41503,7 +41503,7 @@
         <v>1.36</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU202" t="n">
         <v>1.51</v>
@@ -41703,7 +41703,7 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT203" t="n">
         <v>0.54</v>
@@ -41906,7 +41906,7 @@
         <v>1.58</v>
       </c>
       <c r="AS204" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT204" t="n">
         <v>1.69</v>
@@ -42315,7 +42315,7 @@
         <v>1.08</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -42518,7 +42518,7 @@
         <v>1.62</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU207" t="n">
         <v>1.8</v>
@@ -44600,6 +44600,615 @@
       </c>
       <c r="BK217" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2717662</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45044.47916666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['44', '76']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>3</v>
+      </c>
+      <c r="R218" t="n">
+        <v>10</v>
+      </c>
+      <c r="S218" t="n">
+        <v>13</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2717661</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45044.58333333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['7', '68', '90+5']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>6</v>
+      </c>
+      <c r="R219" t="n">
+        <v>3</v>
+      </c>
+      <c r="S219" t="n">
+        <v>9</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V219" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2717666</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45045.375</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>4</v>
+      </c>
+      <c r="N220" t="n">
+        <v>5</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['45+3', '66', '88', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>1</v>
+      </c>
+      <c r="R220" t="n">
+        <v>8</v>
+      </c>
+      <c r="S220" t="n">
+        <v>9</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V220" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK220"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>2.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT17" t="n">
         <v>0.71</v>
@@ -4151,7 +4151,7 @@
         <v>0.86</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0.97</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT20" t="n">
         <v>0.93</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>1.14</v>
@@ -5166,7 +5166,7 @@
         <v>0.79</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU23" t="n">
         <v>0.78</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT31" t="n">
         <v>0.79</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT33" t="n">
         <v>1.71</v>
@@ -7399,7 +7399,7 @@
         <v>2.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU34" t="n">
         <v>1.22</v>
@@ -7602,7 +7602,7 @@
         <v>2.14</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>3.77</v>
@@ -8211,7 +8211,7 @@
         <v>1.85</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.46</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT40" t="n">
         <v>1.69</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT41" t="n">
         <v>0.57</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>1.71</v>
@@ -10647,7 +10647,7 @@
         <v>1.93</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
         <v>0.79</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT53" t="n">
         <v>1.21</v>
@@ -11456,7 +11456,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT54" t="n">
         <v>1.29</v>
@@ -11865,7 +11865,7 @@
         <v>0.43</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>0.96</v>
@@ -12068,7 +12068,7 @@
         <v>1.36</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.9</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU60" t="n">
         <v>0.97</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT68" t="n">
         <v>0.29</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
         <v>1.69</v>
@@ -14707,7 +14707,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.63</v>
@@ -15516,10 +15516,10 @@
         <v>0.4</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -16128,7 +16128,7 @@
         <v>0.43</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1.85</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU86" t="n">
         <v>1.74</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>1.29</v>
@@ -18767,7 +18767,7 @@
         <v>2.54</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.67</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -20797,7 +20797,7 @@
         <v>1.93</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU100" t="n">
         <v>2.04</v>
@@ -21000,7 +21000,7 @@
         <v>1.71</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU101" t="n">
         <v>1.55</v>
@@ -21403,10 +21403,10 @@
         <v>0.43</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.81</v>
@@ -22015,7 +22015,7 @@
         <v>0.79</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -22418,7 +22418,7 @@
         <v>2.17</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT108" t="n">
         <v>2.46</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT109" t="n">
         <v>2.43</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT110" t="n">
         <v>0.93</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT119" t="n">
         <v>2.43</v>
@@ -26278,7 +26278,7 @@
         <v>1.85</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.86</v>
@@ -26681,10 +26681,10 @@
         <v>0.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU129" t="n">
         <v>1.76</v>
@@ -26887,7 +26887,7 @@
         <v>2.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.7</v>
@@ -27087,7 +27087,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT131" t="n">
         <v>1.14</v>
@@ -27496,7 +27496,7 @@
         <v>0.86</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.32</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT137" t="n">
         <v>0.57</v>
@@ -29932,7 +29932,7 @@
         <v>2.36</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU145" t="n">
         <v>2.18</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
         <v>0.93</v>
@@ -31147,7 +31147,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT151" t="n">
         <v>2.43</v>
@@ -31353,7 +31353,7 @@
         <v>2.07</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31556,7 +31556,7 @@
         <v>1.93</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.66</v>
@@ -31756,7 +31756,7 @@
         <v>1.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT154" t="n">
         <v>1.21</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU159" t="n">
         <v>1.33</v>
@@ -33586,7 +33586,7 @@
         <v>0.86</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU163" t="n">
         <v>1.31</v>
@@ -34192,7 +34192,7 @@
         <v>0.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
         <v>0.71</v>
@@ -35207,7 +35207,7 @@
         <v>0.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT171" t="n">
         <v>0.79</v>
@@ -36022,7 +36022,7 @@
         <v>0.43</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU175" t="n">
         <v>1.1</v>
@@ -36225,7 +36225,7 @@
         <v>2.36</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU176" t="n">
         <v>2.05</v>
@@ -36425,7 +36425,7 @@
         <v>0.3</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT177" t="n">
         <v>0.29</v>
@@ -37240,7 +37240,7 @@
         <v>2.14</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU181" t="n">
         <v>2.19</v>
@@ -38658,7 +38658,7 @@
         <v>1.45</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT188" t="n">
         <v>1.69</v>
@@ -39270,7 +39270,7 @@
         <v>1.36</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU191" t="n">
         <v>1.42</v>
@@ -39470,10 +39470,10 @@
         <v>1.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU192" t="n">
         <v>1.76</v>
@@ -39673,7 +39673,7 @@
         <v>1.45</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT193" t="n">
         <v>1.21</v>
@@ -40082,7 +40082,7 @@
         <v>2.36</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU195" t="n">
         <v>2.1</v>
@@ -41706,7 +41706,7 @@
         <v>1.71</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU203" t="n">
         <v>1.56</v>
@@ -42109,7 +42109,7 @@
         <v>2.42</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT205" t="n">
         <v>2.46</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT206" t="n">
         <v>1.29</v>
@@ -42515,7 +42515,7 @@
         <v>0.25</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT207" t="n">
         <v>0.29</v>
@@ -42721,7 +42721,7 @@
         <v>2.54</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU208" t="n">
         <v>1.68</v>
@@ -45193,21 +45193,630 @@
         <v>0</v>
       </c>
       <c r="BF220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2717667</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45045.47916666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>2</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>7</v>
+      </c>
+      <c r="R221" t="n">
+        <v>5</v>
+      </c>
+      <c r="S221" t="n">
+        <v>12</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V221" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
         <v>4</v>
       </c>
-      <c r="BG220" t="n">
+      <c r="BG221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2717663</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45045.59027777778</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>4</v>
+      </c>
+      <c r="R222" t="n">
+        <v>1</v>
+      </c>
+      <c r="S222" t="n">
+        <v>5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>4</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD222" t="n">
         <v>3</v>
       </c>
-      <c r="BH220" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI220" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ220" t="n">
+      <c r="BE222" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2717664</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45046.38541666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>3</v>
+      </c>
+      <c r="T223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH223" t="n">
         <v>6</v>
       </c>
-      <c r="BK220" t="n">
+      <c r="BI223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK223" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK223"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.79</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT7" t="n">
         <v>1.14</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT10" t="n">
         <v>0.57</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT14" t="n">
         <v>1.29</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0.96</v>
@@ -4557,7 +4557,7 @@
         <v>1.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT24" t="n">
         <v>1.71</v>
@@ -5572,7 +5572,7 @@
         <v>0.43</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT27" t="n">
         <v>1.21</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT30" t="n">
         <v>0.71</v>
@@ -7805,7 +7805,7 @@
         <v>0.79</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU36" t="n">
         <v>1.28</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT38" t="n">
         <v>0.5</v>
@@ -8617,7 +8617,7 @@
         <v>1.71</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT42" t="n">
         <v>0.79</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT44" t="n">
         <v>0.29</v>
@@ -10241,7 +10241,7 @@
         <v>2.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT57" t="n">
         <v>1.5</v>
@@ -12268,10 +12268,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.54</v>
@@ -12471,10 +12471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU59" t="n">
         <v>1.69</v>
@@ -12880,7 +12880,7 @@
         <v>1.93</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU61" t="n">
         <v>2.4</v>
@@ -14504,7 +14504,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU69" t="n">
         <v>1.9</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15110,7 +15110,7 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT72" t="n">
         <v>1.29</v>
@@ -15313,10 +15313,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.65</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU79" t="n">
         <v>1.26</v>
@@ -17952,7 +17952,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT86" t="n">
         <v>0.43</v>
@@ -18361,7 +18361,7 @@
         <v>1.71</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18564,7 +18564,7 @@
         <v>2.07</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT90" t="n">
         <v>0.5</v>
@@ -19173,7 +19173,7 @@
         <v>0.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU92" t="n">
         <v>0.99</v>
@@ -19982,7 +19982,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT96" t="n">
         <v>1.14</v>
@@ -21200,7 +21200,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT102" t="n">
         <v>1.14</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -22421,7 +22421,7 @@
         <v>1.21</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.38</v>
@@ -22827,7 +22827,7 @@
         <v>1.71</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23233,7 +23233,7 @@
         <v>1.93</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU112" t="n">
         <v>1.86</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT114" t="n">
         <v>2.43</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU120" t="n">
         <v>1.85</v>
@@ -25060,7 +25060,7 @@
         <v>2.14</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU121" t="n">
         <v>2.37</v>
@@ -25869,7 +25869,7 @@
         <v>0.29</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT125" t="n">
         <v>0.71</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT127" t="n">
         <v>1.5</v>
@@ -27696,10 +27696,10 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU134" t="n">
         <v>1.67</v>
@@ -27902,7 +27902,7 @@
         <v>2.07</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.68</v>
@@ -28508,7 +28508,7 @@
         <v>2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT138" t="n">
         <v>2.43</v>
@@ -29323,7 +29323,7 @@
         <v>2.36</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT143" t="n">
         <v>0.79</v>
@@ -29729,7 +29729,7 @@
         <v>1.93</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -30135,7 +30135,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU146" t="n">
         <v>1.89</v>
@@ -30744,7 +30744,7 @@
         <v>0.86</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU149" t="n">
         <v>1.32</v>
@@ -32162,7 +32162,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT156" t="n">
         <v>0.71</v>
@@ -32365,7 +32365,7 @@
         <v>0.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT157" t="n">
         <v>0.57</v>
@@ -32568,10 +32568,10 @@
         <v>1.44</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU158" t="n">
         <v>1.49</v>
@@ -33789,7 +33789,7 @@
         <v>2.07</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU164" t="n">
         <v>1.66</v>
@@ -34804,7 +34804,7 @@
         <v>2.14</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU169" t="n">
         <v>2.21</v>
@@ -35007,7 +35007,7 @@
         <v>1.71</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU170" t="n">
         <v>1.53</v>
@@ -35410,7 +35410,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT172" t="n">
         <v>0.57</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT173" t="n">
         <v>1.21</v>
@@ -35816,7 +35816,7 @@
         <v>1.2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT174" t="n">
         <v>1.29</v>
@@ -37037,7 +37037,7 @@
         <v>0.86</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT186" t="n">
         <v>0.79</v>
@@ -38661,7 +38661,7 @@
         <v>1.21</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU188" t="n">
         <v>1.32</v>
@@ -38864,7 +38864,7 @@
         <v>0.43</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU189" t="n">
         <v>1.04</v>
@@ -39064,7 +39064,7 @@
         <v>0.27</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT190" t="n">
         <v>0.29</v>
@@ -39267,7 +39267,7 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT191" t="n">
         <v>0.5</v>
@@ -40285,7 +40285,7 @@
         <v>2.14</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU196" t="n">
         <v>2.23</v>
@@ -41500,7 +41500,7 @@
         <v>0.83</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT202" t="n">
         <v>1</v>
@@ -41909,7 +41909,7 @@
         <v>0.79</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU204" t="n">
         <v>1.35</v>
@@ -42112,7 +42112,7 @@
         <v>1.71</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU205" t="n">
         <v>1.72</v>
@@ -42718,7 +42718,7 @@
         <v>1.42</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT208" t="n">
         <v>1.5</v>
@@ -42921,7 +42921,7 @@
         <v>1.42</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT209" t="n">
         <v>1.21</v>
@@ -43124,7 +43124,7 @@
         <v>1.62</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT210" t="n">
         <v>1.71</v>
@@ -43330,7 +43330,7 @@
         <v>2.36</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU211" t="n">
         <v>2.14</v>
@@ -45679,13 +45679,13 @@
         </is>
       </c>
       <c r="Q223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R223" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S223" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T223" t="n">
         <v>2.5</v>
@@ -45802,22 +45802,631 @@
         <v>0</v>
       </c>
       <c r="BF223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2717660</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45046.48958333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>8</v>
+      </c>
+      <c r="R224" t="n">
+        <v>4</v>
+      </c>
+      <c r="S224" t="n">
+        <v>12</v>
+      </c>
+      <c r="T224" t="n">
+        <v>3</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2717665</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45046.59375</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2</v>
+      </c>
+      <c r="R225" t="n">
+        <v>3</v>
+      </c>
+      <c r="S225" t="n">
+        <v>5</v>
+      </c>
+      <c r="T225" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2717669</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45048.48958333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['21', '40']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3</v>
+      </c>
+      <c r="R226" t="n">
+        <v>3</v>
+      </c>
+      <c r="S226" t="n">
         <v>6</v>
       </c>
-      <c r="BI223" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ223" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK223" t="n">
+      <c r="T226" t="n">
+        <v>3</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI226" t="n">
         <v>4</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT8" t="n">
         <v>1.29</v>
@@ -2527,7 +2527,7 @@
         <v>1.47</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -5369,7 +5369,7 @@
         <v>2.36</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU24" t="n">
         <v>1.75</v>
@@ -5572,7 +5572,7 @@
         <v>0.43</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT26" t="n">
         <v>0.29</v>
@@ -5978,7 +5978,7 @@
         <v>1.47</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.65</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT28" t="n">
         <v>1.29</v>
@@ -6384,7 +6384,7 @@
         <v>1.71</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.29</v>
@@ -6587,7 +6587,7 @@
         <v>2.36</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>0.79</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>1.21</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.33</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -8820,7 +8820,7 @@
         <v>1.21</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU41" t="n">
         <v>1.22</v>
@@ -9226,7 +9226,7 @@
         <v>1.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.44</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>2.02</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -10444,7 +10444,7 @@
         <v>0.79</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.43</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT50" t="n">
         <v>0.43</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT51" t="n">
         <v>2.5</v>
@@ -11256,7 +11256,7 @@
         <v>1.21</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.26</v>
@@ -11456,7 +11456,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
         <v>1.29</v>
@@ -12474,7 +12474,7 @@
         <v>2.36</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU59" t="n">
         <v>1.69</v>
@@ -12674,7 +12674,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT60" t="n">
         <v>0.43</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT61" t="n">
         <v>0.87</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT62" t="n">
         <v>2.43</v>
@@ -13286,7 +13286,7 @@
         <v>2.07</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU63" t="n">
         <v>1.37</v>
@@ -13489,7 +13489,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.44</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>0.79</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14504,7 +14504,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.9</v>
@@ -15516,7 +15516,7 @@
         <v>0.4</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT74" t="n">
         <v>0.5</v>
@@ -15722,7 +15722,7 @@
         <v>0.79</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -15922,10 +15922,10 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT79" t="n">
         <v>0.87</v>
@@ -16737,7 +16737,7 @@
         <v>2.07</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.41</v>
@@ -16937,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU81" t="n">
         <v>2.08</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT83" t="n">
         <v>1.14</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>2.07</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -19373,10 +19373,10 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.3</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT94" t="n">
         <v>0.79</v>
@@ -19782,7 +19782,7 @@
         <v>2.14</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU95" t="n">
         <v>2.61</v>
@@ -20188,7 +20188,7 @@
         <v>2.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.62</v>
@@ -20388,10 +20388,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU98" t="n">
         <v>1.38</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT99" t="n">
         <v>2.43</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT100" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT110" t="n">
         <v>0.87</v>
@@ -23027,10 +23027,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23230,10 +23230,10 @@
         <v>1.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU112" t="n">
         <v>1.86</v>
@@ -23436,7 +23436,7 @@
         <v>2.14</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU113" t="n">
         <v>2.51</v>
@@ -23839,10 +23839,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU115" t="n">
         <v>2.05</v>
@@ -24042,7 +24042,7 @@
         <v>0.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT116" t="n">
         <v>0.79</v>
@@ -24248,7 +24248,7 @@
         <v>0.43</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU117" t="n">
         <v>1.04</v>
@@ -24448,10 +24448,10 @@
         <v>1.57</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>2.43</v>
@@ -25060,7 +25060,7 @@
         <v>2.14</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU121" t="n">
         <v>2.37</v>
@@ -25260,7 +25260,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT122" t="n">
         <v>0.29</v>
@@ -25466,7 +25466,7 @@
         <v>0.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.05</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT124" t="n">
         <v>0.79</v>
@@ -25872,7 +25872,7 @@
         <v>1.47</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU125" t="n">
         <v>1.41</v>
@@ -27290,10 +27290,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.79</v>
@@ -27493,7 +27493,7 @@
         <v>1.14</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT133" t="n">
         <v>1.5</v>
@@ -28102,7 +28102,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT136" t="n">
         <v>0.29</v>
@@ -28305,10 +28305,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU137" t="n">
         <v>1.7</v>
@@ -28917,7 +28917,7 @@
         <v>0.43</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU140" t="n">
         <v>1.03</v>
@@ -29120,7 +29120,7 @@
         <v>1.71</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29320,10 +29320,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29726,7 +29726,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT144" t="n">
         <v>2.5</v>
@@ -29929,7 +29929,7 @@
         <v>1.13</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT145" t="n">
         <v>1.5</v>
@@ -30338,7 +30338,7 @@
         <v>2.14</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU147" t="n">
         <v>2.27</v>
@@ -30741,7 +30741,7 @@
         <v>2.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT149" t="n">
         <v>2.5</v>
@@ -31553,7 +31553,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT153" t="n">
         <v>0.5</v>
@@ -31756,10 +31756,10 @@
         <v>1.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU154" t="n">
         <v>1.73</v>
@@ -32165,7 +32165,7 @@
         <v>1.79</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU156" t="n">
         <v>1.6</v>
@@ -32368,7 +32368,7 @@
         <v>2.36</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32571,7 +32571,7 @@
         <v>1.47</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU158" t="n">
         <v>1.49</v>
@@ -32771,7 +32771,7 @@
         <v>1.11</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT159" t="n">
         <v>1.5</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT160" t="n">
         <v>1.29</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT163" t="n">
         <v>0.43</v>
@@ -33989,7 +33989,7 @@
         <v>0.7</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT165" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>1.5</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU166" t="n">
         <v>1.86</v>
@@ -34598,10 +34598,10 @@
         <v>1.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU168" t="n">
         <v>1.3</v>
@@ -35007,7 +35007,7 @@
         <v>1.71</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU170" t="n">
         <v>1.53</v>
@@ -35413,7 +35413,7 @@
         <v>1.79</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU172" t="n">
         <v>1.6</v>
@@ -35616,7 +35616,7 @@
         <v>2.36</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -36222,7 +36222,7 @@
         <v>0.3</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT176" t="n">
         <v>0.5</v>
@@ -36425,7 +36425,7 @@
         <v>0.3</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT177" t="n">
         <v>0.29</v>
@@ -36631,7 +36631,7 @@
         <v>0.79</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU178" t="n">
         <v>1.39</v>
@@ -36831,7 +36831,7 @@
         <v>0.91</v>
       </c>
       <c r="AS179" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37034,7 +37034,7 @@
         <v>0.91</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT180" t="n">
         <v>0.87</v>
@@ -37440,7 +37440,7 @@
         <v>1.09</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT182" t="n">
         <v>1.14</v>
@@ -37643,10 +37643,10 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU183" t="n">
         <v>2.11</v>
@@ -38052,7 +38052,7 @@
         <v>2.07</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU185" t="n">
         <v>1.71</v>
@@ -38661,7 +38661,7 @@
         <v>1.21</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU188" t="n">
         <v>1.32</v>
@@ -39470,7 +39470,7 @@
         <v>1.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT192" t="n">
         <v>1.5</v>
@@ -39676,7 +39676,7 @@
         <v>1.5</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -40079,7 +40079,7 @@
         <v>0.42</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT195" t="n">
         <v>0.43</v>
@@ -40488,7 +40488,7 @@
         <v>0.43</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU197" t="n">
         <v>1</v>
@@ -40688,10 +40688,10 @@
         <v>0.58</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU198" t="n">
         <v>1.43</v>
@@ -40891,7 +40891,7 @@
         <v>2.33</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT199" t="n">
         <v>2.43</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT200" t="n">
         <v>1.14</v>
@@ -41300,7 +41300,7 @@
         <v>2.5</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU201" t="n">
         <v>1.7</v>
@@ -41909,7 +41909,7 @@
         <v>0.79</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU204" t="n">
         <v>1.35</v>
@@ -42109,7 +42109,7 @@
         <v>2.42</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT205" t="n">
         <v>2.5</v>
@@ -42924,7 +42924,7 @@
         <v>1.79</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU209" t="n">
         <v>1.69</v>
@@ -43127,7 +43127,7 @@
         <v>1.47</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU210" t="n">
         <v>1.53</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT211" t="n">
         <v>0.87</v>
@@ -43736,7 +43736,7 @@
         <v>2.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU213" t="n">
         <v>1.69</v>
@@ -43936,7 +43936,7 @@
         <v>2.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT214" t="n">
         <v>2.43</v>
@@ -44142,7 +44142,7 @@
         <v>2.14</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU215" t="n">
         <v>2.21</v>
@@ -44342,7 +44342,7 @@
         <v>0.85</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT216" t="n">
         <v>0.79</v>
@@ -44545,10 +44545,10 @@
         <v>0.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU217" t="n">
         <v>1.53</v>
@@ -45357,7 +45357,7 @@
         <v>0.38</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT221" t="n">
         <v>0.43</v>
@@ -45969,7 +45969,7 @@
         <v>1.79</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU224" t="n">
         <v>1.71</v>
@@ -46288,13 +46288,13 @@
         </is>
       </c>
       <c r="Q226" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R226" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S226" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T226" t="n">
         <v>3</v>
@@ -46411,22 +46411,1037 @@
         <v>2.84</v>
       </c>
       <c r="BF226" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG226" t="n">
         <v>3</v>
       </c>
       <c r="BH226" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2717674</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45048.58333333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>5</v>
+      </c>
+      <c r="R227" t="n">
         <v>4</v>
       </c>
-      <c r="BJ226" t="n">
+      <c r="S227" t="n">
+        <v>9</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH227" t="n">
         <v>5</v>
       </c>
-      <c r="BK226" t="n">
+      <c r="BI227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2717675</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45049.41666666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>3</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3</v>
+      </c>
+      <c r="N228" t="n">
+        <v>6</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['58', '70', '90+2']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['76', '81', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>8</v>
+      </c>
+      <c r="S228" t="n">
+        <v>12</v>
+      </c>
+      <c r="T228" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V228" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG228" t="n">
         <v>7</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2717668</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45049.51041666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>29</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>4</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['51', '56']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['35', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>5</v>
+      </c>
+      <c r="R229" t="n">
+        <v>3</v>
+      </c>
+      <c r="S229" t="n">
+        <v>8</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2717671</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45049.60416666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['45+2', '73']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>12</v>
+      </c>
+      <c r="R230" t="n">
+        <v>1</v>
+      </c>
+      <c r="S230" t="n">
+        <v>13</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X230" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2717672</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45050.40625</v>
+      </c>
+      <c r="F231" t="n">
+        <v>29</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2</v>
+      </c>
+      <c r="K231" t="n">
+        <v>4</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>4</v>
+      </c>
+      <c r="N231" t="n">
+        <v>6</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['44', '45+1']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['27', '32', '64', '75']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3</v>
+      </c>
+      <c r="T231" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.71</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU12" t="n">
         <v>1.23</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT13" t="n">
         <v>0.29</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT25" t="n">
         <v>1.6</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT39" t="n">
         <v>1.29</v>
@@ -9023,7 +9023,7 @@
         <v>2.36</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU42" t="n">
         <v>1.68</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU52" t="n">
         <v>1.85</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5</v>
@@ -13083,7 +13083,7 @@
         <v>0.87</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU62" t="n">
         <v>1.5</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT67" t="n">
         <v>1.14</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT77" t="n">
         <v>0.43</v>
@@ -16331,7 +16331,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -17140,10 +17140,10 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU82" t="n">
         <v>2.83</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT92" t="n">
         <v>0.87</v>
@@ -19579,7 +19579,7 @@
         <v>1.87</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU94" t="n">
         <v>2.01</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT95" t="n">
         <v>0.73</v>
@@ -20594,7 +20594,7 @@
         <v>2.4</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU99" t="n">
         <v>2.23</v>
@@ -22624,7 +22624,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -23433,7 +23433,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT113" t="n">
         <v>1.2</v>
@@ -23639,7 +23639,7 @@
         <v>1.47</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU114" t="n">
         <v>1.44</v>
@@ -24045,7 +24045,7 @@
         <v>0.93</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24245,7 +24245,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT117" t="n">
         <v>0.67</v>
@@ -24654,7 +24654,7 @@
         <v>1.67</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU119" t="n">
         <v>1.72</v>
@@ -25057,7 +25057,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.6</v>
@@ -25463,7 +25463,7 @@
         <v>0.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT123" t="n">
         <v>0.73</v>
@@ -25669,7 +25669,7 @@
         <v>2.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU124" t="n">
         <v>2.01</v>
@@ -26075,7 +26075,7 @@
         <v>2.07</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU126" t="n">
         <v>1.58</v>
@@ -28511,7 +28511,7 @@
         <v>1.79</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -28711,7 +28711,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT139" t="n">
         <v>1.29</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT140" t="n">
         <v>1.2</v>
@@ -29526,7 +29526,7 @@
         <v>1.47</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -30335,7 +30335,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT147" t="n">
         <v>1.67</v>
@@ -31150,7 +31150,7 @@
         <v>1.21</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU151" t="n">
         <v>1.32</v>
@@ -31962,7 +31962,7 @@
         <v>1.71</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU155" t="n">
         <v>1.58</v>
@@ -33177,7 +33177,7 @@
         <v>0.22</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT161" t="n">
         <v>0.29</v>
@@ -34398,7 +34398,7 @@
         <v>0.79</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU167" t="n">
         <v>1.44</v>
@@ -34801,7 +34801,7 @@
         <v>2.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT169" t="n">
         <v>2.5</v>
@@ -35210,7 +35210,7 @@
         <v>1.21</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU171" t="n">
         <v>1.29</v>
@@ -36019,7 +36019,7 @@
         <v>1.1</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT175" t="n">
         <v>1.5</v>
@@ -37237,7 +37237,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT181" t="n">
         <v>0.43</v>
@@ -37849,7 +37849,7 @@
         <v>2.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU184" t="n">
         <v>1.73</v>
@@ -38255,7 +38255,7 @@
         <v>1.79</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU186" t="n">
         <v>1.66</v>
@@ -38861,7 +38861,7 @@
         <v>2.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT189" t="n">
         <v>2.5</v>
@@ -39879,7 +39879,7 @@
         <v>2.07</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU194" t="n">
         <v>1.63</v>
@@ -40282,7 +40282,7 @@
         <v>1.08</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT196" t="n">
         <v>0.87</v>
@@ -40485,7 +40485,7 @@
         <v>1.5</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT197" t="n">
         <v>1.67</v>
@@ -40894,7 +40894,7 @@
         <v>1.87</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU199" t="n">
         <v>1.59</v>
@@ -43530,7 +43530,7 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT212" t="n">
         <v>1.14</v>
@@ -43939,7 +43939,7 @@
         <v>0.93</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU214" t="n">
         <v>1.36</v>
@@ -44139,7 +44139,7 @@
         <v>0.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT215" t="n">
         <v>0.67</v>
@@ -44345,7 +44345,7 @@
         <v>0.87</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU216" t="n">
         <v>1.44</v>
@@ -47303,13 +47303,13 @@
         </is>
       </c>
       <c r="Q231" t="n">
+        <v>6</v>
+      </c>
+      <c r="R231" t="n">
         <v>3</v>
       </c>
-      <c r="R231" t="n">
-        <v>0</v>
-      </c>
       <c r="S231" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T231" t="n">
         <v>4.34</v>
@@ -47426,22 +47426,428 @@
         <v>4.1</v>
       </c>
       <c r="BF231" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG231" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH231" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2717670</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45050.5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>3</v>
+      </c>
+      <c r="K232" t="n">
+        <v>3</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
         <v>4</v>
       </c>
-      <c r="BJ231" t="n">
+      <c r="N232" t="n">
         <v>4</v>
       </c>
-      <c r="BK231" t="n">
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['5', '13', '28', '51']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>1</v>
+      </c>
+      <c r="R232" t="n">
+        <v>10</v>
+      </c>
+      <c r="S232" t="n">
+        <v>11</v>
+      </c>
+      <c r="T232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V232" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X232" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" t="n">
         <v>4</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2717673</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45050.60416666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['27', '76']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>7</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2</v>
+      </c>
+      <c r="S233" t="n">
+        <v>9</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V233" t="n">
+        <v>10</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X233" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
@@ -1309,7 +1309,7 @@
         <v>2.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>1.67</v>
@@ -1918,7 +1918,7 @@
         <v>2.36</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.87</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT12" t="n">
         <v>2.47</v>
@@ -3339,7 +3339,7 @@
         <v>1.79</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.87</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU18" t="n">
         <v>0.97</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>2.5</v>
@@ -4760,7 +4760,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU21" t="n">
         <v>2.4</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT23" t="n">
         <v>0.43</v>
@@ -6181,7 +6181,7 @@
         <v>0.93</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9399999999999999</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
         <v>0.73</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT34" t="n">
         <v>0.43</v>
@@ -7602,7 +7602,7 @@
         <v>2.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>3.77</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT36" t="n">
         <v>0.87</v>
@@ -8008,7 +8008,7 @@
         <v>2.07</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU37" t="n">
         <v>1.6</v>
@@ -8211,7 +8211,7 @@
         <v>1.79</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU38" t="n">
         <v>1.46</v>
@@ -8414,7 +8414,7 @@
         <v>0.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.05</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>1.2</v>
@@ -9835,7 +9835,7 @@
         <v>0.87</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU46" t="n">
         <v>1.55</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT48" t="n">
         <v>0.87</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -11459,7 +11459,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.29</v>
@@ -11865,7 +11865,7 @@
         <v>0.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>0.96</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT66" t="n">
         <v>1.67</v>
@@ -14098,7 +14098,7 @@
         <v>2.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>3.06</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
         <v>1.5</v>
@@ -15113,7 +15113,7 @@
         <v>2.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU72" t="n">
         <v>1.73</v>
@@ -15519,7 +15519,7 @@
         <v>1.67</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT75" t="n">
         <v>1.2</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT78" t="n">
         <v>0.73</v>
@@ -17346,7 +17346,7 @@
         <v>2.4</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU83" t="n">
         <v>2.07</v>
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT85" t="n">
         <v>0.29</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU87" t="n">
         <v>1.88</v>
@@ -18358,7 +18358,7 @@
         <v>2.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT88" t="n">
         <v>2.5</v>
@@ -18767,7 +18767,7 @@
         <v>2.36</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU90" t="n">
         <v>1.67</v>
@@ -19985,7 +19985,7 @@
         <v>1.47</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU96" t="n">
         <v>1.48</v>
@@ -20185,7 +20185,7 @@
         <v>1.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT101" t="n">
         <v>0.43</v>
@@ -21203,7 +21203,7 @@
         <v>1.79</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU102" t="n">
         <v>1.76</v>
@@ -21406,7 +21406,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.81</v>
@@ -21809,7 +21809,7 @@
         <v>0.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT105" t="n">
         <v>0.29</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22218,7 +22218,7 @@
         <v>2.07</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -26478,7 +26478,7 @@
         <v>0.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26884,10 +26884,10 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU130" t="n">
         <v>1.7</v>
@@ -27090,7 +27090,7 @@
         <v>1.21</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU131" t="n">
         <v>1.34</v>
@@ -28714,7 +28714,7 @@
         <v>2.2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU139" t="n">
         <v>2.31</v>
@@ -29117,7 +29117,7 @@
         <v>0.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT141" t="n">
         <v>0.67</v>
@@ -30538,7 +30538,7 @@
         <v>0.78</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30944,10 +30944,10 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU150" t="n">
         <v>1.48</v>
@@ -31556,7 +31556,7 @@
         <v>1.87</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU153" t="n">
         <v>1.66</v>
@@ -31959,7 +31959,7 @@
         <v>0.78</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT155" t="n">
         <v>0.73</v>
@@ -32977,7 +32977,7 @@
         <v>2.4</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU160" t="n">
         <v>2.1</v>
@@ -33380,10 +33380,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU162" t="n">
         <v>1.78</v>
@@ -34395,7 +34395,7 @@
         <v>2.2</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT167" t="n">
         <v>2.47</v>
@@ -35004,7 +35004,7 @@
         <v>1.3</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT170" t="n">
         <v>1.6</v>
@@ -35819,7 +35819,7 @@
         <v>1.47</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU174" t="n">
         <v>1.44</v>
@@ -36225,7 +36225,7 @@
         <v>2.4</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU176" t="n">
         <v>2.05</v>
@@ -36628,7 +36628,7 @@
         <v>0.64</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT178" t="n">
         <v>0.73</v>
@@ -37443,7 +37443,7 @@
         <v>1.87</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU182" t="n">
         <v>1.62</v>
@@ -37846,7 +37846,7 @@
         <v>2.27</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT184" t="n">
         <v>2.47</v>
@@ -38455,10 +38455,10 @@
         <v>1.09</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU187" t="n">
         <v>1.56</v>
@@ -39270,7 +39270,7 @@
         <v>1.47</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU191" t="n">
         <v>1.42</v>
@@ -41097,7 +41097,7 @@
         <v>0.93</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -41297,7 +41297,7 @@
         <v>0.58</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT201" t="n">
         <v>0.73</v>
@@ -41703,10 +41703,10 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU203" t="n">
         <v>1.56</v>
@@ -41906,7 +41906,7 @@
         <v>1.58</v>
       </c>
       <c r="AS204" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT204" t="n">
         <v>1.6</v>
@@ -42315,7 +42315,7 @@
         <v>1.21</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -43533,7 +43533,7 @@
         <v>0.4</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU212" t="n">
         <v>0.98</v>
@@ -43733,7 +43733,7 @@
         <v>1.31</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT213" t="n">
         <v>1.2</v>
@@ -44748,10 +44748,10 @@
         <v>1.15</v>
       </c>
       <c r="AS218" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU218" t="n">
         <v>1.32</v>
@@ -45154,7 +45154,7 @@
         <v>0.85</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT220" t="n">
         <v>1</v>
@@ -45766,7 +45766,7 @@
         <v>1.21</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU223" t="n">
         <v>1.33</v>
@@ -47848,6 +47848,615 @@
       </c>
       <c r="BK233" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2717683</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45052.47916666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>7</v>
+      </c>
+      <c r="R234" t="n">
+        <v>7</v>
+      </c>
+      <c r="S234" t="n">
+        <v>14</v>
+      </c>
+      <c r="T234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2717677</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45052.58333333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>30</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3</v>
+      </c>
+      <c r="R235" t="n">
+        <v>4</v>
+      </c>
+      <c r="S235" t="n">
+        <v>7</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V235" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2717679</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45053.38541666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>30</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['45+7']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>4</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" t="n">
+        <v>4</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2</v>
+      </c>
+      <c r="V236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK236"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.73</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>2.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT7" t="n">
         <v>1.13</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT14" t="n">
         <v>1.4</v>
@@ -4354,7 +4354,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU19" t="n">
         <v>0.96</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT20" t="n">
         <v>0.87</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT21" t="n">
         <v>1.13</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU22" t="n">
         <v>1.42</v>
@@ -5166,7 +5166,7 @@
         <v>0.73</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU23" t="n">
         <v>0.78</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
         <v>1.67</v>
@@ -5775,7 +5775,7 @@
         <v>2.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.81</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -6993,7 +6993,7 @@
         <v>0.87</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU32" t="n">
         <v>1.22</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -7399,7 +7399,7 @@
         <v>2.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU34" t="n">
         <v>1.22</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT37" t="n">
         <v>1.13</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT38" t="n">
         <v>0.67</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT41" t="n">
         <v>0.73</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT42" t="n">
         <v>0.73</v>
@@ -9429,7 +9429,7 @@
         <v>1.47</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU44" t="n">
         <v>1.57</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
         <v>1.67</v>
@@ -10038,7 +10038,7 @@
         <v>2.2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU47" t="n">
         <v>3.04</v>
@@ -10647,7 +10647,7 @@
         <v>1.87</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0.93</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU51" t="n">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT52" t="n">
         <v>0.73</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT53" t="n">
         <v>1.2</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -12068,7 +12068,7 @@
         <v>1.47</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.9</v>
@@ -12268,10 +12268,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU58" t="n">
         <v>1.54</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT59" t="n">
         <v>1.6</v>
@@ -12677,7 +12677,7 @@
         <v>0.93</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU60" t="n">
         <v>0.97</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT63" t="n">
         <v>0.73</v>
@@ -13692,7 +13692,7 @@
         <v>2.4</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU68" t="n">
         <v>1.24</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT69" t="n">
         <v>1.6</v>
@@ -14707,7 +14707,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU70" t="n">
         <v>1.63</v>
@@ -14907,10 +14907,10 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU71" t="n">
         <v>1.7</v>
@@ -15110,7 +15110,7 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT72" t="n">
         <v>1.4</v>
@@ -15316,7 +15316,7 @@
         <v>1.47</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU73" t="n">
         <v>1.65</v>
@@ -16128,7 +16128,7 @@
         <v>0.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT80" t="n">
         <v>1.67</v>
@@ -17549,7 +17549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU84" t="n">
         <v>1.5</v>
@@ -17752,7 +17752,7 @@
         <v>0.73</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -17952,10 +17952,10 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU86" t="n">
         <v>1.74</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT87" t="n">
         <v>1.4</v>
@@ -18361,7 +18361,7 @@
         <v>1.67</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18561,7 +18561,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
         <v>1.6</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT90" t="n">
         <v>0.67</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -20797,7 +20797,7 @@
         <v>1.87</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>2.04</v>
@@ -21000,7 +21000,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU101" t="n">
         <v>1.55</v>
@@ -21200,7 +21200,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT102" t="n">
         <v>1.13</v>
@@ -21403,7 +21403,7 @@
         <v>0.43</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT103" t="n">
         <v>0.67</v>
@@ -21606,10 +21606,10 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU104" t="n">
         <v>1.62</v>
@@ -21812,7 +21812,7 @@
         <v>2.33</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU105" t="n">
         <v>1.55</v>
@@ -22015,7 +22015,7 @@
         <v>0.73</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -22215,7 +22215,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT107" t="n">
         <v>1.4</v>
@@ -22418,10 +22418,10 @@
         <v>2.17</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU108" t="n">
         <v>1.38</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT109" t="n">
         <v>2.47</v>
@@ -24854,7 +24854,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT120" t="n">
         <v>0.87</v>
@@ -25263,7 +25263,7 @@
         <v>1.87</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -26072,7 +26072,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT126" t="n">
         <v>2.47</v>
@@ -26275,10 +26275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.86</v>
@@ -26481,7 +26481,7 @@
         <v>0.73</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -26681,10 +26681,10 @@
         <v>0.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.76</v>
@@ -27087,7 +27087,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT131" t="n">
         <v>1.13</v>
@@ -27496,7 +27496,7 @@
         <v>0.87</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU133" t="n">
         <v>1.32</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT134" t="n">
         <v>0.87</v>
@@ -27899,10 +27899,10 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU135" t="n">
         <v>1.68</v>
@@ -28105,7 +28105,7 @@
         <v>0.93</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -28508,7 +28508,7 @@
         <v>2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT138" t="n">
         <v>2.47</v>
@@ -29729,7 +29729,7 @@
         <v>1.87</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -29932,7 +29932,7 @@
         <v>2.4</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU145" t="n">
         <v>2.18</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT146" t="n">
         <v>0.87</v>
@@ -30541,7 +30541,7 @@
         <v>2.33</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU148" t="n">
         <v>1.7</v>
@@ -30744,7 +30744,7 @@
         <v>0.87</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU149" t="n">
         <v>1.32</v>
@@ -31147,7 +31147,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT151" t="n">
         <v>2.47</v>
@@ -31350,10 +31350,10 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -32162,7 +32162,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT156" t="n">
         <v>0.67</v>
@@ -32365,7 +32365,7 @@
         <v>0.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT157" t="n">
         <v>0.73</v>
@@ -32774,7 +32774,7 @@
         <v>0.93</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU159" t="n">
         <v>1.33</v>
@@ -33180,7 +33180,7 @@
         <v>0.4</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -33586,7 +33586,7 @@
         <v>0.87</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU163" t="n">
         <v>1.31</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT164" t="n">
         <v>0.87</v>
@@ -33992,7 +33992,7 @@
         <v>1.87</v>
       </c>
       <c r="AT165" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU165" t="n">
         <v>1.61</v>
@@ -34192,7 +34192,7 @@
         <v>0.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT166" t="n">
         <v>0.67</v>
@@ -34804,7 +34804,7 @@
         <v>2.2</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU169" t="n">
         <v>2.21</v>
@@ -35207,7 +35207,7 @@
         <v>0.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT171" t="n">
         <v>0.73</v>
@@ -35410,7 +35410,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT172" t="n">
         <v>0.73</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT173" t="n">
         <v>1.2</v>
@@ -36022,7 +36022,7 @@
         <v>0.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU175" t="n">
         <v>1.1</v>
@@ -36428,7 +36428,7 @@
         <v>1.67</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU177" t="n">
         <v>1.78</v>
@@ -36834,7 +36834,7 @@
         <v>0.93</v>
       </c>
       <c r="AT179" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU179" t="n">
         <v>1.31</v>
@@ -37240,7 +37240,7 @@
         <v>2.2</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU181" t="n">
         <v>2.19</v>
@@ -38049,7 +38049,7 @@
         <v>0.55</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT185" t="n">
         <v>0.67</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT186" t="n">
         <v>0.73</v>
@@ -38658,7 +38658,7 @@
         <v>1.45</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT188" t="n">
         <v>1.6</v>
@@ -38864,7 +38864,7 @@
         <v>0.4</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU189" t="n">
         <v>1.04</v>
@@ -39064,10 +39064,10 @@
         <v>0.27</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39473,7 +39473,7 @@
         <v>1.67</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU192" t="n">
         <v>1.76</v>
@@ -39673,7 +39673,7 @@
         <v>1.45</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT193" t="n">
         <v>1.2</v>
@@ -39876,7 +39876,7 @@
         <v>0.92</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT194" t="n">
         <v>0.73</v>
@@ -40082,7 +40082,7 @@
         <v>2.4</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU195" t="n">
         <v>2.1</v>
@@ -41503,7 +41503,7 @@
         <v>1.47</v>
       </c>
       <c r="AT202" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU202" t="n">
         <v>1.51</v>
@@ -42112,7 +42112,7 @@
         <v>1.67</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU205" t="n">
         <v>1.72</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT206" t="n">
         <v>1.4</v>
@@ -42515,10 +42515,10 @@
         <v>0.25</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU207" t="n">
         <v>1.8</v>
@@ -42718,10 +42718,10 @@
         <v>1.42</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU208" t="n">
         <v>1.68</v>
@@ -42921,7 +42921,7 @@
         <v>1.42</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT209" t="n">
         <v>1.2</v>
@@ -44951,10 +44951,10 @@
         <v>0.31</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU219" t="n">
         <v>1.63</v>
@@ -45157,7 +45157,7 @@
         <v>1.67</v>
       </c>
       <c r="AT220" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU220" t="n">
         <v>1.55</v>
@@ -45360,7 +45360,7 @@
         <v>1.67</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU221" t="n">
         <v>1.68</v>
@@ -45560,10 +45560,10 @@
         <v>1.38</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU222" t="n">
         <v>1.83</v>
@@ -45763,7 +45763,7 @@
         <v>0.54</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT223" t="n">
         <v>0.67</v>
@@ -45966,7 +45966,7 @@
         <v>1.69</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT224" t="n">
         <v>1.6</v>
@@ -46169,10 +46169,10 @@
         <v>2.46</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT225" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU225" t="n">
         <v>1.61</v>
@@ -48038,19 +48038,19 @@
         <v>4</v>
       </c>
       <c r="BG234" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH234" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI234" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ234" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK234" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235">
@@ -48441,22 +48441,1037 @@
         <v>0</v>
       </c>
       <c r="BF236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG236" t="n">
         <v>7</v>
       </c>
       <c r="BH236" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI236" t="n">
         <v>7</v>
       </c>
       <c r="BJ236" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK236" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2717676</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45053.48958333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>30</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>3</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>5</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['38', '51', '74']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['59', '83']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>11</v>
+      </c>
+      <c r="R237" t="n">
+        <v>1</v>
+      </c>
+      <c r="S237" t="n">
+        <v>12</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V237" t="n">
+        <v>8</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2717680</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45053.59375</v>
+      </c>
+      <c r="F238" t="n">
+        <v>30</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>2</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['27', '44']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>2</v>
+      </c>
+      <c r="R238" t="n">
+        <v>3</v>
+      </c>
+      <c r="S238" t="n">
+        <v>5</v>
+      </c>
+      <c r="T238" t="n">
+        <v>7</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V238" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2717681</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45054.39583333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>30</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['24', '72']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>8</v>
+      </c>
+      <c r="R239" t="n">
+        <v>6</v>
+      </c>
+      <c r="S239" t="n">
+        <v>14</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2</v>
+      </c>
+      <c r="V239" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2717678</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45054.48958333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>30</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>3</v>
+      </c>
+      <c r="R240" t="n">
+        <v>10</v>
+      </c>
+      <c r="S240" t="n">
+        <v>13</v>
+      </c>
+      <c r="T240" t="n">
+        <v>4</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2717682</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45054.59375</v>
+      </c>
+      <c r="F241" t="n">
+        <v>30</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>5</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>6</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['15', '21', '52', '53', '75']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>3</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2</v>
+      </c>
+      <c r="S241" t="n">
+        <v>5</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U241" t="n">
+        <v>3</v>
+      </c>
+      <c r="V241" t="n">
+        <v>15</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X241" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT9" t="n">
         <v>0.4</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -3745,7 +3745,7 @@
         <v>0.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
         <v>0.87</v>
@@ -4963,7 +4963,7 @@
         <v>2.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU22" t="n">
         <v>1.42</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT28" t="n">
         <v>1.4</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -6993,7 +6993,7 @@
         <v>0.87</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU32" t="n">
         <v>1.22</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
         <v>0.73</v>
@@ -9023,7 +9023,7 @@
         <v>2.4</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU42" t="n">
         <v>1.68</v>
@@ -10038,7 +10038,7 @@
         <v>2.2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU47" t="n">
         <v>3.04</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT51" t="n">
         <v>2.53</v>
@@ -11053,7 +11053,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52" t="n">
         <v>1.85</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
         <v>1.2</v>
@@ -12674,7 +12674,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT60" t="n">
         <v>0.4</v>
@@ -13692,7 +13692,7 @@
         <v>2.4</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT68" t="n">
         <v>0.27</v>
@@ -14910,7 +14910,7 @@
         <v>1.87</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU71" t="n">
         <v>1.7</v>
@@ -16331,7 +16331,7 @@
         <v>2.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT79" t="n">
         <v>0.87</v>
@@ -17549,7 +17549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU84" t="n">
         <v>1.5</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
         <v>1.4</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT93" t="n">
         <v>0.67</v>
@@ -19579,7 +19579,7 @@
         <v>1.87</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>2.01</v>
@@ -21609,7 +21609,7 @@
         <v>2.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU104" t="n">
         <v>1.62</v>
@@ -22418,7 +22418,7 @@
         <v>2.17</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT108" t="n">
         <v>2.53</v>
@@ -24042,10 +24042,10 @@
         <v>0.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24448,7 +24448,7 @@
         <v>1.57</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT118" t="n">
         <v>1.2</v>
@@ -25669,7 +25669,7 @@
         <v>2.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU124" t="n">
         <v>2.01</v>
@@ -26481,7 +26481,7 @@
         <v>0.73</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -27087,7 +27087,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT131" t="n">
         <v>1.13</v>
@@ -28102,7 +28102,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT136" t="n">
         <v>0.27</v>
@@ -29526,7 +29526,7 @@
         <v>1.47</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -30541,7 +30541,7 @@
         <v>2.33</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU148" t="n">
         <v>1.7</v>
@@ -31147,7 +31147,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT151" t="n">
         <v>2.47</v>
@@ -31962,7 +31962,7 @@
         <v>1.67</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU155" t="n">
         <v>1.58</v>
@@ -32771,7 +32771,7 @@
         <v>1.11</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT159" t="n">
         <v>1.4</v>
@@ -33992,7 +33992,7 @@
         <v>1.87</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU165" t="n">
         <v>1.61</v>
@@ -34598,7 +34598,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT168" t="n">
         <v>1.67</v>
@@ -35207,10 +35207,10 @@
         <v>0.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU171" t="n">
         <v>1.29</v>
@@ -36831,10 +36831,10 @@
         <v>0.91</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU179" t="n">
         <v>1.31</v>
@@ -38255,7 +38255,7 @@
         <v>1.87</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU186" t="n">
         <v>1.66</v>
@@ -38658,7 +38658,7 @@
         <v>1.45</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT188" t="n">
         <v>1.6</v>
@@ -39879,7 +39879,7 @@
         <v>2.13</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU194" t="n">
         <v>1.63</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT200" t="n">
         <v>1.13</v>
@@ -41503,7 +41503,7 @@
         <v>1.47</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU202" t="n">
         <v>1.51</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT206" t="n">
         <v>1.4</v>
@@ -43936,7 +43936,7 @@
         <v>2.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT214" t="n">
         <v>2.47</v>
@@ -44345,7 +44345,7 @@
         <v>0.87</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU216" t="n">
         <v>1.44</v>
@@ -45157,7 +45157,7 @@
         <v>1.67</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU220" t="n">
         <v>1.55</v>
@@ -45763,7 +45763,7 @@
         <v>0.54</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT223" t="n">
         <v>0.67</v>
@@ -47387,7 +47387,7 @@
         <v>0.57</v>
       </c>
       <c r="AS231" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT231" t="n">
         <v>0.73</v>
@@ -47796,7 +47796,7 @@
         <v>2.2</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU233" t="n">
         <v>2.16</v>
@@ -49011,10 +49011,10 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU239" t="n">
         <v>1.31</v>
@@ -49472,6 +49472,412 @@
       </c>
       <c r="BK241" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6088363</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45058.45833333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>3</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['47', '54']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>2</v>
+      </c>
+      <c r="R242" t="n">
+        <v>8</v>
+      </c>
+      <c r="S242" t="n">
+        <v>10</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U242" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V242" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6088364</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45058.55208333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['28', '62']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>2</v>
+      </c>
+      <c r="R243" t="n">
+        <v>5</v>
+      </c>
+      <c r="S243" t="n">
+        <v>7</v>
+      </c>
+      <c r="T243" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V243" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT7" t="n">
         <v>1.13</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>0.67</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT19" t="n">
         <v>2.53</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU24" t="n">
         <v>1.75</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU26" t="n">
         <v>1.81</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU27" t="n">
         <v>1.65</v>
@@ -6384,7 +6384,7 @@
         <v>1.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU29" t="n">
         <v>1.29</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>0.6899999999999999</v>
@@ -7196,7 +7196,7 @@
         <v>1.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU33" t="n">
         <v>1.33</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT34" t="n">
         <v>0.4</v>
@@ -7805,7 +7805,7 @@
         <v>0.73</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU36" t="n">
         <v>1.28</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT40" t="n">
         <v>1.6</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU41" t="n">
         <v>1.22</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT42" t="n">
         <v>0.6899999999999999</v>
@@ -9226,7 +9226,7 @@
         <v>1.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU43" t="n">
         <v>1.44</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU44" t="n">
         <v>1.57</v>
@@ -9632,7 +9632,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU45" t="n">
         <v>2.02</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT50" t="n">
         <v>0.4</v>
@@ -11256,7 +11256,7 @@
         <v>1.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU53" t="n">
         <v>1.26</v>
@@ -11456,7 +11456,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU57" t="n">
         <v>1.9</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT59" t="n">
         <v>1.6</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU61" t="n">
         <v>2.4</v>
@@ -13286,7 +13286,7 @@
         <v>2.13</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU63" t="n">
         <v>1.37</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT65" t="n">
         <v>1.06</v>
@@ -13895,7 +13895,7 @@
         <v>0.73</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14301,7 +14301,7 @@
         <v>1.25</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU68" t="n">
         <v>1.24</v>
@@ -14707,7 +14707,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU70" t="n">
         <v>1.63</v>
@@ -15110,7 +15110,7 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT72" t="n">
         <v>1.4</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT73" t="n">
         <v>2.53</v>
@@ -15516,7 +15516,7 @@
         <v>0.4</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT74" t="n">
         <v>0.67</v>
@@ -15722,7 +15722,7 @@
         <v>0.73</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -15925,7 +15925,7 @@
         <v>0.87</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT78" t="n">
         <v>0.6899999999999999</v>
@@ -16534,7 +16534,7 @@
         <v>1.06</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU79" t="n">
         <v>1.26</v>
@@ -16737,7 +16737,7 @@
         <v>2.13</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU80" t="n">
         <v>1.41</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT83" t="n">
         <v>1.13</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT84" t="n">
         <v>1.06</v>
@@ -17752,7 +17752,7 @@
         <v>0.73</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT90" t="n">
         <v>0.67</v>
@@ -18970,7 +18970,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -19173,7 +19173,7 @@
         <v>0.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU92" t="n">
         <v>0.99</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT94" t="n">
         <v>0.6899999999999999</v>
@@ -19782,7 +19782,7 @@
         <v>2.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU95" t="n">
         <v>2.61</v>
@@ -19982,7 +19982,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT96" t="n">
         <v>1.13</v>
@@ -20185,10 +20185,10 @@
         <v>1.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU97" t="n">
         <v>1.62</v>
@@ -20391,7 +20391,7 @@
         <v>0.87</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU98" t="n">
         <v>1.38</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT99" t="n">
         <v>2.47</v>
@@ -20794,10 +20794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>2.04</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT104" t="n">
         <v>1.06</v>
@@ -21809,10 +21809,10 @@
         <v>0.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU105" t="n">
         <v>1.55</v>
@@ -22015,7 +22015,7 @@
         <v>0.73</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -22824,10 +22824,10 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23030,7 +23030,7 @@
         <v>0.87</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23230,7 +23230,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT112" t="n">
         <v>1.6</v>
@@ -23436,7 +23436,7 @@
         <v>2.2</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU113" t="n">
         <v>2.51</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT114" t="n">
         <v>2.47</v>
@@ -23839,10 +23839,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU115" t="n">
         <v>2.05</v>
@@ -24451,7 +24451,7 @@
         <v>1.06</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT119" t="n">
         <v>2.47</v>
@@ -24857,7 +24857,7 @@
         <v>1.87</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU120" t="n">
         <v>1.85</v>
@@ -25260,10 +25260,10 @@
         <v>0.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -25466,7 +25466,7 @@
         <v>0.4</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>1.05</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT124" t="n">
         <v>0.6899999999999999</v>
@@ -25869,7 +25869,7 @@
         <v>0.29</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT125" t="n">
         <v>0.67</v>
@@ -26278,7 +26278,7 @@
         <v>1.87</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU127" t="n">
         <v>1.86</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT130" t="n">
         <v>0.67</v>
@@ -27290,10 +27290,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU132" t="n">
         <v>1.79</v>
@@ -27496,7 +27496,7 @@
         <v>0.87</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU133" t="n">
         <v>1.32</v>
@@ -27696,10 +27696,10 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU134" t="n">
         <v>1.67</v>
@@ -28105,7 +28105,7 @@
         <v>1.06</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -28305,10 +28305,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU137" t="n">
         <v>1.7</v>
@@ -28917,7 +28917,7 @@
         <v>0.4</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU140" t="n">
         <v>1.03</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT142" t="n">
         <v>1.6</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT143" t="n">
         <v>0.6899999999999999</v>
@@ -29726,7 +29726,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT144" t="n">
         <v>2.53</v>
@@ -29929,10 +29929,10 @@
         <v>1.13</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU145" t="n">
         <v>2.18</v>
@@ -30135,7 +30135,7 @@
         <v>1.4</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU146" t="n">
         <v>1.89</v>
@@ -30338,7 +30338,7 @@
         <v>2.2</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU147" t="n">
         <v>2.27</v>
@@ -30538,7 +30538,7 @@
         <v>0.78</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT148" t="n">
         <v>1.06</v>
@@ -31553,7 +31553,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT153" t="n">
         <v>0.67</v>
@@ -31756,10 +31756,10 @@
         <v>1.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU154" t="n">
         <v>1.73</v>
@@ -32365,10 +32365,10 @@
         <v>0.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32568,7 +32568,7 @@
         <v>1.44</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT158" t="n">
         <v>1.6</v>
@@ -32774,7 +32774,7 @@
         <v>1.06</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU159" t="n">
         <v>1.33</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT160" t="n">
         <v>1.4</v>
@@ -33180,7 +33180,7 @@
         <v>0.4</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -33380,7 +33380,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT162" t="n">
         <v>1.13</v>
@@ -33789,7 +33789,7 @@
         <v>2.13</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU164" t="n">
         <v>1.66</v>
@@ -33989,7 +33989,7 @@
         <v>0.7</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT165" t="n">
         <v>1.06</v>
@@ -34601,7 +34601,7 @@
         <v>1.06</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU168" t="n">
         <v>1.3</v>
@@ -35413,7 +35413,7 @@
         <v>1.87</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU172" t="n">
         <v>1.6</v>
@@ -35613,10 +35613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -35816,7 +35816,7 @@
         <v>1.2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT174" t="n">
         <v>1.4</v>
@@ -36022,7 +36022,7 @@
         <v>0.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU175" t="n">
         <v>1.1</v>
@@ -36222,7 +36222,7 @@
         <v>0.3</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT176" t="n">
         <v>0.67</v>
@@ -36425,10 +36425,10 @@
         <v>0.3</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU177" t="n">
         <v>1.78</v>
@@ -36631,7 +36631,7 @@
         <v>0.73</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU178" t="n">
         <v>1.39</v>
@@ -37037,7 +37037,7 @@
         <v>0.87</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -37440,7 +37440,7 @@
         <v>1.09</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT182" t="n">
         <v>1.13</v>
@@ -37643,10 +37643,10 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU183" t="n">
         <v>2.11</v>
@@ -37846,7 +37846,7 @@
         <v>2.27</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT184" t="n">
         <v>2.47</v>
@@ -39064,10 +39064,10 @@
         <v>0.27</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39267,7 +39267,7 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT191" t="n">
         <v>0.67</v>
@@ -39470,10 +39470,10 @@
         <v>1.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU192" t="n">
         <v>1.76</v>
@@ -39676,7 +39676,7 @@
         <v>1.4</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -40079,7 +40079,7 @@
         <v>0.42</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT195" t="n">
         <v>0.4</v>
@@ -40285,7 +40285,7 @@
         <v>2.2</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU196" t="n">
         <v>2.23</v>
@@ -40488,7 +40488,7 @@
         <v>0.4</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU197" t="n">
         <v>1</v>
@@ -40891,7 +40891,7 @@
         <v>2.33</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT199" t="n">
         <v>2.47</v>
@@ -41297,10 +41297,10 @@
         <v>0.58</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU201" t="n">
         <v>1.7</v>
@@ -41500,7 +41500,7 @@
         <v>0.83</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT202" t="n">
         <v>1.06</v>
@@ -42109,7 +42109,7 @@
         <v>2.42</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT205" t="n">
         <v>2.53</v>
@@ -42518,7 +42518,7 @@
         <v>1.4</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU207" t="n">
         <v>1.8</v>
@@ -42718,10 +42718,10 @@
         <v>1.42</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU208" t="n">
         <v>1.68</v>
@@ -42924,7 +42924,7 @@
         <v>1.87</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU209" t="n">
         <v>1.69</v>
@@ -43124,10 +43124,10 @@
         <v>1.62</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU210" t="n">
         <v>1.53</v>
@@ -43327,10 +43327,10 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU211" t="n">
         <v>2.14</v>
@@ -43733,10 +43733,10 @@
         <v>1.31</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU213" t="n">
         <v>1.69</v>
@@ -44545,10 +44545,10 @@
         <v>0.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU217" t="n">
         <v>1.53</v>
@@ -44954,7 +44954,7 @@
         <v>2.13</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU219" t="n">
         <v>1.63</v>
@@ -45357,7 +45357,7 @@
         <v>0.38</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT221" t="n">
         <v>0.4</v>
@@ -45563,7 +45563,7 @@
         <v>1.4</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU222" t="n">
         <v>1.83</v>
@@ -46169,7 +46169,7 @@
         <v>2.46</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT225" t="n">
         <v>2.53</v>
@@ -46372,10 +46372,10 @@
         <v>0.93</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46575,10 +46575,10 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU227" t="n">
         <v>1.52</v>
@@ -46981,10 +46981,10 @@
         <v>1.71</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU229" t="n">
         <v>1.67</v>
@@ -47184,7 +47184,7 @@
         <v>0.71</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT230" t="n">
         <v>0.67</v>
@@ -47390,7 +47390,7 @@
         <v>1.06</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU231" t="n">
         <v>1.32</v>
@@ -48199,7 +48199,7 @@
         <v>1.29</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT235" t="n">
         <v>1.4</v>
@@ -48608,7 +48608,7 @@
         <v>1.87</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU237" t="n">
         <v>1.71</v>
@@ -49217,7 +49217,7 @@
         <v>2.13</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU240" t="n">
         <v>1.66</v>
@@ -49417,7 +49417,7 @@
         <v>0.43</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT241" t="n">
         <v>0.4</v>
@@ -49878,6 +49878,1224 @@
       </c>
       <c r="BK243" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6088365</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45059.47916666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>4</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2</v>
+      </c>
+      <c r="S244" t="n">
+        <v>6</v>
+      </c>
+      <c r="T244" t="n">
+        <v>3</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>6088366</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>3</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>6</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V245" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6083737</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45060.48958333334</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>3</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>3</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['37', '44', '68']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>11</v>
+      </c>
+      <c r="R246" t="n">
+        <v>7</v>
+      </c>
+      <c r="S246" t="n">
+        <v>18</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V246" t="n">
+        <v>5</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>6083738</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45060.58333333334</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>2</v>
+      </c>
+      <c r="K247" t="n">
+        <v>3</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>4</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['2', '48']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['18', '25']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>7</v>
+      </c>
+      <c r="R247" t="n">
+        <v>12</v>
+      </c>
+      <c r="S247" t="n">
+        <v>19</v>
+      </c>
+      <c r="T247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>6083739</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45061.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['79', '90+4']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>9</v>
+      </c>
+      <c r="R248" t="n">
+        <v>1</v>
+      </c>
+      <c r="S248" t="n">
+        <v>10</v>
+      </c>
+      <c r="T248" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V248" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>6088367</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45061.59375</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>11</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="n">
+        <v>11</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V249" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X249" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK249"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT2" t="n">
         <v>1.06</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT11" t="n">
         <v>1.13</v>
@@ -2933,7 +2933,7 @@
         <v>1.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
         <v>1.23</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT14" t="n">
         <v>1.4</v>
@@ -3542,7 +3542,7 @@
         <v>1.06</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT21" t="n">
         <v>1.13</v>
@@ -5572,7 +5572,7 @@
         <v>0.4</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT26" t="n">
         <v>0.31</v>
@@ -7805,7 +7805,7 @@
         <v>0.73</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU36" t="n">
         <v>1.28</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT38" t="n">
         <v>0.67</v>
@@ -8617,7 +8617,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT45" t="n">
         <v>1.56</v>
@@ -10241,7 +10241,7 @@
         <v>2.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU48" t="n">
         <v>1.37</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT50" t="n">
         <v>0.4</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6899999999999999</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT58" t="n">
         <v>2.53</v>
@@ -12474,7 +12474,7 @@
         <v>2.44</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU59" t="n">
         <v>1.69</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU61" t="n">
         <v>2.4</v>
@@ -13083,7 +13083,7 @@
         <v>0.87</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.5</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT65" t="n">
         <v>1.06</v>
@@ -14501,10 +14501,10 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU69" t="n">
         <v>1.9</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT71" t="n">
         <v>1.06</v>
@@ -16534,7 +16534,7 @@
         <v>1.06</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU79" t="n">
         <v>1.26</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -17143,7 +17143,7 @@
         <v>2.2</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU82" t="n">
         <v>2.83</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT83" t="n">
         <v>1.13</v>
@@ -17952,7 +17952,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT86" t="n">
         <v>0.4</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT87" t="n">
         <v>1.4</v>
@@ -18564,7 +18564,7 @@
         <v>2.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -19173,7 +19173,7 @@
         <v>0.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU92" t="n">
         <v>0.99</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT94" t="n">
         <v>0.6899999999999999</v>
@@ -20591,10 +20591,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU99" t="n">
         <v>2.23</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT100" t="n">
         <v>1.38</v>
@@ -21200,7 +21200,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT102" t="n">
         <v>1.13</v>
@@ -21403,7 +21403,7 @@
         <v>0.43</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT103" t="n">
         <v>0.67</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -22827,7 +22827,7 @@
         <v>1.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23230,10 +23230,10 @@
         <v>1.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU112" t="n">
         <v>1.86</v>
@@ -23639,7 +23639,7 @@
         <v>1.44</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU114" t="n">
         <v>1.44</v>
@@ -23839,7 +23839,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT115" t="n">
         <v>0.6899999999999999</v>
@@ -24654,7 +24654,7 @@
         <v>1.75</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU119" t="n">
         <v>1.72</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU120" t="n">
         <v>1.85</v>
@@ -25060,7 +25060,7 @@
         <v>2.2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU121" t="n">
         <v>2.37</v>
@@ -25260,7 +25260,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT122" t="n">
         <v>0.31</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT124" t="n">
         <v>0.6899999999999999</v>
@@ -26075,7 +26075,7 @@
         <v>2.13</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU126" t="n">
         <v>1.58</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT127" t="n">
         <v>1.38</v>
@@ -26681,7 +26681,7 @@
         <v>0.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT129" t="n">
         <v>0.4</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT132" t="n">
         <v>1.56</v>
@@ -27699,7 +27699,7 @@
         <v>2.44</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU134" t="n">
         <v>1.67</v>
@@ -28508,10 +28508,10 @@
         <v>2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -29320,10 +29320,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29726,7 +29726,7 @@
         <v>2.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT144" t="n">
         <v>2.53</v>
@@ -29929,7 +29929,7 @@
         <v>1.13</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT145" t="n">
         <v>1.38</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU146" t="n">
         <v>1.89</v>
@@ -31150,7 +31150,7 @@
         <v>1.25</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU151" t="n">
         <v>1.32</v>
@@ -31553,7 +31553,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT153" t="n">
         <v>0.67</v>
@@ -32162,7 +32162,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT156" t="n">
         <v>0.67</v>
@@ -32571,7 +32571,7 @@
         <v>1.44</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU158" t="n">
         <v>1.49</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT160" t="n">
         <v>1.4</v>
@@ -33789,7 +33789,7 @@
         <v>2.13</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU164" t="n">
         <v>1.66</v>
@@ -33989,7 +33989,7 @@
         <v>0.7</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT165" t="n">
         <v>1.06</v>
@@ -34192,7 +34192,7 @@
         <v>0.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT166" t="n">
         <v>0.67</v>
@@ -34398,7 +34398,7 @@
         <v>0.73</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU167" t="n">
         <v>1.44</v>
@@ -35007,7 +35007,7 @@
         <v>1.67</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU170" t="n">
         <v>1.53</v>
@@ -35410,7 +35410,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT172" t="n">
         <v>0.6899999999999999</v>
@@ -36222,7 +36222,7 @@
         <v>0.3</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT176" t="n">
         <v>0.67</v>
@@ -37037,7 +37037,7 @@
         <v>0.87</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -37440,7 +37440,7 @@
         <v>1.09</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT182" t="n">
         <v>1.13</v>
@@ -37643,7 +37643,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT183" t="n">
         <v>1.56</v>
@@ -37849,7 +37849,7 @@
         <v>2.25</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU184" t="n">
         <v>1.73</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT186" t="n">
         <v>0.6899999999999999</v>
@@ -38661,7 +38661,7 @@
         <v>1.25</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU188" t="n">
         <v>1.32</v>
@@ -39673,7 +39673,7 @@
         <v>1.45</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT193" t="n">
         <v>1.13</v>
@@ -40079,7 +40079,7 @@
         <v>0.42</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT195" t="n">
         <v>0.4</v>
@@ -40285,7 +40285,7 @@
         <v>2.2</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU196" t="n">
         <v>2.23</v>
@@ -40891,10 +40891,10 @@
         <v>2.33</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU199" t="n">
         <v>1.59</v>
@@ -41909,7 +41909,7 @@
         <v>0.73</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU204" t="n">
         <v>1.35</v>
@@ -42515,7 +42515,7 @@
         <v>0.25</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT207" t="n">
         <v>0.31</v>
@@ -42921,7 +42921,7 @@
         <v>1.42</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT209" t="n">
         <v>1.13</v>
@@ -43327,10 +43327,10 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU211" t="n">
         <v>2.14</v>
@@ -43939,7 +43939,7 @@
         <v>1.06</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU214" t="n">
         <v>1.36</v>
@@ -44545,7 +44545,7 @@
         <v>0.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT217" t="n">
         <v>0.6899999999999999</v>
@@ -45560,7 +45560,7 @@
         <v>1.38</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT222" t="n">
         <v>1.38</v>
@@ -45966,10 +45966,10 @@
         <v>1.69</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU224" t="n">
         <v>1.71</v>
@@ -46375,7 +46375,7 @@
         <v>1.44</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46575,7 +46575,7 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT227" t="n">
         <v>1.13</v>
@@ -46781,7 +46781,7 @@
         <v>0.87</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU228" t="n">
         <v>1.43</v>
@@ -47184,7 +47184,7 @@
         <v>0.71</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT230" t="n">
         <v>0.67</v>
@@ -47593,7 +47593,7 @@
         <v>0.4</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AU232" t="n">
         <v>1</v>
@@ -48605,7 +48605,7 @@
         <v>0.29</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT237" t="n">
         <v>0.31</v>
@@ -48808,7 +48808,7 @@
         <v>2.5</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT238" t="n">
         <v>2.53</v>
@@ -50229,7 +50229,7 @@
         <v>0.73</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT245" t="n">
         <v>0.6899999999999999</v>
@@ -50435,7 +50435,7 @@
         <v>1.75</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU246" t="n">
         <v>1.67</v>
@@ -51041,7 +51041,7 @@
         <v>1.2</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT249" t="n">
         <v>1.13</v>
@@ -51096,6 +51096,818 @@
       </c>
       <c r="BK249" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>6088371</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45065.45833333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>2</v>
+      </c>
+      <c r="R250" t="n">
+        <v>6</v>
+      </c>
+      <c r="S250" t="n">
+        <v>8</v>
+      </c>
+      <c r="T250" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U250" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>6083742</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45065.55208333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['44', '74']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>10</v>
+      </c>
+      <c r="R251" t="n">
+        <v>3</v>
+      </c>
+      <c r="S251" t="n">
+        <v>13</v>
+      </c>
+      <c r="T251" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V251" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>6083740</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45066.47916666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>8</v>
+      </c>
+      <c r="R252" t="n">
+        <v>4</v>
+      </c>
+      <c r="S252" t="n">
+        <v>12</v>
+      </c>
+      <c r="T252" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2</v>
+      </c>
+      <c r="V252" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>6083741</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45066.59375</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>2</v>
+      </c>
+      <c r="K253" t="n">
+        <v>3</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2</v>
+      </c>
+      <c r="M253" t="n">
+        <v>2</v>
+      </c>
+      <c r="N253" t="n">
+        <v>4</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['18', '48']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['22', '42']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>5</v>
+      </c>
+      <c r="R253" t="n">
+        <v>6</v>
+      </c>
+      <c r="S253" t="n">
+        <v>11</v>
+      </c>
+      <c r="T253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V253" t="n">
+        <v>5</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.31</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT3" t="n">
         <v>2.53</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.4</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT10" t="n">
         <v>0.6899999999999999</v>
@@ -3948,7 +3948,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU18" t="n">
         <v>0.97</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.42</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT23" t="n">
         <v>0.4</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
         <v>1.13</v>
@@ -6587,7 +6587,7 @@
         <v>2.44</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6990,10 +6990,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.22</v>
@@ -7602,7 +7602,7 @@
         <v>2.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU35" t="n">
         <v>3.77</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT36" t="n">
         <v>0.9399999999999999</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.13</v>
@@ -8211,7 +8211,7 @@
         <v>1.81</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU38" t="n">
         <v>1.46</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT44" t="n">
         <v>0.31</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.13</v>
@@ -10038,7 +10038,7 @@
         <v>2.2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>3.04</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU49" t="n">
         <v>1.43</v>
@@ -11865,7 +11865,7 @@
         <v>0.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU56" t="n">
         <v>0.96</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU57" t="n">
         <v>1.9</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
         <v>2.38</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>0.6899999999999999</v>
@@ -13489,7 +13489,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU64" t="n">
         <v>1.44</v>
@@ -13692,7 +13692,7 @@
         <v>2.35</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT66" t="n">
         <v>1.56</v>
@@ -14707,7 +14707,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU70" t="n">
         <v>1.63</v>
@@ -14910,7 +14910,7 @@
         <v>1.81</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.7</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT73" t="n">
         <v>2.53</v>
@@ -15519,7 +15519,7 @@
         <v>1.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT75" t="n">
         <v>1.13</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.6899999999999999</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
         <v>1.56</v>
@@ -16940,7 +16940,7 @@
         <v>1.88</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU81" t="n">
         <v>2.08</v>
@@ -17549,7 +17549,7 @@
         <v>1.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.5</v>
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT85" t="n">
         <v>0.31</v>
@@ -18561,7 +18561,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.56</v>
@@ -18767,7 +18767,7 @@
         <v>2.44</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU90" t="n">
         <v>1.67</v>
@@ -18970,7 +18970,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -19376,7 +19376,7 @@
         <v>1.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU93" t="n">
         <v>1.3</v>
@@ -19982,7 +19982,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT96" t="n">
         <v>1.13</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
         <v>1.13</v>
@@ -20797,7 +20797,7 @@
         <v>1.88</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU100" t="n">
         <v>2.04</v>
@@ -21406,7 +21406,7 @@
         <v>1.31</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU103" t="n">
         <v>1.81</v>
@@ -21609,7 +21609,7 @@
         <v>2.44</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.62</v>
@@ -22012,10 +22012,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -22215,7 +22215,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>1.4</v>
@@ -23027,7 +23027,7 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>1.56</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT114" t="n">
         <v>2.38</v>
@@ -24248,7 +24248,7 @@
         <v>0.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU117" t="n">
         <v>1.04</v>
@@ -25869,10 +25869,10 @@
         <v>0.29</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU125" t="n">
         <v>1.41</v>
@@ -26072,7 +26072,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>2.38</v>
@@ -26278,7 +26278,7 @@
         <v>1.81</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU127" t="n">
         <v>1.86</v>
@@ -26478,10 +26478,10 @@
         <v>0.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -26887,7 +26887,7 @@
         <v>2.25</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU130" t="n">
         <v>1.7</v>
@@ -27493,10 +27493,10 @@
         <v>1.14</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU133" t="n">
         <v>1.32</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>2.53</v>
@@ -29120,7 +29120,7 @@
         <v>1.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT143" t="n">
         <v>0.6899999999999999</v>
@@ -29932,7 +29932,7 @@
         <v>2.35</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU145" t="n">
         <v>2.18</v>
@@ -30541,7 +30541,7 @@
         <v>2.25</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.7</v>
@@ -30741,7 +30741,7 @@
         <v>2.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>2.53</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT150" t="n">
         <v>1.13</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
         <v>0.4</v>
@@ -31556,7 +31556,7 @@
         <v>1.88</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU153" t="n">
         <v>1.66</v>
@@ -32165,7 +32165,7 @@
         <v>1.81</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU156" t="n">
         <v>1.6</v>
@@ -32568,7 +32568,7 @@
         <v>1.44</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT158" t="n">
         <v>1.56</v>
@@ -32774,7 +32774,7 @@
         <v>1.06</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU159" t="n">
         <v>1.33</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT163" t="n">
         <v>0.4</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT164" t="n">
         <v>0.9399999999999999</v>
@@ -33992,7 +33992,7 @@
         <v>1.88</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.61</v>
@@ -34195,7 +34195,7 @@
         <v>1.31</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU166" t="n">
         <v>1.86</v>
@@ -34395,7 +34395,7 @@
         <v>2.2</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT167" t="n">
         <v>2.38</v>
@@ -35816,7 +35816,7 @@
         <v>1.2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT174" t="n">
         <v>1.4</v>
@@ -36022,7 +36022,7 @@
         <v>0.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU175" t="n">
         <v>1.1</v>
@@ -36225,7 +36225,7 @@
         <v>2.35</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU176" t="n">
         <v>2.05</v>
@@ -36628,7 +36628,7 @@
         <v>0.64</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT178" t="n">
         <v>0.6899999999999999</v>
@@ -36834,7 +36834,7 @@
         <v>1.06</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.31</v>
@@ -37034,7 +37034,7 @@
         <v>0.91</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT180" t="n">
         <v>0.9399999999999999</v>
@@ -38049,10 +38049,10 @@
         <v>0.55</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU185" t="n">
         <v>1.71</v>
@@ -39267,10 +39267,10 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU191" t="n">
         <v>1.42</v>
@@ -39473,7 +39473,7 @@
         <v>1.75</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU192" t="n">
         <v>1.76</v>
@@ -39876,7 +39876,7 @@
         <v>0.92</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT194" t="n">
         <v>0.6899999999999999</v>
@@ -40688,10 +40688,10 @@
         <v>0.58</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU198" t="n">
         <v>1.43</v>
@@ -41500,10 +41500,10 @@
         <v>0.83</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU202" t="n">
         <v>1.51</v>
@@ -41706,7 +41706,7 @@
         <v>1.67</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU203" t="n">
         <v>1.56</v>
@@ -41906,7 +41906,7 @@
         <v>1.58</v>
       </c>
       <c r="AS204" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT204" t="n">
         <v>1.56</v>
@@ -42721,7 +42721,7 @@
         <v>2.44</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU208" t="n">
         <v>1.68</v>
@@ -43124,7 +43124,7 @@
         <v>1.62</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT210" t="n">
         <v>1.56</v>
@@ -44142,7 +44142,7 @@
         <v>2.2</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU215" t="n">
         <v>2.21</v>
@@ -44342,7 +44342,7 @@
         <v>0.85</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT216" t="n">
         <v>0.6899999999999999</v>
@@ -44748,7 +44748,7 @@
         <v>1.15</v>
       </c>
       <c r="AS218" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT218" t="n">
         <v>1.4</v>
@@ -44951,7 +44951,7 @@
         <v>0.31</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT219" t="n">
         <v>0.31</v>
@@ -45157,7 +45157,7 @@
         <v>1.67</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU220" t="n">
         <v>1.55</v>
@@ -45563,7 +45563,7 @@
         <v>1.31</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU222" t="n">
         <v>1.83</v>
@@ -45766,7 +45766,7 @@
         <v>1.25</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU223" t="n">
         <v>1.33</v>
@@ -46372,7 +46372,7 @@
         <v>0.93</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT226" t="n">
         <v>0.9399999999999999</v>
@@ -46778,7 +46778,7 @@
         <v>1.64</v>
       </c>
       <c r="AS228" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT228" t="n">
         <v>1.56</v>
@@ -47187,7 +47187,7 @@
         <v>2.35</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU230" t="n">
         <v>2.29</v>
@@ -48402,10 +48402,10 @@
         <v>0.5</v>
       </c>
       <c r="AS236" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU236" t="n">
         <v>1.33</v>
@@ -49014,7 +49014,7 @@
         <v>1.25</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU239" t="n">
         <v>1.31</v>
@@ -49214,10 +49214,10 @@
         <v>1.5</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU240" t="n">
         <v>1.66</v>
@@ -49623,7 +49623,7 @@
         <v>1.06</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU242" t="n">
         <v>1.34</v>
@@ -50026,7 +50026,7 @@
         <v>0.27</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT244" t="n">
         <v>0.31</v>
@@ -50638,7 +50638,7 @@
         <v>2.25</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU247" t="n">
         <v>1.65</v>
@@ -51907,6 +51907,818 @@
         <v>8</v>
       </c>
       <c r="BK253" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>6088369</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45067.48958333334</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['60', '90+3']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>8</v>
+      </c>
+      <c r="R254" t="n">
+        <v>3</v>
+      </c>
+      <c r="S254" t="n">
+        <v>11</v>
+      </c>
+      <c r="T254" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V254" t="n">
+        <v>4</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>6088372</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45067.58333333334</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>3</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['35', '41', '79']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>5</v>
+      </c>
+      <c r="R255" t="n">
+        <v>6</v>
+      </c>
+      <c r="S255" t="n">
+        <v>11</v>
+      </c>
+      <c r="T255" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V255" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>6088368</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45068.5</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>2</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['63', '71']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>3</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2</v>
+      </c>
+      <c r="S256" t="n">
+        <v>5</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V256" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X256" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>6088370</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45068.59375</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>2</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['59', '62']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>8</v>
+      </c>
+      <c r="R257" t="n">
+        <v>2</v>
+      </c>
+      <c r="S257" t="n">
+        <v>10</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK257" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK257"/>
+  <dimension ref="A1:BK259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
         <v>1.56</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.53</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
         <v>2.38</v>
@@ -3339,7 +3339,7 @@
         <v>1.81</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT17" t="n">
         <v>0.63</v>
@@ -6181,7 +6181,7 @@
         <v>1.06</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9399999999999999</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU29" t="n">
         <v>1.29</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT31" t="n">
         <v>0.6899999999999999</v>
@@ -8414,7 +8414,7 @@
         <v>0.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU39" t="n">
         <v>1.05</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT40" t="n">
         <v>1.56</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU41" t="n">
         <v>1.22</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT43" t="n">
         <v>1.13</v>
@@ -11456,10 +11456,10 @@
         <v>2.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT55" t="n">
         <v>0.31</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU63" t="n">
         <v>1.37</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>1.47</v>
@@ -15113,7 +15113,7 @@
         <v>2.44</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU72" t="n">
         <v>1.73</v>
@@ -15516,7 +15516,7 @@
         <v>0.4</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT74" t="n">
         <v>0.63</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>1.31</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU87" t="n">
         <v>1.88</v>
@@ -18358,7 +18358,7 @@
         <v>2.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT88" t="n">
         <v>2.53</v>
@@ -19782,7 +19782,7 @@
         <v>2.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU95" t="n">
         <v>2.61</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT101" t="n">
         <v>0.4</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9399999999999999</v>
@@ -23842,7 +23842,7 @@
         <v>2.35</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU115" t="n">
         <v>2.05</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT119" t="n">
         <v>2.38</v>
@@ -25466,7 +25466,7 @@
         <v>0.4</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU123" t="n">
         <v>1.05</v>
@@ -28305,10 +28305,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU137" t="n">
         <v>1.7</v>
@@ -28714,7 +28714,7 @@
         <v>2.2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU139" t="n">
         <v>2.31</v>
@@ -29117,7 +29117,7 @@
         <v>0.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT141" t="n">
         <v>0.63</v>
@@ -31756,7 +31756,7 @@
         <v>1.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT154" t="n">
         <v>1.13</v>
@@ -31959,7 +31959,7 @@
         <v>0.78</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT155" t="n">
         <v>0.6899999999999999</v>
@@ -32368,7 +32368,7 @@
         <v>2.44</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32977,7 +32977,7 @@
         <v>2.35</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU160" t="n">
         <v>2.1</v>
@@ -35004,7 +35004,7 @@
         <v>1.3</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT170" t="n">
         <v>1.56</v>
@@ -35413,7 +35413,7 @@
         <v>1.81</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU172" t="n">
         <v>1.6</v>
@@ -35819,7 +35819,7 @@
         <v>1.53</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU174" t="n">
         <v>1.44</v>
@@ -36425,7 +36425,7 @@
         <v>0.3</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT177" t="n">
         <v>0.31</v>
@@ -36631,7 +36631,7 @@
         <v>0.88</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU178" t="n">
         <v>1.39</v>
@@ -38455,10 +38455,10 @@
         <v>1.09</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU187" t="n">
         <v>1.56</v>
@@ -39470,7 +39470,7 @@
         <v>1.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT192" t="n">
         <v>1.47</v>
@@ -41300,7 +41300,7 @@
         <v>2.25</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU201" t="n">
         <v>1.7</v>
@@ -41703,7 +41703,7 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT203" t="n">
         <v>0.63</v>
@@ -42109,7 +42109,7 @@
         <v>2.42</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT205" t="n">
         <v>2.53</v>
@@ -42315,7 +42315,7 @@
         <v>1.25</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -44548,7 +44548,7 @@
         <v>1.88</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU217" t="n">
         <v>1.53</v>
@@ -44751,7 +44751,7 @@
         <v>0.88</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU218" t="n">
         <v>1.32</v>
@@ -45154,7 +45154,7 @@
         <v>0.85</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT220" t="n">
         <v>1</v>
@@ -45357,7 +45357,7 @@
         <v>0.38</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT221" t="n">
         <v>0.4</v>
@@ -46981,7 +46981,7 @@
         <v>1.71</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT229" t="n">
         <v>1.56</v>
@@ -47390,7 +47390,7 @@
         <v>1.06</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU231" t="n">
         <v>1.32</v>
@@ -47996,7 +47996,7 @@
         <v>1.14</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT234" t="n">
         <v>1.13</v>
@@ -48202,7 +48202,7 @@
         <v>2.25</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU235" t="n">
         <v>1.65</v>
@@ -50232,7 +50232,7 @@
         <v>1.88</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU245" t="n">
         <v>1.51</v>
@@ -50432,7 +50432,7 @@
         <v>0.87</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT246" t="n">
         <v>0.9399999999999999</v>
@@ -52298,22 +52298,22 @@
         <v>4.1</v>
       </c>
       <c r="BF255" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG255" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH255" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI255" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ255" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK255" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256">
@@ -52378,13 +52378,13 @@
         </is>
       </c>
       <c r="Q256" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R256" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S256" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T256" t="n">
         <v>2.73</v>
@@ -52501,22 +52501,22 @@
         <v>0</v>
       </c>
       <c r="BF256" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BG256" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI256" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BJ256" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BK256" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257">
@@ -52704,22 +52704,428 @@
         <v>0</v>
       </c>
       <c r="BF257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>6088376</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45069.47916666666</v>
+      </c>
+      <c r="F258" t="n">
         <v>3</v>
       </c>
-      <c r="BG257" t="n">
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>2</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>5</v>
+      </c>
+      <c r="R258" t="n">
+        <v>9</v>
+      </c>
+      <c r="S258" t="n">
+        <v>14</v>
+      </c>
+      <c r="T258" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V258" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG258" t="n">
         <v>4</v>
       </c>
-      <c r="BH257" t="n">
+      <c r="BH258" t="n">
         <v>5</v>
       </c>
-      <c r="BI257" t="n">
+      <c r="BI258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6083745</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45069.58333333334</v>
+      </c>
+      <c r="F259" t="n">
         <v>3</v>
       </c>
-      <c r="BJ257" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK257" t="n">
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>2</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['62', '65']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
         <v>7</v>
+      </c>
+      <c r="R259" t="n">
+        <v>9</v>
+      </c>
+      <c r="S259" t="n">
+        <v>16</v>
+      </c>
+      <c r="T259" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V259" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X259" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK259"/>
+  <dimension ref="A1:BK267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>0.88</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT5" t="n">
         <v>1.47</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.35</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
         <v>2.38</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.81</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT15" t="n">
         <v>1.56</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU19" t="n">
         <v>0.96</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT20" t="n">
         <v>0.9399999999999999</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU21" t="n">
         <v>2.4</v>
@@ -5166,7 +5166,7 @@
         <v>0.88</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU23" t="n">
         <v>0.78</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU24" t="n">
         <v>1.75</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT25" t="n">
         <v>1.56</v>
@@ -5775,7 +5775,7 @@
         <v>2.35</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU26" t="n">
         <v>1.81</v>
@@ -5978,7 +5978,7 @@
         <v>1.53</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU27" t="n">
         <v>1.65</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9399999999999999</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT29" t="n">
         <v>0.65</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT30" t="n">
         <v>0.63</v>
@@ -6790,7 +6790,7 @@
         <v>1.82</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -7193,10 +7193,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU33" t="n">
         <v>1.33</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU34" t="n">
         <v>1.22</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT35" t="n">
         <v>0.63</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU37" t="n">
         <v>1.6</v>
@@ -8411,10 +8411,10 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU39" t="n">
         <v>1.05</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT41" t="n">
         <v>0.65</v>
@@ -9020,10 +9020,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU42" t="n">
         <v>1.68</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU43" t="n">
         <v>1.44</v>
@@ -9429,7 +9429,7 @@
         <v>1.53</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU44" t="n">
         <v>1.57</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU45" t="n">
         <v>2.02</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU46" t="n">
         <v>1.55</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT48" t="n">
         <v>0.9399999999999999</v>
@@ -10647,7 +10647,7 @@
         <v>1.88</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU51" t="n">
         <v>1</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU52" t="n">
         <v>1.85</v>
@@ -11253,10 +11253,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU53" t="n">
         <v>1.26</v>
@@ -11459,7 +11459,7 @@
         <v>1.82</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT56" t="n">
         <v>0.63</v>
@@ -12271,7 +12271,7 @@
         <v>1.81</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU58" t="n">
         <v>1.54</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT59" t="n">
         <v>1.56</v>
@@ -12674,10 +12674,10 @@
         <v>0.25</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU60" t="n">
         <v>0.97</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT64" t="n">
         <v>0.63</v>
@@ -13895,7 +13895,7 @@
         <v>0.88</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14095,10 +14095,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU67" t="n">
         <v>3.06</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU68" t="n">
         <v>1.24</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT69" t="n">
         <v>1.56</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT70" t="n">
         <v>1.47</v>
@@ -15110,10 +15110,10 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU72" t="n">
         <v>1.73</v>
@@ -15316,7 +15316,7 @@
         <v>1.53</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU73" t="n">
         <v>1.65</v>
@@ -15722,7 +15722,7 @@
         <v>0.88</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -16125,10 +16125,10 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -16328,10 +16328,10 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT79" t="n">
         <v>0.9399999999999999</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU80" t="n">
         <v>1.41</v>
@@ -17140,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT82" t="n">
         <v>2.38</v>
@@ -17346,7 +17346,7 @@
         <v>2.35</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU83" t="n">
         <v>2.07</v>
@@ -17752,7 +17752,7 @@
         <v>0.88</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -17955,7 +17955,7 @@
         <v>1.81</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU86" t="n">
         <v>1.74</v>
@@ -18155,10 +18155,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU87" t="n">
         <v>1.88</v>
@@ -18358,10 +18358,10 @@
         <v>2.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT90" t="n">
         <v>0.63</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT91" t="n">
         <v>1.47</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT92" t="n">
         <v>0.9399999999999999</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT93" t="n">
         <v>0.63</v>
@@ -19579,7 +19579,7 @@
         <v>1.88</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU94" t="n">
         <v>2.01</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT95" t="n">
         <v>0.65</v>
@@ -19985,7 +19985,7 @@
         <v>1.53</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU96" t="n">
         <v>1.48</v>
@@ -20185,10 +20185,10 @@
         <v>1.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU97" t="n">
         <v>1.62</v>
@@ -20391,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU98" t="n">
         <v>1.38</v>
@@ -20997,10 +20997,10 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU101" t="n">
         <v>1.55</v>
@@ -21203,7 +21203,7 @@
         <v>1.81</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU102" t="n">
         <v>1.76</v>
@@ -21403,7 +21403,7 @@
         <v>0.43</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT103" t="n">
         <v>0.63</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -21809,10 +21809,10 @@
         <v>0.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU105" t="n">
         <v>1.55</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -22418,10 +22418,10 @@
         <v>2.17</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU108" t="n">
         <v>1.38</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT109" t="n">
         <v>2.38</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23433,10 +23433,10 @@
         <v>1.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU113" t="n">
         <v>2.51</v>
@@ -24042,10 +24042,10 @@
         <v>0.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24245,7 +24245,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT117" t="n">
         <v>0.63</v>
@@ -24448,10 +24448,10 @@
         <v>1.57</v>
       </c>
       <c r="AS118" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT118" t="n">
         <v>1.06</v>
-      </c>
-      <c r="AT118" t="n">
-        <v>1.13</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -25057,7 +25057,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT121" t="n">
         <v>1.56</v>
@@ -25263,7 +25263,7 @@
         <v>1.88</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -25463,7 +25463,7 @@
         <v>0.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT123" t="n">
         <v>0.65</v>
@@ -25669,7 +25669,7 @@
         <v>2.35</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU124" t="n">
         <v>2.01</v>
@@ -26681,10 +26681,10 @@
         <v>0.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.76</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT130" t="n">
         <v>0.63</v>
@@ -27087,10 +27087,10 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU131" t="n">
         <v>1.34</v>
@@ -27293,7 +27293,7 @@
         <v>1.88</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU132" t="n">
         <v>1.79</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT134" t="n">
         <v>0.9399999999999999</v>
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU135" t="n">
         <v>1.68</v>
@@ -28102,10 +28102,10 @@
         <v>0.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -28711,10 +28711,10 @@
         <v>1.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU139" t="n">
         <v>2.31</v>
@@ -28914,10 +28914,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU140" t="n">
         <v>1.03</v>
@@ -29117,7 +29117,7 @@
         <v>0.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT141" t="n">
         <v>0.63</v>
@@ -29526,7 +29526,7 @@
         <v>1.53</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -29729,7 +29729,7 @@
         <v>1.88</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT146" t="n">
         <v>0.9399999999999999</v>
@@ -30335,10 +30335,10 @@
         <v>1.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU147" t="n">
         <v>2.27</v>
@@ -30538,7 +30538,7 @@
         <v>0.78</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU149" t="n">
         <v>1.32</v>
@@ -30947,7 +30947,7 @@
         <v>0.88</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU150" t="n">
         <v>1.48</v>
@@ -31147,7 +31147,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT151" t="n">
         <v>2.38</v>
@@ -31353,7 +31353,7 @@
         <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31759,7 +31759,7 @@
         <v>1.82</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU154" t="n">
         <v>1.73</v>
@@ -31959,10 +31959,10 @@
         <v>0.78</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU155" t="n">
         <v>1.58</v>
@@ -32365,7 +32365,7 @@
         <v>0.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT157" t="n">
         <v>0.65</v>
@@ -32771,7 +32771,7 @@
         <v>1.11</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT159" t="n">
         <v>1.47</v>
@@ -32977,7 +32977,7 @@
         <v>2.35</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU160" t="n">
         <v>2.1</v>
@@ -33177,10 +33177,10 @@
         <v>0.22</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -33380,10 +33380,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU162" t="n">
         <v>1.78</v>
@@ -33586,7 +33586,7 @@
         <v>1</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU163" t="n">
         <v>1.31</v>
@@ -34192,7 +34192,7 @@
         <v>0.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT166" t="n">
         <v>0.63</v>
@@ -34598,10 +34598,10 @@
         <v>1.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU168" t="n">
         <v>1.3</v>
@@ -34801,10 +34801,10 @@
         <v>2.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU169" t="n">
         <v>2.21</v>
@@ -35004,7 +35004,7 @@
         <v>1.3</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT170" t="n">
         <v>1.56</v>
@@ -35207,10 +35207,10 @@
         <v>0.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU171" t="n">
         <v>1.29</v>
@@ -35613,10 +35613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -35819,7 +35819,7 @@
         <v>1.53</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU174" t="n">
         <v>1.44</v>
@@ -36019,7 +36019,7 @@
         <v>1.1</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT175" t="n">
         <v>1.47</v>
@@ -36428,7 +36428,7 @@
         <v>1.82</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU177" t="n">
         <v>1.78</v>
@@ -36831,7 +36831,7 @@
         <v>0.91</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37237,10 +37237,10 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU181" t="n">
         <v>2.19</v>
@@ -37443,7 +37443,7 @@
         <v>1.88</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU182" t="n">
         <v>1.62</v>
@@ -37646,7 +37646,7 @@
         <v>2.35</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU183" t="n">
         <v>2.11</v>
@@ -37846,7 +37846,7 @@
         <v>2.27</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT184" t="n">
         <v>2.38</v>
@@ -38255,7 +38255,7 @@
         <v>1.81</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU186" t="n">
         <v>1.66</v>
@@ -38455,10 +38455,10 @@
         <v>1.09</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU187" t="n">
         <v>1.56</v>
@@ -38658,7 +38658,7 @@
         <v>1.45</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT188" t="n">
         <v>1.56</v>
@@ -38861,10 +38861,10 @@
         <v>2.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU189" t="n">
         <v>1.04</v>
@@ -39064,10 +39064,10 @@
         <v>0.27</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39673,10 +39673,10 @@
         <v>1.45</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -39879,7 +39879,7 @@
         <v>2</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU194" t="n">
         <v>1.63</v>
@@ -40082,7 +40082,7 @@
         <v>2.35</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU195" t="n">
         <v>2.1</v>
@@ -40282,7 +40282,7 @@
         <v>1.08</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT196" t="n">
         <v>0.9399999999999999</v>
@@ -40485,10 +40485,10 @@
         <v>1.5</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU197" t="n">
         <v>1</v>
@@ -41094,10 +41094,10 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -41297,7 +41297,7 @@
         <v>0.58</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT201" t="n">
         <v>0.65</v>
@@ -41703,7 +41703,7 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT203" t="n">
         <v>0.63</v>
@@ -42112,7 +42112,7 @@
         <v>1.82</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU205" t="n">
         <v>1.72</v>
@@ -42312,10 +42312,10 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -42515,10 +42515,10 @@
         <v>0.25</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU207" t="n">
         <v>1.8</v>
@@ -42718,7 +42718,7 @@
         <v>1.42</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT208" t="n">
         <v>1.47</v>
@@ -42924,7 +42924,7 @@
         <v>1.81</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU209" t="n">
         <v>1.69</v>
@@ -43127,7 +43127,7 @@
         <v>1.53</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU210" t="n">
         <v>1.53</v>
@@ -43530,10 +43530,10 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU212" t="n">
         <v>0.98</v>
@@ -43733,10 +43733,10 @@
         <v>1.31</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU213" t="n">
         <v>1.69</v>
@@ -43936,7 +43936,7 @@
         <v>2.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT214" t="n">
         <v>2.38</v>
@@ -44139,7 +44139,7 @@
         <v>0.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT215" t="n">
         <v>0.63</v>
@@ -44345,7 +44345,7 @@
         <v>1</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU216" t="n">
         <v>1.44</v>
@@ -44751,7 +44751,7 @@
         <v>0.88</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU218" t="n">
         <v>1.32</v>
@@ -44954,7 +44954,7 @@
         <v>2</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU219" t="n">
         <v>1.63</v>
@@ -45154,7 +45154,7 @@
         <v>0.85</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT220" t="n">
         <v>1</v>
@@ -45360,7 +45360,7 @@
         <v>1.82</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU221" t="n">
         <v>1.68</v>
@@ -45560,7 +45560,7 @@
         <v>1.38</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT222" t="n">
         <v>1.47</v>
@@ -45763,7 +45763,7 @@
         <v>0.54</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT223" t="n">
         <v>0.63</v>
@@ -46169,10 +46169,10 @@
         <v>2.46</v>
       </c>
       <c r="AS225" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT225" t="n">
         <v>2.44</v>
-      </c>
-      <c r="AT225" t="n">
-        <v>2.53</v>
       </c>
       <c r="AU225" t="n">
         <v>1.61</v>
@@ -46578,7 +46578,7 @@
         <v>1.88</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU227" t="n">
         <v>1.52</v>
@@ -46984,7 +46984,7 @@
         <v>1.82</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU229" t="n">
         <v>1.67</v>
@@ -47387,7 +47387,7 @@
         <v>0.57</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT231" t="n">
         <v>0.65</v>
@@ -47590,7 +47590,7 @@
         <v>2.43</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT232" t="n">
         <v>2.38</v>
@@ -47793,10 +47793,10 @@
         <v>0.79</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU233" t="n">
         <v>2.16</v>
@@ -47996,10 +47996,10 @@
         <v>1.14</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU234" t="n">
         <v>1.53</v>
@@ -48199,10 +48199,10 @@
         <v>1.29</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU235" t="n">
         <v>1.65</v>
@@ -48608,7 +48608,7 @@
         <v>1.81</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU237" t="n">
         <v>1.71</v>
@@ -48808,10 +48808,10 @@
         <v>2.5</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU238" t="n">
         <v>1.83</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT239" t="n">
         <v>1</v>
@@ -49417,10 +49417,10 @@
         <v>0.43</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU241" t="n">
         <v>1.59</v>
@@ -49620,7 +49620,7 @@
         <v>1.13</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT242" t="n">
         <v>1</v>
@@ -49823,10 +49823,10 @@
         <v>0.73</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU243" t="n">
         <v>1.32</v>
@@ -50029,7 +50029,7 @@
         <v>1.53</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AU244" t="n">
         <v>1.5</v>
@@ -50635,7 +50635,7 @@
         <v>1.4</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT247" t="n">
         <v>1.47</v>
@@ -50838,10 +50838,10 @@
         <v>1.67</v>
       </c>
       <c r="AS248" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU248" t="n">
         <v>1.6</v>
@@ -51044,7 +51044,7 @@
         <v>2.35</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU249" t="n">
         <v>2.32</v>
@@ -51247,7 +51247,7 @@
         <v>1.88</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU250" t="n">
         <v>1.48</v>
@@ -51447,7 +51447,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT251" t="n">
         <v>0.9399999999999999</v>
@@ -52868,10 +52868,10 @@
         <v>1.4</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU258" t="n">
         <v>1.53</v>
@@ -53126,6 +53126,1630 @@
       </c>
       <c r="BK259" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6088373</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45071.59375</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Beroe</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>2</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>2</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>5</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2</v>
+      </c>
+      <c r="S260" t="n">
+        <v>7</v>
+      </c>
+      <c r="T260" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V260" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X260" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>6088375</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45072.5</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Hebar 1918</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>3</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="n">
+        <v>4</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['45+1', '81', '88']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>5</v>
+      </c>
+      <c r="R261" t="n">
+        <v>5</v>
+      </c>
+      <c r="S261" t="n">
+        <v>10</v>
+      </c>
+      <c r="T261" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V261" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X261" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6083744</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45072.60416666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2</v>
+      </c>
+      <c r="L262" t="n">
+        <v>2</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>3</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['17', '71']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>4</v>
+      </c>
+      <c r="R262" t="n">
+        <v>6</v>
+      </c>
+      <c r="S262" t="n">
+        <v>10</v>
+      </c>
+      <c r="T262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U262" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V262" t="n">
+        <v>6</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>6088374</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45073.53125</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>OFK Pirin</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>2</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['56', '90+3']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>11</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
+      <c r="S263" t="n">
+        <v>11</v>
+      </c>
+      <c r="T263" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V263" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6088377</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>6</v>
+      </c>
+      <c r="R264" t="n">
+        <v>1</v>
+      </c>
+      <c r="S264" t="n">
+        <v>7</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V264" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>6083743</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45074.625</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>2</v>
+      </c>
+      <c r="M265" t="n">
+        <v>2</v>
+      </c>
+      <c r="N265" t="n">
+        <v>4</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['58', '86']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['46', '62']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>4</v>
+      </c>
+      <c r="R265" t="n">
+        <v>7</v>
+      </c>
+      <c r="S265" t="n">
+        <v>11</v>
+      </c>
+      <c r="T265" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V265" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>6083746</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45075.47916666666</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2</v>
+      </c>
+      <c r="K266" t="n">
+        <v>2</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3</v>
+      </c>
+      <c r="N266" t="n">
+        <v>4</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['6', '37', '90']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
+      <c r="S266" t="n">
+        <v>0</v>
+      </c>
+      <c r="T266" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>6088378</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Bulgaria First League</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45075.58333333334</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>8</v>
+      </c>
+      <c r="R267" t="n">
+        <v>7</v>
+      </c>
+      <c r="S267" t="n">
+        <v>15</v>
+      </c>
+      <c r="T267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V267" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,33 @@
     <t>['58', '86']</t>
   </si>
   <si>
+    <t>['56', '90+4']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['55', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['52', '89']</t>
+  </si>
+  <si>
+    <t>['23', '66', '72']</t>
+  </si>
+  <si>
+    <t>['5', '15']</t>
+  </si>
+  <si>
+    <t>['42', '90+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['28', '63', '90+1']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -904,9 +931,6 @@
     <t>['60', '66']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
     <t>['10', '83']</t>
   </si>
   <si>
@@ -932,9 +956,6 @@
   </si>
   <si>
     <t>['18', '73']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['4', '49']</t>
@@ -1028,6 +1049,21 @@
   </si>
   <si>
     <t>['6', '37', '90']</t>
+  </si>
+  <si>
+    <t>['48', '67', '79']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['39', '50']</t>
+  </si>
+  <si>
+    <t>['24', '73']</t>
+  </si>
+  <si>
+    <t>['32', '60']</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK267"/>
+  <dimension ref="A1:BK278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1669,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1723,7 +1759,7 @@
         <v>1.29</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1824,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1911,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>2.44</v>
@@ -2015,7 +2051,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2102,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT4">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2296,7 +2332,7 @@
         <v>2.18</v>
       </c>
       <c r="AT5">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2397,7 +2433,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2484,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT6">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2675,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT7">
         <v>1.24</v>
@@ -2866,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT8">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3057,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT9">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3161,7 +3197,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3248,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT10">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3439,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT11">
         <v>1.06</v>
@@ -3630,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT12">
         <v>2.38</v>
@@ -3824,7 +3860,7 @@
         <v>2.25</v>
       </c>
       <c r="AT13">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4015,7 +4051,7 @@
         <v>1.81</v>
       </c>
       <c r="AT14">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4116,7 +4152,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4203,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT15">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4307,7 +4343,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4394,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT16">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4585,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT17">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4689,7 +4725,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4776,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT18">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU18">
         <v>0.97</v>
@@ -4880,7 +4916,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5158,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
         <v>0.9399999999999999</v>
@@ -5262,7 +5298,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5540,10 +5576,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5731,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU23">
         <v>0.78</v>
@@ -5922,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT24">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU24">
         <v>1.75</v>
@@ -6026,7 +6062,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6113,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT25">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -6304,10 +6340,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT26">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU26">
         <v>1.81</v>
@@ -6495,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT27">
         <v>1.06</v>
@@ -6599,7 +6635,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6686,10 +6722,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT28">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU28">
         <v>0.9399999999999999</v>
@@ -6877,10 +6913,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT29">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU29">
         <v>1.29</v>
@@ -7068,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT30">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -7172,7 +7208,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7259,10 +7295,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT31">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7450,10 +7486,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU32">
         <v>1.22</v>
@@ -7554,7 +7590,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7641,10 +7677,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT33">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU33">
         <v>1.33</v>
@@ -7745,7 +7781,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7835,7 +7871,7 @@
         <v>2.18</v>
       </c>
       <c r="AT34">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU34">
         <v>1.22</v>
@@ -8026,7 +8062,7 @@
         <v>2.25</v>
       </c>
       <c r="AT35">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU35">
         <v>3.77</v>
@@ -8127,7 +8163,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8214,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT36">
         <v>0.9399999999999999</v>
@@ -8405,7 +8441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT37">
         <v>1.24</v>
@@ -8599,7 +8635,7 @@
         <v>1.81</v>
       </c>
       <c r="AT38">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8700,7 +8736,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8787,10 +8823,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT39">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU39">
         <v>1.05</v>
@@ -8978,10 +9014,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT40">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -9082,7 +9118,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9169,10 +9205,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT41">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU41">
         <v>1.22</v>
@@ -9360,10 +9396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT42">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU42">
         <v>1.68</v>
@@ -9551,7 +9587,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT43">
         <v>1.06</v>
@@ -9742,10 +9778,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT44">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU44">
         <v>1.57</v>
@@ -9846,7 +9882,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9936,7 +9972,7 @@
         <v>1.29</v>
       </c>
       <c r="AT45">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU45">
         <v>2.02</v>
@@ -10037,7 +10073,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10124,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT46">
         <v>1.24</v>
@@ -10318,7 +10354,7 @@
         <v>2.25</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU47">
         <v>3.04</v>
@@ -10697,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU49">
         <v>1.43</v>
@@ -10801,7 +10837,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10891,7 +10927,7 @@
         <v>1.88</v>
       </c>
       <c r="AT50">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10992,7 +11028,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11079,7 +11115,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT51">
         <v>2.44</v>
@@ -11183,7 +11219,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11273,7 +11309,7 @@
         <v>1.29</v>
       </c>
       <c r="AT52">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU52">
         <v>1.85</v>
@@ -11461,7 +11497,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT53">
         <v>1.06</v>
@@ -11652,10 +11688,10 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT54">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU54">
         <v>1.59</v>
@@ -11756,7 +11792,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11843,10 +11879,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU55">
         <v>1.49</v>
@@ -12034,10 +12070,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT56">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU56">
         <v>0.96</v>
@@ -12138,7 +12174,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12225,10 +12261,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT57">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU57">
         <v>1.9</v>
@@ -12329,7 +12365,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12607,10 +12643,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT59">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU59">
         <v>1.69</v>
@@ -12798,10 +12834,10 @@
         <v>0.25</v>
       </c>
       <c r="AS60">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT60">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU60">
         <v>0.97</v>
@@ -13180,7 +13216,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
         <v>2.38</v>
@@ -13371,10 +13407,10 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT63">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU63">
         <v>1.37</v>
@@ -13565,7 +13601,7 @@
         <v>2.18</v>
       </c>
       <c r="AT64">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13753,10 +13789,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -13944,10 +13980,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -14326,10 +14362,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT68">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU68">
         <v>1.24</v>
@@ -14520,7 +14556,7 @@
         <v>1.29</v>
       </c>
       <c r="AT69">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -14621,7 +14657,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14708,10 +14744,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU70">
         <v>1.63</v>
@@ -14902,7 +14938,7 @@
         <v>1.81</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU71">
         <v>1.7</v>
@@ -15090,10 +15126,10 @@
         <v>1.8</v>
       </c>
       <c r="AS72">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT72">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU72">
         <v>1.73</v>
@@ -15194,7 +15230,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15281,7 +15317,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT73">
         <v>2.44</v>
@@ -15472,10 +15508,10 @@
         <v>0.4</v>
       </c>
       <c r="AS74">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT74">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15576,7 +15612,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15663,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT75">
         <v>1.06</v>
@@ -15767,7 +15803,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15854,10 +15890,10 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT76">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15958,7 +15994,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16045,10 +16081,10 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT77">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -16239,7 +16275,7 @@
         <v>2.18</v>
       </c>
       <c r="AT78">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU78">
         <v>1.49</v>
@@ -16340,7 +16376,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16427,7 +16463,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT79">
         <v>0.9399999999999999</v>
@@ -16618,10 +16654,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT80">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU80">
         <v>1.41</v>
@@ -16812,7 +16848,7 @@
         <v>1.88</v>
       </c>
       <c r="AT81">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -17104,7 +17140,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17191,7 +17227,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT83">
         <v>1.24</v>
@@ -17382,10 +17418,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU84">
         <v>1.5</v>
@@ -17486,7 +17522,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17573,10 +17609,10 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT85">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -17767,7 +17803,7 @@
         <v>1.81</v>
       </c>
       <c r="AT86">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU86">
         <v>1.74</v>
@@ -17958,7 +17994,7 @@
         <v>1.29</v>
       </c>
       <c r="AT87">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU87">
         <v>1.88</v>
@@ -18146,7 +18182,7 @@
         <v>2.6</v>
       </c>
       <c r="AS88">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT88">
         <v>2.44</v>
@@ -18250,7 +18286,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18337,10 +18373,10 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT89">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18441,7 +18477,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18528,10 +18564,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT90">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU90">
         <v>1.67</v>
@@ -18719,10 +18755,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT91">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU91">
         <v>1.49</v>
@@ -18823,7 +18859,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18910,7 +18946,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT92">
         <v>0.9399999999999999</v>
@@ -19101,10 +19137,10 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT93">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU93">
         <v>1.3</v>
@@ -19295,7 +19331,7 @@
         <v>1.88</v>
       </c>
       <c r="AT94">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU94">
         <v>2.01</v>
@@ -19486,7 +19522,7 @@
         <v>2.25</v>
       </c>
       <c r="AT95">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU95">
         <v>2.61</v>
@@ -19674,7 +19710,7 @@
         <v>1.17</v>
       </c>
       <c r="AS96">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT96">
         <v>1.24</v>
@@ -19868,7 +19904,7 @@
         <v>2.18</v>
       </c>
       <c r="AT97">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19969,7 +20005,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20056,7 +20092,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT98">
         <v>1.06</v>
@@ -20247,7 +20283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT99">
         <v>2.38</v>
@@ -20441,7 +20477,7 @@
         <v>1.88</v>
       </c>
       <c r="AT100">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU100">
         <v>2.04</v>
@@ -20629,10 +20665,10 @@
         <v>0.57</v>
       </c>
       <c r="AS101">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT101">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU101">
         <v>1.55</v>
@@ -20733,7 +20769,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -21014,7 +21050,7 @@
         <v>1.29</v>
       </c>
       <c r="AT103">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU103">
         <v>1.81</v>
@@ -21202,10 +21238,10 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU104">
         <v>1.62</v>
@@ -21396,7 +21432,7 @@
         <v>2.18</v>
       </c>
       <c r="AT105">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21584,10 +21620,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT106">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21775,10 +21811,10 @@
         <v>1.29</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT107">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -21879,7 +21915,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -21966,7 +22002,7 @@
         <v>2.17</v>
       </c>
       <c r="AS108">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT108">
         <v>2.44</v>
@@ -22070,7 +22106,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22261,7 +22297,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22348,7 +22384,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT110">
         <v>0.9399999999999999</v>
@@ -22539,10 +22575,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT111">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -22643,7 +22679,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22733,7 +22769,7 @@
         <v>1.88</v>
       </c>
       <c r="AT112">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU112">
         <v>1.86</v>
@@ -23025,7 +23061,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23112,7 +23148,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT114">
         <v>2.38</v>
@@ -23303,10 +23339,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT115">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23407,7 +23443,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23494,10 +23530,10 @@
         <v>0.5</v>
       </c>
       <c r="AS116">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT116">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23598,7 +23634,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23685,10 +23721,10 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT117">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU117">
         <v>1.04</v>
@@ -23876,7 +23912,7 @@
         <v>1.57</v>
       </c>
       <c r="AS118">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT118">
         <v>1.06</v>
@@ -23980,7 +24016,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24067,7 +24103,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT119">
         <v>2.38</v>
@@ -24452,7 +24488,7 @@
         <v>2.25</v>
       </c>
       <c r="AT121">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU121">
         <v>2.37</v>
@@ -24553,7 +24589,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24643,7 +24679,7 @@
         <v>1.88</v>
       </c>
       <c r="AT122">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24744,7 +24780,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -24831,10 +24867,10 @@
         <v>0.14</v>
       </c>
       <c r="AS123">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT123">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU123">
         <v>1.05</v>
@@ -25022,10 +25058,10 @@
         <v>0.86</v>
       </c>
       <c r="AS124">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT124">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU124">
         <v>2.01</v>
@@ -25213,10 +25249,10 @@
         <v>0.29</v>
       </c>
       <c r="AS125">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT125">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU125">
         <v>1.41</v>
@@ -25317,7 +25353,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25404,7 +25440,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT126">
         <v>2.38</v>
@@ -25598,7 +25634,7 @@
         <v>1.81</v>
       </c>
       <c r="AT127">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU127">
         <v>1.86</v>
@@ -25786,10 +25822,10 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT128">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25980,7 +26016,7 @@
         <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU129">
         <v>1.76</v>
@@ -26081,7 +26117,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26171,7 +26207,7 @@
         <v>2.18</v>
       </c>
       <c r="AT130">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU130">
         <v>1.7</v>
@@ -26359,7 +26395,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT131">
         <v>1.24</v>
@@ -26553,7 +26589,7 @@
         <v>1.88</v>
       </c>
       <c r="AT132">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU132">
         <v>1.79</v>
@@ -26654,7 +26690,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26741,10 +26777,10 @@
         <v>1.14</v>
       </c>
       <c r="AS133">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT133">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU133">
         <v>1.32</v>
@@ -26932,7 +26968,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT134">
         <v>0.9399999999999999</v>
@@ -27036,7 +27072,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27123,7 +27159,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT135">
         <v>2.44</v>
@@ -27227,7 +27263,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27314,10 +27350,10 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT136">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU136">
         <v>1.31</v>
@@ -27505,10 +27541,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT137">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU137">
         <v>1.7</v>
@@ -27609,7 +27645,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27800,7 +27836,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27890,7 +27926,7 @@
         <v>2.25</v>
       </c>
       <c r="AT139">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU139">
         <v>2.31</v>
@@ -27991,7 +28027,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28078,7 +28114,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT140">
         <v>1.06</v>
@@ -28182,7 +28218,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28269,10 +28305,10 @@
         <v>0.25</v>
       </c>
       <c r="AS141">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU141">
         <v>1.58</v>
@@ -28373,7 +28409,7 @@
         <v>151</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28460,10 +28496,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT142">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU142">
         <v>2.08</v>
@@ -28651,10 +28687,10 @@
         <v>0.75</v>
       </c>
       <c r="AS143">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT143">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU143">
         <v>1.45</v>
@@ -28755,7 +28791,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29033,10 +29069,10 @@
         <v>1.13</v>
       </c>
       <c r="AS145">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT145">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU145">
         <v>2.18</v>
@@ -29418,7 +29454,7 @@
         <v>2.25</v>
       </c>
       <c r="AT147">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU147">
         <v>2.27</v>
@@ -29609,7 +29645,7 @@
         <v>2.18</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU148">
         <v>1.7</v>
@@ -29710,7 +29746,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29797,7 +29833,7 @@
         <v>2.44</v>
       </c>
       <c r="AS149">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT149">
         <v>2.44</v>
@@ -29988,7 +30024,7 @@
         <v>1</v>
       </c>
       <c r="AS150">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT150">
         <v>1.24</v>
@@ -30092,7 +30128,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30179,7 +30215,7 @@
         <v>2.11</v>
       </c>
       <c r="AS151">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT151">
         <v>2.38</v>
@@ -30370,10 +30406,10 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT152">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU152">
         <v>1.61</v>
@@ -30564,7 +30600,7 @@
         <v>1.88</v>
       </c>
       <c r="AT153">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU153">
         <v>1.66</v>
@@ -30752,7 +30788,7 @@
         <v>1.67</v>
       </c>
       <c r="AS154">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT154">
         <v>1.06</v>
@@ -30856,7 +30892,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30943,10 +30979,10 @@
         <v>0.78</v>
       </c>
       <c r="AS155">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT155">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU155">
         <v>1.58</v>
@@ -31047,7 +31083,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31137,7 +31173,7 @@
         <v>1.81</v>
       </c>
       <c r="AT156">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU156">
         <v>1.6</v>
@@ -31325,10 +31361,10 @@
         <v>0.44</v>
       </c>
       <c r="AS157">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT157">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31516,10 +31552,10 @@
         <v>1.44</v>
       </c>
       <c r="AS158">
+        <v>1.44</v>
+      </c>
+      <c r="AT158">
         <v>1.53</v>
-      </c>
-      <c r="AT158">
-        <v>1.56</v>
       </c>
       <c r="AU158">
         <v>1.49</v>
@@ -31707,10 +31743,10 @@
         <v>1.11</v>
       </c>
       <c r="AS159">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT159">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU159">
         <v>1.33</v>
@@ -31898,10 +31934,10 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT160">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU160">
         <v>2.1</v>
@@ -32089,10 +32125,10 @@
         <v>0.22</v>
       </c>
       <c r="AS161">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT161">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU161">
         <v>1.14</v>
@@ -32384,7 +32420,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32471,10 +32507,10 @@
         <v>0.5</v>
       </c>
       <c r="AS163">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT163">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU163">
         <v>1.31</v>
@@ -32662,7 +32698,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT164">
         <v>0.9399999999999999</v>
@@ -32766,7 +32802,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -32856,7 +32892,7 @@
         <v>1.88</v>
       </c>
       <c r="AT165">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU165">
         <v>1.61</v>
@@ -33047,7 +33083,7 @@
         <v>1.29</v>
       </c>
       <c r="AT166">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU166">
         <v>1.86</v>
@@ -33235,7 +33271,7 @@
         <v>2.2</v>
       </c>
       <c r="AS167">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT167">
         <v>2.38</v>
@@ -33339,7 +33375,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33426,10 +33462,10 @@
         <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT168">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU168">
         <v>1.3</v>
@@ -33721,7 +33757,7 @@
         <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33808,10 +33844,10 @@
         <v>1.3</v>
       </c>
       <c r="AS170">
+        <v>1.44</v>
+      </c>
+      <c r="AT170">
         <v>1.53</v>
-      </c>
-      <c r="AT170">
-        <v>1.56</v>
       </c>
       <c r="AU170">
         <v>1.53</v>
@@ -33912,7 +33948,7 @@
         <v>112</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33999,10 +34035,10 @@
         <v>0.8</v>
       </c>
       <c r="AS171">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT171">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU171">
         <v>1.29</v>
@@ -34103,7 +34139,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q172">
         <v>8</v>
@@ -34193,7 +34229,7 @@
         <v>1.81</v>
       </c>
       <c r="AT172">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU172">
         <v>1.6</v>
@@ -34381,7 +34417,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT173">
         <v>1.06</v>
@@ -34572,10 +34608,10 @@
         <v>1.2</v>
       </c>
       <c r="AS174">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT174">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU174">
         <v>1.44</v>
@@ -34676,7 +34712,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -34763,10 +34799,10 @@
         <v>1.1</v>
       </c>
       <c r="AS175">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT175">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU175">
         <v>1.1</v>
@@ -34867,7 +34903,7 @@
         <v>81</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q176">
         <v>9</v>
@@ -34954,10 +34990,10 @@
         <v>0.3</v>
       </c>
       <c r="AS176">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT176">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU176">
         <v>2.05</v>
@@ -35145,10 +35181,10 @@
         <v>0.3</v>
       </c>
       <c r="AS177">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT177">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU177">
         <v>1.78</v>
@@ -35249,7 +35285,7 @@
         <v>192</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35336,10 +35372,10 @@
         <v>0.64</v>
       </c>
       <c r="AS178">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT178">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU178">
         <v>1.39</v>
@@ -35527,10 +35563,10 @@
         <v>0.91</v>
       </c>
       <c r="AS179">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU179">
         <v>1.31</v>
@@ -35631,7 +35667,7 @@
         <v>194</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>10</v>
@@ -35718,7 +35754,7 @@
         <v>0.91</v>
       </c>
       <c r="AS180">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT180">
         <v>0.9399999999999999</v>
@@ -35912,7 +35948,7 @@
         <v>2.25</v>
       </c>
       <c r="AT181">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU181">
         <v>2.19</v>
@@ -36204,7 +36240,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36291,10 +36327,10 @@
         <v>1.64</v>
       </c>
       <c r="AS183">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT183">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU183">
         <v>2.11</v>
@@ -36673,10 +36709,10 @@
         <v>0.55</v>
       </c>
       <c r="AS185">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT185">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU185">
         <v>1.71</v>
@@ -36867,7 +36903,7 @@
         <v>1.81</v>
       </c>
       <c r="AT186">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU186">
         <v>1.66</v>
@@ -37055,10 +37091,10 @@
         <v>1.09</v>
       </c>
       <c r="AS187">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT187">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU187">
         <v>1.56</v>
@@ -37159,7 +37195,7 @@
         <v>142</v>
       </c>
       <c r="P188" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37246,10 +37282,10 @@
         <v>1.45</v>
       </c>
       <c r="AS188">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT188">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU188">
         <v>1.32</v>
@@ -37350,7 +37386,7 @@
         <v>199</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -37437,7 +37473,7 @@
         <v>2.36</v>
       </c>
       <c r="AS189">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT189">
         <v>2.44</v>
@@ -37628,10 +37664,10 @@
         <v>0.27</v>
       </c>
       <c r="AS190">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT190">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU190">
         <v>1.69</v>
@@ -37819,10 +37855,10 @@
         <v>0.55</v>
       </c>
       <c r="AS191">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT191">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU191">
         <v>1.42</v>
@@ -37923,7 +37959,7 @@
         <v>81</v>
       </c>
       <c r="P192" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -38010,10 +38046,10 @@
         <v>1.27</v>
       </c>
       <c r="AS192">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT192">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU192">
         <v>1.76</v>
@@ -38114,7 +38150,7 @@
         <v>196</v>
       </c>
       <c r="P193" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38392,10 +38428,10 @@
         <v>0.92</v>
       </c>
       <c r="AS194">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT194">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU194">
         <v>1.63</v>
@@ -38496,7 +38532,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38583,10 +38619,10 @@
         <v>0.42</v>
       </c>
       <c r="AS195">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT195">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU195">
         <v>2.1</v>
@@ -38878,7 +38914,7 @@
         <v>81</v>
       </c>
       <c r="P197" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -38965,10 +39001,10 @@
         <v>1.5</v>
       </c>
       <c r="AS197">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT197">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU197">
         <v>1</v>
@@ -39069,7 +39105,7 @@
         <v>81</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39156,10 +39192,10 @@
         <v>0.58</v>
       </c>
       <c r="AS198">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT198">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU198">
         <v>1.43</v>
@@ -39260,7 +39296,7 @@
         <v>81</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39451,7 +39487,7 @@
         <v>119</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39538,7 +39574,7 @@
         <v>1</v>
       </c>
       <c r="AS200">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT200">
         <v>1.24</v>
@@ -39642,7 +39678,7 @@
         <v>204</v>
       </c>
       <c r="P201" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39732,7 +39768,7 @@
         <v>2.18</v>
       </c>
       <c r="AT201">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU201">
         <v>1.7</v>
@@ -39920,10 +39956,10 @@
         <v>0.83</v>
       </c>
       <c r="AS202">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT202">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU202">
         <v>1.51</v>
@@ -40111,10 +40147,10 @@
         <v>0.58</v>
       </c>
       <c r="AS203">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT203">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU203">
         <v>1.56</v>
@@ -40215,7 +40251,7 @@
         <v>183</v>
       </c>
       <c r="P204" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40302,10 +40338,10 @@
         <v>1.58</v>
       </c>
       <c r="AS204">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT204">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU204">
         <v>1.35</v>
@@ -40406,7 +40442,7 @@
         <v>203</v>
       </c>
       <c r="P205" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40493,7 +40529,7 @@
         <v>2.42</v>
       </c>
       <c r="AS205">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT205">
         <v>2.44</v>
@@ -40684,10 +40720,10 @@
         <v>1</v>
       </c>
       <c r="AS206">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT206">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU206">
         <v>1.32</v>
@@ -40788,7 +40824,7 @@
         <v>206</v>
       </c>
       <c r="P207" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40878,7 +40914,7 @@
         <v>1.29</v>
       </c>
       <c r="AT207">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU207">
         <v>1.8</v>
@@ -41066,10 +41102,10 @@
         <v>1.42</v>
       </c>
       <c r="AS208">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT208">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU208">
         <v>1.68</v>
@@ -41361,7 +41397,7 @@
         <v>81</v>
       </c>
       <c r="P210" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -41448,10 +41484,10 @@
         <v>1.62</v>
       </c>
       <c r="AS210">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT210">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU210">
         <v>1.53</v>
@@ -41639,7 +41675,7 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT211">
         <v>0.9399999999999999</v>
@@ -41830,7 +41866,7 @@
         <v>1</v>
       </c>
       <c r="AS212">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT212">
         <v>1.24</v>
@@ -42212,7 +42248,7 @@
         <v>2.38</v>
       </c>
       <c r="AS214">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT214">
         <v>2.38</v>
@@ -42406,7 +42442,7 @@
         <v>2.25</v>
       </c>
       <c r="AT215">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU215">
         <v>2.21</v>
@@ -42594,10 +42630,10 @@
         <v>0.85</v>
       </c>
       <c r="AS216">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT216">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU216">
         <v>1.44</v>
@@ -42788,7 +42824,7 @@
         <v>1.88</v>
       </c>
       <c r="AT217">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU217">
         <v>1.53</v>
@@ -42889,7 +42925,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -42976,10 +43012,10 @@
         <v>1.15</v>
       </c>
       <c r="AS218">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT218">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU218">
         <v>1.32</v>
@@ -43167,10 +43203,10 @@
         <v>0.31</v>
       </c>
       <c r="AS219">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT219">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU219">
         <v>1.63</v>
@@ -43271,7 +43307,7 @@
         <v>139</v>
       </c>
       <c r="P220" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43358,10 +43394,10 @@
         <v>0.85</v>
       </c>
       <c r="AS220">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT220">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU220">
         <v>1.55</v>
@@ -43549,10 +43585,10 @@
         <v>0.38</v>
       </c>
       <c r="AS221">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT221">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU221">
         <v>1.68</v>
@@ -43743,7 +43779,7 @@
         <v>1.29</v>
       </c>
       <c r="AT222">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU222">
         <v>1.83</v>
@@ -43931,10 +43967,10 @@
         <v>0.54</v>
       </c>
       <c r="AS223">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT223">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU223">
         <v>1.33</v>
@@ -44125,7 +44161,7 @@
         <v>1.81</v>
       </c>
       <c r="AT224">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU224">
         <v>1.71</v>
@@ -44226,7 +44262,7 @@
         <v>81</v>
       </c>
       <c r="P225" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44313,7 +44349,7 @@
         <v>2.46</v>
       </c>
       <c r="AS225">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT225">
         <v>2.44</v>
@@ -44504,7 +44540,7 @@
         <v>0.93</v>
       </c>
       <c r="AS226">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT226">
         <v>0.9399999999999999</v>
@@ -44799,7 +44835,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -44886,10 +44922,10 @@
         <v>1.64</v>
       </c>
       <c r="AS228">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT228">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU228">
         <v>1.43</v>
@@ -44990,7 +45026,7 @@
         <v>216</v>
       </c>
       <c r="P229" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45077,10 +45113,10 @@
         <v>1.71</v>
       </c>
       <c r="AS229">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT229">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU229">
         <v>1.67</v>
@@ -45268,10 +45304,10 @@
         <v>0.71</v>
       </c>
       <c r="AS230">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT230">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU230">
         <v>2.29</v>
@@ -45372,7 +45408,7 @@
         <v>218</v>
       </c>
       <c r="P231" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q231">
         <v>6</v>
@@ -45459,10 +45495,10 @@
         <v>0.57</v>
       </c>
       <c r="AS231">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT231">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU231">
         <v>1.32</v>
@@ -45563,7 +45599,7 @@
         <v>81</v>
       </c>
       <c r="P232" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q232">
         <v>1</v>
@@ -45650,7 +45686,7 @@
         <v>2.43</v>
       </c>
       <c r="AS232">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT232">
         <v>2.38</v>
@@ -45844,7 +45880,7 @@
         <v>2.25</v>
       </c>
       <c r="AT233">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU233">
         <v>2.16</v>
@@ -45945,7 +45981,7 @@
         <v>220</v>
       </c>
       <c r="P234" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q234">
         <v>7</v>
@@ -46032,7 +46068,7 @@
         <v>1.14</v>
       </c>
       <c r="AS234">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT234">
         <v>1.24</v>
@@ -46226,7 +46262,7 @@
         <v>2.18</v>
       </c>
       <c r="AT235">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU235">
         <v>1.65</v>
@@ -46327,7 +46363,7 @@
         <v>81</v>
       </c>
       <c r="P236" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46414,10 +46450,10 @@
         <v>0.5</v>
       </c>
       <c r="AS236">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT236">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU236">
         <v>1.33</v>
@@ -46518,7 +46554,7 @@
         <v>221</v>
       </c>
       <c r="P237" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q237">
         <v>11</v>
@@ -46608,7 +46644,7 @@
         <v>1.81</v>
       </c>
       <c r="AT237">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU237">
         <v>1.71</v>
@@ -46709,7 +46745,7 @@
         <v>81</v>
       </c>
       <c r="P238" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q238">
         <v>2</v>
@@ -46900,7 +46936,7 @@
         <v>81</v>
       </c>
       <c r="P239" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q239">
         <v>8</v>
@@ -46987,10 +47023,10 @@
         <v>1</v>
       </c>
       <c r="AS239">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU239">
         <v>1.31</v>
@@ -47178,10 +47214,10 @@
         <v>1.5</v>
       </c>
       <c r="AS240">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT240">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU240">
         <v>1.66</v>
@@ -47369,10 +47405,10 @@
         <v>0.43</v>
       </c>
       <c r="AS241">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT241">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU241">
         <v>1.59</v>
@@ -47560,10 +47596,10 @@
         <v>1.13</v>
       </c>
       <c r="AS242">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT242">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU242">
         <v>1.34</v>
@@ -47751,10 +47787,10 @@
         <v>0.73</v>
       </c>
       <c r="AS243">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT243">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU243">
         <v>1.32</v>
@@ -47942,10 +47978,10 @@
         <v>0.27</v>
       </c>
       <c r="AS244">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT244">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU244">
         <v>1.5</v>
@@ -48136,7 +48172,7 @@
         <v>1.88</v>
       </c>
       <c r="AT245">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU245">
         <v>1.51</v>
@@ -48324,7 +48360,7 @@
         <v>0.87</v>
       </c>
       <c r="AS246">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT246">
         <v>0.9399999999999999</v>
@@ -48428,7 +48464,7 @@
         <v>229</v>
       </c>
       <c r="P247" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -48518,7 +48554,7 @@
         <v>2.18</v>
       </c>
       <c r="AT247">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU247">
         <v>1.65</v>
@@ -48706,10 +48742,10 @@
         <v>1.67</v>
       </c>
       <c r="AS248">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT248">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU248">
         <v>1.6</v>
@@ -48897,7 +48933,7 @@
         <v>1.2</v>
       </c>
       <c r="AS249">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT249">
         <v>1.06</v>
@@ -49192,7 +49228,7 @@
         <v>81</v>
       </c>
       <c r="P251" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q251">
         <v>10</v>
@@ -49473,7 +49509,7 @@
         <v>1.81</v>
       </c>
       <c r="AT252">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU252">
         <v>1.73</v>
@@ -49574,7 +49610,7 @@
         <v>232</v>
       </c>
       <c r="P253" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q253">
         <v>5</v>
@@ -49661,7 +49697,7 @@
         <v>2.47</v>
       </c>
       <c r="AS253">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT253">
         <v>2.38</v>
@@ -49852,10 +49888,10 @@
         <v>0.67</v>
       </c>
       <c r="AS254">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT254">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU254">
         <v>1.36</v>
@@ -49956,7 +49992,7 @@
         <v>81</v>
       </c>
       <c r="P255" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -50043,10 +50079,10 @@
         <v>1.38</v>
       </c>
       <c r="AS255">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT255">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU255">
         <v>1.62</v>
@@ -50147,7 +50183,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50234,10 +50270,10 @@
         <v>1.06</v>
       </c>
       <c r="AS256">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT256">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU256">
         <v>1.43</v>
@@ -50425,10 +50461,10 @@
         <v>0.67</v>
       </c>
       <c r="AS257">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT257">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU257">
         <v>1.51</v>
@@ -50529,7 +50565,7 @@
         <v>236</v>
       </c>
       <c r="P258" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q258">
         <v>5</v>
@@ -50616,10 +50652,10 @@
         <v>1.4</v>
       </c>
       <c r="AS258">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT258">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU258">
         <v>1.53</v>
@@ -50807,10 +50843,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS259">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT259">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU259">
         <v>1.73</v>
@@ -50998,10 +51034,10 @@
         <v>0.31</v>
       </c>
       <c r="AS260">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT260">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU260">
         <v>1.32</v>
@@ -51189,10 +51225,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS261">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AT261">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU261">
         <v>1.01</v>
@@ -51383,7 +51419,7 @@
         <v>2.25</v>
       </c>
       <c r="AT262">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU262">
         <v>2.15</v>
@@ -51571,10 +51607,10 @@
         <v>0.4</v>
       </c>
       <c r="AS263">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT263">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU263">
         <v>1.34</v>
@@ -51762,7 +51798,7 @@
         <v>1.13</v>
       </c>
       <c r="AS264">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT264">
         <v>1.06</v>
@@ -51866,7 +51902,7 @@
         <v>242</v>
       </c>
       <c r="P265" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q265">
         <v>4</v>
@@ -52057,7 +52093,7 @@
         <v>144</v>
       </c>
       <c r="P266" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q266">
         <v>2</v>
@@ -52144,7 +52180,7 @@
         <v>1.13</v>
       </c>
       <c r="AS266">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT266">
         <v>1.24</v>
@@ -52338,7 +52374,7 @@
         <v>1.29</v>
       </c>
       <c r="AT267">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU267">
         <v>1.85</v>
@@ -52390,6 +52426,2107 @@
       </c>
       <c r="BK267">
         <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>6088380</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45077.54166666666</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268" t="s">
+        <v>73</v>
+      </c>
+      <c r="H268" t="s">
+        <v>78</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>3</v>
+      </c>
+      <c r="N268">
+        <v>5</v>
+      </c>
+      <c r="O268" t="s">
+        <v>243</v>
+      </c>
+      <c r="P268" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q268">
+        <v>6</v>
+      </c>
+      <c r="R268">
+        <v>5</v>
+      </c>
+      <c r="S268">
+        <v>11</v>
+      </c>
+      <c r="T268">
+        <v>3.2</v>
+      </c>
+      <c r="U268">
+        <v>2.05</v>
+      </c>
+      <c r="V268">
+        <v>3.1</v>
+      </c>
+      <c r="W268">
+        <v>1.4</v>
+      </c>
+      <c r="X268">
+        <v>2.75</v>
+      </c>
+      <c r="Y268">
+        <v>3</v>
+      </c>
+      <c r="Z268">
+        <v>1.36</v>
+      </c>
+      <c r="AA268">
+        <v>7</v>
+      </c>
+      <c r="AB268">
+        <v>1.08</v>
+      </c>
+      <c r="AC268">
+        <v>3.75</v>
+      </c>
+      <c r="AD268">
+        <v>3.3</v>
+      </c>
+      <c r="AE268">
+        <v>1.81</v>
+      </c>
+      <c r="AF268">
+        <v>1.07</v>
+      </c>
+      <c r="AG268">
+        <v>7.5</v>
+      </c>
+      <c r="AH268">
+        <v>1.36</v>
+      </c>
+      <c r="AI268">
+        <v>3</v>
+      </c>
+      <c r="AJ268">
+        <v>2.05</v>
+      </c>
+      <c r="AK268">
+        <v>1.67</v>
+      </c>
+      <c r="AL268">
+        <v>1.8</v>
+      </c>
+      <c r="AM268">
+        <v>1.91</v>
+      </c>
+      <c r="AN268">
+        <v>1.44</v>
+      </c>
+      <c r="AO268">
+        <v>1.33</v>
+      </c>
+      <c r="AP268">
+        <v>1.44</v>
+      </c>
+      <c r="AQ268">
+        <v>1.53</v>
+      </c>
+      <c r="AR268">
+        <v>1</v>
+      </c>
+      <c r="AS268">
+        <v>1.44</v>
+      </c>
+      <c r="AT268">
+        <v>1.11</v>
+      </c>
+      <c r="AU268">
+        <v>1.51</v>
+      </c>
+      <c r="AV268">
+        <v>1.09</v>
+      </c>
+      <c r="AW268">
+        <v>2.6</v>
+      </c>
+      <c r="AX268">
+        <v>0</v>
+      </c>
+      <c r="AY268">
+        <v>0</v>
+      </c>
+      <c r="AZ268">
+        <v>0</v>
+      </c>
+      <c r="BA268">
+        <v>0</v>
+      </c>
+      <c r="BB268">
+        <v>0</v>
+      </c>
+      <c r="BC268">
+        <v>0</v>
+      </c>
+      <c r="BD268">
+        <v>0</v>
+      </c>
+      <c r="BE268">
+        <v>0</v>
+      </c>
+      <c r="BF268">
+        <v>3</v>
+      </c>
+      <c r="BG268">
+        <v>5</v>
+      </c>
+      <c r="BH268">
+        <v>6</v>
+      </c>
+      <c r="BI268">
+        <v>3</v>
+      </c>
+      <c r="BJ268">
+        <v>9</v>
+      </c>
+      <c r="BK268">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>6088381</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45077.54166666666</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>72</v>
+      </c>
+      <c r="H269" t="s">
+        <v>77</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>95</v>
+      </c>
+      <c r="P269" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q269">
+        <v>4</v>
+      </c>
+      <c r="R269">
+        <v>4</v>
+      </c>
+      <c r="S269">
+        <v>8</v>
+      </c>
+      <c r="T269">
+        <v>2.53</v>
+      </c>
+      <c r="U269">
+        <v>2.11</v>
+      </c>
+      <c r="V269">
+        <v>5.18</v>
+      </c>
+      <c r="W269">
+        <v>1.48</v>
+      </c>
+      <c r="X269">
+        <v>2.63</v>
+      </c>
+      <c r="Y269">
+        <v>3.22</v>
+      </c>
+      <c r="Z269">
+        <v>1.32</v>
+      </c>
+      <c r="AA269">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB269">
+        <v>1.05</v>
+      </c>
+      <c r="AC269">
+        <v>1.91</v>
+      </c>
+      <c r="AD269">
+        <v>3.3</v>
+      </c>
+      <c r="AE269">
+        <v>3.4</v>
+      </c>
+      <c r="AF269">
+        <v>1.05</v>
+      </c>
+      <c r="AG269">
+        <v>7.4</v>
+      </c>
+      <c r="AH269">
+        <v>1.4</v>
+      </c>
+      <c r="AI269">
+        <v>2.86</v>
+      </c>
+      <c r="AJ269">
+        <v>2.25</v>
+      </c>
+      <c r="AK269">
+        <v>1.57</v>
+      </c>
+      <c r="AL269">
+        <v>2.06</v>
+      </c>
+      <c r="AM269">
+        <v>1.73</v>
+      </c>
+      <c r="AN269">
+        <v>1.19</v>
+      </c>
+      <c r="AO269">
+        <v>1.3</v>
+      </c>
+      <c r="AP269">
+        <v>1.99</v>
+      </c>
+      <c r="AQ269">
+        <v>1.24</v>
+      </c>
+      <c r="AR269">
+        <v>0.63</v>
+      </c>
+      <c r="AS269">
+        <v>1.22</v>
+      </c>
+      <c r="AT269">
+        <v>0.65</v>
+      </c>
+      <c r="AU269">
+        <v>1.31</v>
+      </c>
+      <c r="AV269">
+        <v>1.19</v>
+      </c>
+      <c r="AW269">
+        <v>2.5</v>
+      </c>
+      <c r="AX269">
+        <v>0</v>
+      </c>
+      <c r="AY269">
+        <v>0</v>
+      </c>
+      <c r="AZ269">
+        <v>0</v>
+      </c>
+      <c r="BA269">
+        <v>0</v>
+      </c>
+      <c r="BB269">
+        <v>0</v>
+      </c>
+      <c r="BC269">
+        <v>0</v>
+      </c>
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>8</v>
+      </c>
+      <c r="BG269">
+        <v>4</v>
+      </c>
+      <c r="BH269">
+        <v>8</v>
+      </c>
+      <c r="BI269">
+        <v>6</v>
+      </c>
+      <c r="BJ269">
+        <v>16</v>
+      </c>
+      <c r="BK269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>6088379</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45077.54166666666</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270" t="s">
+        <v>71</v>
+      </c>
+      <c r="H270" t="s">
+        <v>66</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
+        <v>244</v>
+      </c>
+      <c r="P270" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q270">
+        <v>8</v>
+      </c>
+      <c r="R270">
+        <v>5</v>
+      </c>
+      <c r="S270">
+        <v>13</v>
+      </c>
+      <c r="T270">
+        <v>2.7</v>
+      </c>
+      <c r="U270">
+        <v>2.26</v>
+      </c>
+      <c r="V270">
+        <v>4.01</v>
+      </c>
+      <c r="W270">
+        <v>1.36</v>
+      </c>
+      <c r="X270">
+        <v>3.09</v>
+      </c>
+      <c r="Y270">
+        <v>2.83</v>
+      </c>
+      <c r="Z270">
+        <v>1.42</v>
+      </c>
+      <c r="AA270">
+        <v>6.5</v>
+      </c>
+      <c r="AB270">
+        <v>1.09</v>
+      </c>
+      <c r="AC270">
+        <v>2.09</v>
+      </c>
+      <c r="AD270">
+        <v>3.15</v>
+      </c>
+      <c r="AE270">
+        <v>3.1</v>
+      </c>
+      <c r="AF270">
+        <v>1.02</v>
+      </c>
+      <c r="AG270">
+        <v>11</v>
+      </c>
+      <c r="AH270">
+        <v>1.26</v>
+      </c>
+      <c r="AI270">
+        <v>3.69</v>
+      </c>
+      <c r="AJ270">
+        <v>1.95</v>
+      </c>
+      <c r="AK270">
+        <v>1.74</v>
+      </c>
+      <c r="AL270">
+        <v>1.74</v>
+      </c>
+      <c r="AM270">
+        <v>2.04</v>
+      </c>
+      <c r="AN270">
+        <v>1.3</v>
+      </c>
+      <c r="AO270">
+        <v>1.29</v>
+      </c>
+      <c r="AP270">
+        <v>1.77</v>
+      </c>
+      <c r="AQ270">
+        <v>1</v>
+      </c>
+      <c r="AR270">
+        <v>0.65</v>
+      </c>
+      <c r="AS270">
+        <v>1.12</v>
+      </c>
+      <c r="AT270">
+        <v>0.61</v>
+      </c>
+      <c r="AU270">
+        <v>1.45</v>
+      </c>
+      <c r="AV270">
+        <v>1.22</v>
+      </c>
+      <c r="AW270">
+        <v>2.67</v>
+      </c>
+      <c r="AX270">
+        <v>0</v>
+      </c>
+      <c r="AY270">
+        <v>0</v>
+      </c>
+      <c r="AZ270">
+        <v>0</v>
+      </c>
+      <c r="BA270">
+        <v>0</v>
+      </c>
+      <c r="BB270">
+        <v>0</v>
+      </c>
+      <c r="BC270">
+        <v>0</v>
+      </c>
+      <c r="BD270">
+        <v>0</v>
+      </c>
+      <c r="BE270">
+        <v>0</v>
+      </c>
+      <c r="BF270">
+        <v>5</v>
+      </c>
+      <c r="BG270">
+        <v>5</v>
+      </c>
+      <c r="BH270">
+        <v>7</v>
+      </c>
+      <c r="BI270">
+        <v>12</v>
+      </c>
+      <c r="BJ270">
+        <v>12</v>
+      </c>
+      <c r="BK270">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>6083749</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45078.47916666666</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="G271" t="s">
+        <v>69</v>
+      </c>
+      <c r="H271" t="s">
+        <v>65</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>2</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+      <c r="N271">
+        <v>3</v>
+      </c>
+      <c r="O271" t="s">
+        <v>245</v>
+      </c>
+      <c r="P271" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q271">
+        <v>4</v>
+      </c>
+      <c r="R271">
+        <v>6</v>
+      </c>
+      <c r="S271">
+        <v>10</v>
+      </c>
+      <c r="T271">
+        <v>2.62</v>
+      </c>
+      <c r="U271">
+        <v>2.05</v>
+      </c>
+      <c r="V271">
+        <v>3.8</v>
+      </c>
+      <c r="W271">
+        <v>1.4</v>
+      </c>
+      <c r="X271">
+        <v>2.75</v>
+      </c>
+      <c r="Y271">
+        <v>2.75</v>
+      </c>
+      <c r="Z271">
+        <v>1.4</v>
+      </c>
+      <c r="AA271">
+        <v>7</v>
+      </c>
+      <c r="AB271">
+        <v>1.08</v>
+      </c>
+      <c r="AC271">
+        <v>2.21</v>
+      </c>
+      <c r="AD271">
+        <v>3.06</v>
+      </c>
+      <c r="AE271">
+        <v>3.04</v>
+      </c>
+      <c r="AF271">
+        <v>1.07</v>
+      </c>
+      <c r="AG271">
+        <v>7.5</v>
+      </c>
+      <c r="AH271">
+        <v>1.36</v>
+      </c>
+      <c r="AI271">
+        <v>3</v>
+      </c>
+      <c r="AJ271">
+        <v>2.03</v>
+      </c>
+      <c r="AK271">
+        <v>1.81</v>
+      </c>
+      <c r="AL271">
+        <v>1.85</v>
+      </c>
+      <c r="AM271">
+        <v>1.85</v>
+      </c>
+      <c r="AN271">
+        <v>1.25</v>
+      </c>
+      <c r="AO271">
+        <v>1.33</v>
+      </c>
+      <c r="AP271">
+        <v>1.7</v>
+      </c>
+      <c r="AQ271">
+        <v>1.53</v>
+      </c>
+      <c r="AR271">
+        <v>0.65</v>
+      </c>
+      <c r="AS271">
+        <v>1.44</v>
+      </c>
+      <c r="AT271">
+        <v>0.78</v>
+      </c>
+      <c r="AU271">
+        <v>1.49</v>
+      </c>
+      <c r="AV271">
+        <v>1.38</v>
+      </c>
+      <c r="AW271">
+        <v>2.87</v>
+      </c>
+      <c r="AX271">
+        <v>0</v>
+      </c>
+      <c r="AY271">
+        <v>0</v>
+      </c>
+      <c r="AZ271">
+        <v>0</v>
+      </c>
+      <c r="BA271">
+        <v>0</v>
+      </c>
+      <c r="BB271">
+        <v>0</v>
+      </c>
+      <c r="BC271">
+        <v>0</v>
+      </c>
+      <c r="BD271">
+        <v>0</v>
+      </c>
+      <c r="BE271">
+        <v>0</v>
+      </c>
+      <c r="BF271">
+        <v>8</v>
+      </c>
+      <c r="BG271">
+        <v>7</v>
+      </c>
+      <c r="BH271">
+        <v>11</v>
+      </c>
+      <c r="BI271">
+        <v>10</v>
+      </c>
+      <c r="BJ271">
+        <v>19</v>
+      </c>
+      <c r="BK271">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:63">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>6088382</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" t="s">
+        <v>64</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45078.58333333334</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" t="s">
+        <v>79</v>
+      </c>
+      <c r="H272" t="s">
+        <v>80</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>3</v>
+      </c>
+      <c r="M272">
+        <v>2</v>
+      </c>
+      <c r="N272">
+        <v>5</v>
+      </c>
+      <c r="O272" t="s">
+        <v>246</v>
+      </c>
+      <c r="P272" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q272">
+        <v>9</v>
+      </c>
+      <c r="R272">
+        <v>5</v>
+      </c>
+      <c r="S272">
+        <v>14</v>
+      </c>
+      <c r="T272">
+        <v>2.7</v>
+      </c>
+      <c r="U272">
+        <v>2.05</v>
+      </c>
+      <c r="V272">
+        <v>3.7</v>
+      </c>
+      <c r="W272">
+        <v>1.4</v>
+      </c>
+      <c r="X272">
+        <v>2.75</v>
+      </c>
+      <c r="Y272">
+        <v>3</v>
+      </c>
+      <c r="Z272">
+        <v>1.36</v>
+      </c>
+      <c r="AA272">
+        <v>7</v>
+      </c>
+      <c r="AB272">
+        <v>1.08</v>
+      </c>
+      <c r="AC272">
+        <v>1.93</v>
+      </c>
+      <c r="AD272">
+        <v>3.05</v>
+      </c>
+      <c r="AE272">
+        <v>3.95</v>
+      </c>
+      <c r="AF272">
+        <v>1.07</v>
+      </c>
+      <c r="AG272">
+        <v>7.5</v>
+      </c>
+      <c r="AH272">
+        <v>1.36</v>
+      </c>
+      <c r="AI272">
+        <v>3</v>
+      </c>
+      <c r="AJ272">
+        <v>2.48</v>
+      </c>
+      <c r="AK272">
+        <v>1.5</v>
+      </c>
+      <c r="AL272">
+        <v>1.85</v>
+      </c>
+      <c r="AM272">
+        <v>1.85</v>
+      </c>
+      <c r="AN272">
+        <v>1.3</v>
+      </c>
+      <c r="AO272">
+        <v>1.33</v>
+      </c>
+      <c r="AP272">
+        <v>1.65</v>
+      </c>
+      <c r="AQ272">
+        <v>1.82</v>
+      </c>
+      <c r="AR272">
+        <v>1.35</v>
+      </c>
+      <c r="AS272">
+        <v>1.89</v>
+      </c>
+      <c r="AT272">
+        <v>1.28</v>
+      </c>
+      <c r="AU272">
+        <v>1.72</v>
+      </c>
+      <c r="AV272">
+        <v>1.5</v>
+      </c>
+      <c r="AW272">
+        <v>3.22</v>
+      </c>
+      <c r="AX272">
+        <v>0</v>
+      </c>
+      <c r="AY272">
+        <v>0</v>
+      </c>
+      <c r="AZ272">
+        <v>0</v>
+      </c>
+      <c r="BA272">
+        <v>0</v>
+      </c>
+      <c r="BB272">
+        <v>0</v>
+      </c>
+      <c r="BC272">
+        <v>0</v>
+      </c>
+      <c r="BD272">
+        <v>0</v>
+      </c>
+      <c r="BE272">
+        <v>0</v>
+      </c>
+      <c r="BF272">
+        <v>8</v>
+      </c>
+      <c r="BG272">
+        <v>4</v>
+      </c>
+      <c r="BH272">
+        <v>10</v>
+      </c>
+      <c r="BI272">
+        <v>5</v>
+      </c>
+      <c r="BJ272">
+        <v>18</v>
+      </c>
+      <c r="BK272">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:63">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>6088383</v>
+      </c>
+      <c r="C273" t="s">
+        <v>63</v>
+      </c>
+      <c r="D273" t="s">
+        <v>64</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45079.57291666666</v>
+      </c>
+      <c r="F273">
+        <v>4</v>
+      </c>
+      <c r="G273" t="s">
+        <v>67</v>
+      </c>
+      <c r="H273" t="s">
+        <v>76</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>3</v>
+      </c>
+      <c r="O273" t="s">
+        <v>247</v>
+      </c>
+      <c r="P273" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q273">
+        <v>1</v>
+      </c>
+      <c r="R273">
+        <v>7</v>
+      </c>
+      <c r="S273">
+        <v>8</v>
+      </c>
+      <c r="T273">
+        <v>3.4</v>
+      </c>
+      <c r="U273">
+        <v>2</v>
+      </c>
+      <c r="V273">
+        <v>3</v>
+      </c>
+      <c r="W273">
+        <v>1.44</v>
+      </c>
+      <c r="X273">
+        <v>2.62</v>
+      </c>
+      <c r="Y273">
+        <v>3</v>
+      </c>
+      <c r="Z273">
+        <v>1.36</v>
+      </c>
+      <c r="AA273">
+        <v>7.5</v>
+      </c>
+      <c r="AB273">
+        <v>1.07</v>
+      </c>
+      <c r="AC273">
+        <v>3.39</v>
+      </c>
+      <c r="AD273">
+        <v>3.1</v>
+      </c>
+      <c r="AE273">
+        <v>2.05</v>
+      </c>
+      <c r="AF273">
+        <v>1.08</v>
+      </c>
+      <c r="AG273">
+        <v>7</v>
+      </c>
+      <c r="AH273">
+        <v>1.36</v>
+      </c>
+      <c r="AI273">
+        <v>3</v>
+      </c>
+      <c r="AJ273">
+        <v>2.27</v>
+      </c>
+      <c r="AK273">
+        <v>1.56</v>
+      </c>
+      <c r="AL273">
+        <v>1.85</v>
+      </c>
+      <c r="AM273">
+        <v>1.85</v>
+      </c>
+      <c r="AN273">
+        <v>1.6</v>
+      </c>
+      <c r="AO273">
+        <v>1.35</v>
+      </c>
+      <c r="AP273">
+        <v>1.3</v>
+      </c>
+      <c r="AQ273">
+        <v>2</v>
+      </c>
+      <c r="AR273">
+        <v>1.47</v>
+      </c>
+      <c r="AS273">
+        <v>2.06</v>
+      </c>
+      <c r="AT273">
+        <v>1.39</v>
+      </c>
+      <c r="AU273">
+        <v>1.61</v>
+      </c>
+      <c r="AV273">
+        <v>1.45</v>
+      </c>
+      <c r="AW273">
+        <v>3.06</v>
+      </c>
+      <c r="AX273">
+        <v>0</v>
+      </c>
+      <c r="AY273">
+        <v>0</v>
+      </c>
+      <c r="AZ273">
+        <v>0</v>
+      </c>
+      <c r="BA273">
+        <v>0</v>
+      </c>
+      <c r="BB273">
+        <v>0</v>
+      </c>
+      <c r="BC273">
+        <v>0</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>3</v>
+      </c>
+      <c r="BG273">
+        <v>4</v>
+      </c>
+      <c r="BH273">
+        <v>6</v>
+      </c>
+      <c r="BI273">
+        <v>7</v>
+      </c>
+      <c r="BJ273">
+        <v>9</v>
+      </c>
+      <c r="BK273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:63">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>6083748</v>
+      </c>
+      <c r="C274" t="s">
+        <v>63</v>
+      </c>
+      <c r="D274" t="s">
+        <v>64</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45080.5</v>
+      </c>
+      <c r="F274">
+        <v>4</v>
+      </c>
+      <c r="G274" t="s">
+        <v>70</v>
+      </c>
+      <c r="H274" t="s">
+        <v>68</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>140</v>
+      </c>
+      <c r="P274" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q274">
+        <v>9</v>
+      </c>
+      <c r="R274">
+        <v>6</v>
+      </c>
+      <c r="S274">
+        <v>15</v>
+      </c>
+      <c r="T274">
+        <v>2.15</v>
+      </c>
+      <c r="U274">
+        <v>2.05</v>
+      </c>
+      <c r="V274">
+        <v>5.5</v>
+      </c>
+      <c r="W274">
+        <v>1.4</v>
+      </c>
+      <c r="X274">
+        <v>2.75</v>
+      </c>
+      <c r="Y274">
+        <v>2.95</v>
+      </c>
+      <c r="Z274">
+        <v>1.35</v>
+      </c>
+      <c r="AA274">
+        <v>7.7</v>
+      </c>
+      <c r="AB274">
+        <v>1.07</v>
+      </c>
+      <c r="AC274">
+        <v>1.87</v>
+      </c>
+      <c r="AD274">
+        <v>3.2</v>
+      </c>
+      <c r="AE274">
+        <v>3.7</v>
+      </c>
+      <c r="AF274">
+        <v>1.03</v>
+      </c>
+      <c r="AG274">
+        <v>8.4</v>
+      </c>
+      <c r="AH274">
+        <v>1.28</v>
+      </c>
+      <c r="AI274">
+        <v>3.3</v>
+      </c>
+      <c r="AJ274">
+        <v>2</v>
+      </c>
+      <c r="AK274">
+        <v>1.73</v>
+      </c>
+      <c r="AL274">
+        <v>1.9</v>
+      </c>
+      <c r="AM274">
+        <v>1.8</v>
+      </c>
+      <c r="AN274">
+        <v>1.04</v>
+      </c>
+      <c r="AO274">
+        <v>1.25</v>
+      </c>
+      <c r="AP274">
+        <v>2.25</v>
+      </c>
+      <c r="AQ274">
+        <v>2.47</v>
+      </c>
+      <c r="AR274">
+        <v>1.56</v>
+      </c>
+      <c r="AS274">
+        <v>2.39</v>
+      </c>
+      <c r="AT274">
+        <v>1.53</v>
+      </c>
+      <c r="AU274">
+        <v>1.65</v>
+      </c>
+      <c r="AV274">
+        <v>1.78</v>
+      </c>
+      <c r="AW274">
+        <v>3.43</v>
+      </c>
+      <c r="AX274">
+        <v>1.37</v>
+      </c>
+      <c r="AY274">
+        <v>8</v>
+      </c>
+      <c r="AZ274">
+        <v>4.5</v>
+      </c>
+      <c r="BA274">
+        <v>0</v>
+      </c>
+      <c r="BB274">
+        <v>1.57</v>
+      </c>
+      <c r="BC274">
+        <v>1.95</v>
+      </c>
+      <c r="BD274">
+        <v>2.55</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>2</v>
+      </c>
+      <c r="BG274">
+        <v>2</v>
+      </c>
+      <c r="BH274">
+        <v>8</v>
+      </c>
+      <c r="BI274">
+        <v>4</v>
+      </c>
+      <c r="BJ274">
+        <v>10</v>
+      </c>
+      <c r="BK274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:63">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>6083747</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275" t="s">
+        <v>64</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45080.60416666666</v>
+      </c>
+      <c r="F275">
+        <v>4</v>
+      </c>
+      <c r="G275" t="s">
+        <v>74</v>
+      </c>
+      <c r="H275" t="s">
+        <v>75</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>2</v>
+      </c>
+      <c r="L275">
+        <v>3</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+      <c r="N275">
+        <v>5</v>
+      </c>
+      <c r="O275" t="s">
+        <v>248</v>
+      </c>
+      <c r="P275" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q275">
+        <v>4</v>
+      </c>
+      <c r="R275">
+        <v>6</v>
+      </c>
+      <c r="S275">
+        <v>10</v>
+      </c>
+      <c r="T275">
+        <v>2.15</v>
+      </c>
+      <c r="U275">
+        <v>2.05</v>
+      </c>
+      <c r="V275">
+        <v>5.5</v>
+      </c>
+      <c r="W275">
+        <v>1.37</v>
+      </c>
+      <c r="X275">
+        <v>2.8</v>
+      </c>
+      <c r="Y275">
+        <v>3</v>
+      </c>
+      <c r="Z275">
+        <v>1.33</v>
+      </c>
+      <c r="AA275">
+        <v>7.4</v>
+      </c>
+      <c r="AB275">
+        <v>1.07</v>
+      </c>
+      <c r="AC275">
+        <v>1.44</v>
+      </c>
+      <c r="AD275">
+        <v>4.1</v>
+      </c>
+      <c r="AE275">
+        <v>7</v>
+      </c>
+      <c r="AF275">
+        <v>1.02</v>
+      </c>
+      <c r="AG275">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH275">
+        <v>1.28</v>
+      </c>
+      <c r="AI275">
+        <v>3.3</v>
+      </c>
+      <c r="AJ275">
+        <v>1.9</v>
+      </c>
+      <c r="AK275">
+        <v>1.83</v>
+      </c>
+      <c r="AL275">
+        <v>1.9</v>
+      </c>
+      <c r="AM275">
+        <v>1.8</v>
+      </c>
+      <c r="AN275">
+        <v>1.05</v>
+      </c>
+      <c r="AO275">
+        <v>1.22</v>
+      </c>
+      <c r="AP275">
+        <v>2.3</v>
+      </c>
+      <c r="AQ275">
+        <v>2.35</v>
+      </c>
+      <c r="AR275">
+        <v>1.47</v>
+      </c>
+      <c r="AS275">
+        <v>2.39</v>
+      </c>
+      <c r="AT275">
+        <v>1.39</v>
+      </c>
+      <c r="AU275">
+        <v>2.31</v>
+      </c>
+      <c r="AV275">
+        <v>1.91</v>
+      </c>
+      <c r="AW275">
+        <v>4.22</v>
+      </c>
+      <c r="AX275">
+        <v>1.28</v>
+      </c>
+      <c r="AY275">
+        <v>8.5</v>
+      </c>
+      <c r="AZ275">
+        <v>5.5</v>
+      </c>
+      <c r="BA275">
+        <v>1.28</v>
+      </c>
+      <c r="BB275">
+        <v>1.52</v>
+      </c>
+      <c r="BC275">
+        <v>1.91</v>
+      </c>
+      <c r="BD275">
+        <v>2.55</v>
+      </c>
+      <c r="BE275">
+        <v>3.5</v>
+      </c>
+      <c r="BF275">
+        <v>8</v>
+      </c>
+      <c r="BG275">
+        <v>6</v>
+      </c>
+      <c r="BH275">
+        <v>3</v>
+      </c>
+      <c r="BI275">
+        <v>3</v>
+      </c>
+      <c r="BJ275">
+        <v>11</v>
+      </c>
+      <c r="BK275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:63">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>6088384</v>
+      </c>
+      <c r="C276" t="s">
+        <v>63</v>
+      </c>
+      <c r="D276" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45082.52083333334</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>77</v>
+      </c>
+      <c r="H276" t="s">
+        <v>71</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>249</v>
+      </c>
+      <c r="P276" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q276">
+        <v>5</v>
+      </c>
+      <c r="R276">
+        <v>2</v>
+      </c>
+      <c r="S276">
+        <v>7</v>
+      </c>
+      <c r="T276">
+        <v>2.06</v>
+      </c>
+      <c r="U276">
+        <v>2.19</v>
+      </c>
+      <c r="V276">
+        <v>6.05</v>
+      </c>
+      <c r="W276">
+        <v>1.38</v>
+      </c>
+      <c r="X276">
+        <v>2.75</v>
+      </c>
+      <c r="Y276">
+        <v>2.8</v>
+      </c>
+      <c r="Z276">
+        <v>1.37</v>
+      </c>
+      <c r="AA276">
+        <v>7.25</v>
+      </c>
+      <c r="AB276">
+        <v>1.08</v>
+      </c>
+      <c r="AC276">
+        <v>1.57</v>
+      </c>
+      <c r="AD276">
+        <v>4.04</v>
+      </c>
+      <c r="AE276">
+        <v>5.9</v>
+      </c>
+      <c r="AF276">
+        <v>1.05</v>
+      </c>
+      <c r="AG276">
+        <v>11</v>
+      </c>
+      <c r="AH276">
+        <v>1.3</v>
+      </c>
+      <c r="AI276">
+        <v>3.32</v>
+      </c>
+      <c r="AJ276">
+        <v>2</v>
+      </c>
+      <c r="AK276">
+        <v>1.81</v>
+      </c>
+      <c r="AL276">
+        <v>2.05</v>
+      </c>
+      <c r="AM276">
+        <v>1.69</v>
+      </c>
+      <c r="AN276">
+        <v>1.08</v>
+      </c>
+      <c r="AO276">
+        <v>1.21</v>
+      </c>
+      <c r="AP276">
+        <v>2.45</v>
+      </c>
+      <c r="AQ276">
+        <v>1.18</v>
+      </c>
+      <c r="AR276">
+        <v>0.35</v>
+      </c>
+      <c r="AS276">
+        <v>1.28</v>
+      </c>
+      <c r="AT276">
+        <v>0.33</v>
+      </c>
+      <c r="AU276">
+        <v>1.37</v>
+      </c>
+      <c r="AV276">
+        <v>1.08</v>
+      </c>
+      <c r="AW276">
+        <v>2.45</v>
+      </c>
+      <c r="AX276">
+        <v>0</v>
+      </c>
+      <c r="AY276">
+        <v>0</v>
+      </c>
+      <c r="AZ276">
+        <v>0</v>
+      </c>
+      <c r="BA276">
+        <v>0</v>
+      </c>
+      <c r="BB276">
+        <v>0</v>
+      </c>
+      <c r="BC276">
+        <v>0</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>5</v>
+      </c>
+      <c r="BG276">
+        <v>5</v>
+      </c>
+      <c r="BH276">
+        <v>2</v>
+      </c>
+      <c r="BI276">
+        <v>5</v>
+      </c>
+      <c r="BJ276">
+        <v>7</v>
+      </c>
+      <c r="BK276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:63">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>6088385</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45082.52083333334</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>78</v>
+      </c>
+      <c r="H277" t="s">
+        <v>72</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>3</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277" t="s">
+        <v>250</v>
+      </c>
+      <c r="P277" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q277">
+        <v>5</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>7</v>
+      </c>
+      <c r="T277">
+        <v>2.65</v>
+      </c>
+      <c r="U277">
+        <v>2.05</v>
+      </c>
+      <c r="V277">
+        <v>4.06</v>
+      </c>
+      <c r="W277">
+        <v>1.4</v>
+      </c>
+      <c r="X277">
+        <v>2.75</v>
+      </c>
+      <c r="Y277">
+        <v>3</v>
+      </c>
+      <c r="Z277">
+        <v>1.36</v>
+      </c>
+      <c r="AA277">
+        <v>7</v>
+      </c>
+      <c r="AB277">
+        <v>1.08</v>
+      </c>
+      <c r="AC277">
+        <v>1.95</v>
+      </c>
+      <c r="AD277">
+        <v>3</v>
+      </c>
+      <c r="AE277">
+        <v>3.6</v>
+      </c>
+      <c r="AF277">
+        <v>1.07</v>
+      </c>
+      <c r="AG277">
+        <v>7.5</v>
+      </c>
+      <c r="AH277">
+        <v>1.36</v>
+      </c>
+      <c r="AI277">
+        <v>3</v>
+      </c>
+      <c r="AJ277">
+        <v>2.2</v>
+      </c>
+      <c r="AK277">
+        <v>1.6</v>
+      </c>
+      <c r="AL277">
+        <v>1.85</v>
+      </c>
+      <c r="AM277">
+        <v>1.91</v>
+      </c>
+      <c r="AN277">
+        <v>1.25</v>
+      </c>
+      <c r="AO277">
+        <v>1.33</v>
+      </c>
+      <c r="AP277">
+        <v>1.7</v>
+      </c>
+      <c r="AQ277">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR277">
+        <v>0.63</v>
+      </c>
+      <c r="AS277">
+        <v>0.71</v>
+      </c>
+      <c r="AT277">
+        <v>0.59</v>
+      </c>
+      <c r="AU277">
+        <v>1.08</v>
+      </c>
+      <c r="AV277">
+        <v>1.17</v>
+      </c>
+      <c r="AW277">
+        <v>2.25</v>
+      </c>
+      <c r="AX277">
+        <v>0</v>
+      </c>
+      <c r="AY277">
+        <v>0</v>
+      </c>
+      <c r="AZ277">
+        <v>0</v>
+      </c>
+      <c r="BA277">
+        <v>0</v>
+      </c>
+      <c r="BB277">
+        <v>0</v>
+      </c>
+      <c r="BC277">
+        <v>0</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>6</v>
+      </c>
+      <c r="BG277">
+        <v>5</v>
+      </c>
+      <c r="BH277">
+        <v>3</v>
+      </c>
+      <c r="BI277">
+        <v>2</v>
+      </c>
+      <c r="BJ277">
+        <v>9</v>
+      </c>
+      <c r="BK277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:63">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>6088386</v>
+      </c>
+      <c r="C278" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" t="s">
+        <v>64</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45082.52083333334</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+      <c r="G278" t="s">
+        <v>66</v>
+      </c>
+      <c r="H278" t="s">
+        <v>73</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>4</v>
+      </c>
+      <c r="O278" t="s">
+        <v>251</v>
+      </c>
+      <c r="P278" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q278">
+        <v>5</v>
+      </c>
+      <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
+        <v>7</v>
+      </c>
+      <c r="T278">
+        <v>2.4</v>
+      </c>
+      <c r="U278">
+        <v>2.32</v>
+      </c>
+      <c r="V278">
+        <v>4.22</v>
+      </c>
+      <c r="W278">
+        <v>1.31</v>
+      </c>
+      <c r="X278">
+        <v>3.28</v>
+      </c>
+      <c r="Y278">
+        <v>2.41</v>
+      </c>
+      <c r="Z278">
+        <v>1.53</v>
+      </c>
+      <c r="AA278">
+        <v>5.65</v>
+      </c>
+      <c r="AB278">
+        <v>1.12</v>
+      </c>
+      <c r="AC278">
+        <v>2.68</v>
+      </c>
+      <c r="AD278">
+        <v>3.34</v>
+      </c>
+      <c r="AE278">
+        <v>2.59</v>
+      </c>
+      <c r="AF278">
+        <v>1.01</v>
+      </c>
+      <c r="AG278">
+        <v>16</v>
+      </c>
+      <c r="AH278">
+        <v>1.18</v>
+      </c>
+      <c r="AI278">
+        <v>4.35</v>
+      </c>
+      <c r="AJ278">
+        <v>2.04</v>
+      </c>
+      <c r="AK278">
+        <v>1.78</v>
+      </c>
+      <c r="AL278">
+        <v>1.6</v>
+      </c>
+      <c r="AM278">
+        <v>2.27</v>
+      </c>
+      <c r="AN278">
+        <v>1.25</v>
+      </c>
+      <c r="AO278">
+        <v>1.25</v>
+      </c>
+      <c r="AP278">
+        <v>1.67</v>
+      </c>
+      <c r="AQ278">
+        <v>0.88</v>
+      </c>
+      <c r="AR278">
+        <v>0.38</v>
+      </c>
+      <c r="AS278">
+        <v>1</v>
+      </c>
+      <c r="AT278">
+        <v>0.35</v>
+      </c>
+      <c r="AU278">
+        <v>1.42</v>
+      </c>
+      <c r="AV278">
+        <v>1.2</v>
+      </c>
+      <c r="AW278">
+        <v>2.62</v>
+      </c>
+      <c r="AX278">
+        <v>0</v>
+      </c>
+      <c r="AY278">
+        <v>0</v>
+      </c>
+      <c r="AZ278">
+        <v>0</v>
+      </c>
+      <c r="BA278">
+        <v>0</v>
+      </c>
+      <c r="BB278">
+        <v>0</v>
+      </c>
+      <c r="BC278">
+        <v>0</v>
+      </c>
+      <c r="BD278">
+        <v>0</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>6</v>
+      </c>
+      <c r="BG278">
+        <v>6</v>
+      </c>
+      <c r="BH278">
+        <v>3</v>
+      </c>
+      <c r="BI278">
+        <v>2</v>
+      </c>
+      <c r="BJ278">
+        <v>9</v>
+      </c>
+      <c r="BK278">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,10 +766,13 @@
     <t>['5', '15']</t>
   </si>
   <si>
+    <t>['28', '63', '90+1']</t>
+  </si>
+  <si>
     <t>['42', '90+1', '90+5']</t>
   </si>
   <si>
-    <t>['28', '63', '90+1']</t>
+    <t>['88', '90']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -1064,6 +1067,12 @@
   </si>
   <si>
     <t>['32', '60']</t>
+  </si>
+  <si>
+    <t>['32', '75', '81']</t>
+  </si>
+  <si>
+    <t>['36', '61']</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK278"/>
+  <dimension ref="A1:BK283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1669,7 +1678,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1756,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT2">
         <v>1.11</v>
@@ -1860,7 +1869,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1950,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2051,7 +2060,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2329,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT5">
         <v>1.39</v>
@@ -2433,7 +2442,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2714,7 +2723,7 @@
         <v>2.39</v>
       </c>
       <c r="AT7">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3197,7 +3206,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3669,7 +3678,7 @@
         <v>1.44</v>
       </c>
       <c r="AT12">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU12">
         <v>1.23</v>
@@ -3857,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT13">
         <v>0.33</v>
@@ -4048,7 +4057,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT14">
         <v>1.28</v>
@@ -4152,7 +4161,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4343,7 +4352,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4725,7 +4734,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4916,7 +4925,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5003,10 +5012,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT19">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU19">
         <v>0.96</v>
@@ -5197,7 +5206,7 @@
         <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU20">
         <v>1.45</v>
@@ -5298,7 +5307,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5385,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT21">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU21">
         <v>2.4</v>
@@ -6062,7 +6071,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6635,7 +6644,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7208,7 +7217,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7590,7 +7599,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7781,7 +7790,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7868,7 +7877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT34">
         <v>0.35</v>
@@ -8059,7 +8068,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT35">
         <v>0.65</v>
@@ -8163,7 +8172,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8253,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU36">
         <v>1.28</v>
@@ -8444,7 +8453,7 @@
         <v>2.06</v>
       </c>
       <c r="AT37">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -8632,7 +8641,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT38">
         <v>0.65</v>
@@ -8736,7 +8745,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9118,7 +9127,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9882,7 +9891,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9969,7 +9978,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT45">
         <v>1.39</v>
@@ -10073,7 +10082,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10163,7 +10172,7 @@
         <v>1.12</v>
       </c>
       <c r="AT46">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU46">
         <v>1.55</v>
@@ -10351,7 +10360,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT47">
         <v>1.11</v>
@@ -10542,10 +10551,10 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT48">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU48">
         <v>1.37</v>
@@ -10837,7 +10846,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10924,7 +10933,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT50">
         <v>0.35</v>
@@ -11028,7 +11037,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11118,7 +11127,7 @@
         <v>1.28</v>
       </c>
       <c r="AT51">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU51">
         <v>1</v>
@@ -11219,7 +11228,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11306,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT52">
         <v>0.61</v>
@@ -11792,7 +11801,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12174,7 +12183,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12365,7 +12374,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12452,10 +12461,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT58">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU58">
         <v>1.54</v>
@@ -13025,10 +13034,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT61">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU61">
         <v>2.4</v>
@@ -13219,7 +13228,7 @@
         <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13598,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT64">
         <v>0.59</v>
@@ -14171,10 +14180,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT67">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>3.06</v>
@@ -14553,7 +14562,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT69">
         <v>1.53</v>
@@ -14657,7 +14666,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14935,7 +14944,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT71">
         <v>1.11</v>
@@ -15230,7 +15239,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15320,7 +15329,7 @@
         <v>1.44</v>
       </c>
       <c r="AT73">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -15612,7 +15621,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15803,7 +15812,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15994,7 +16003,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16272,7 +16281,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT78">
         <v>0.61</v>
@@ -16376,7 +16385,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16466,7 +16475,7 @@
         <v>1.28</v>
       </c>
       <c r="AT79">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU79">
         <v>1.26</v>
@@ -16845,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT81">
         <v>0.59</v>
@@ -17036,10 +17045,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT82">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU82">
         <v>2.83</v>
@@ -17140,7 +17149,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17230,7 +17239,7 @@
         <v>2.39</v>
       </c>
       <c r="AT83">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>2.07</v>
@@ -17522,7 +17531,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17800,7 +17809,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT86">
         <v>0.35</v>
@@ -17991,7 +18000,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT87">
         <v>1.28</v>
@@ -18185,7 +18194,7 @@
         <v>1.44</v>
       </c>
       <c r="AT88">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU88">
         <v>1.56</v>
@@ -18286,7 +18295,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18477,7 +18486,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18859,7 +18868,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18949,7 +18958,7 @@
         <v>0.71</v>
       </c>
       <c r="AT92">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU92">
         <v>0.99</v>
@@ -19328,7 +19337,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT94">
         <v>0.61</v>
@@ -19519,7 +19528,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT95">
         <v>0.78</v>
@@ -19713,7 +19722,7 @@
         <v>1.44</v>
       </c>
       <c r="AT96">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.48</v>
@@ -19901,7 +19910,7 @@
         <v>1.67</v>
       </c>
       <c r="AS97">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT97">
         <v>1.39</v>
@@ -20005,7 +20014,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20286,7 +20295,7 @@
         <v>2.39</v>
       </c>
       <c r="AT99">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU99">
         <v>2.23</v>
@@ -20474,7 +20483,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT100">
         <v>1.39</v>
@@ -20769,7 +20778,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20856,10 +20865,10 @@
         <v>1.14</v>
       </c>
       <c r="AS102">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU102">
         <v>1.76</v>
@@ -21047,7 +21056,7 @@
         <v>0.43</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT103">
         <v>0.65</v>
@@ -21429,7 +21438,7 @@
         <v>0.17</v>
       </c>
       <c r="AS105">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT105">
         <v>0.33</v>
@@ -21915,7 +21924,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -22005,7 +22014,7 @@
         <v>1.22</v>
       </c>
       <c r="AT108">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -22106,7 +22115,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22193,10 +22202,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT109">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22297,7 +22306,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22387,7 +22396,7 @@
         <v>1.89</v>
       </c>
       <c r="AT110">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU110">
         <v>1.65</v>
@@ -22679,7 +22688,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22766,7 +22775,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT112">
         <v>1.53</v>
@@ -22957,7 +22966,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT113">
         <v>1.06</v>
@@ -23061,7 +23070,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23151,7 +23160,7 @@
         <v>1.44</v>
       </c>
       <c r="AT114">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU114">
         <v>1.44</v>
@@ -23443,7 +23452,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23634,7 +23643,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -24016,7 +24025,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24106,7 +24115,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU119">
         <v>1.72</v>
@@ -24294,10 +24303,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT120">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU120">
         <v>1.85</v>
@@ -24485,7 +24494,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT121">
         <v>1.53</v>
@@ -24589,7 +24598,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24676,7 +24685,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT122">
         <v>0.33</v>
@@ -24780,7 +24789,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25353,7 +25362,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25443,7 +25452,7 @@
         <v>2.06</v>
       </c>
       <c r="AT126">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU126">
         <v>1.58</v>
@@ -25631,7 +25640,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT127">
         <v>1.39</v>
@@ -26013,7 +26022,7 @@
         <v>0.5</v>
       </c>
       <c r="AS129">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT129">
         <v>0.35</v>
@@ -26117,7 +26126,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26204,7 +26213,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT130">
         <v>0.65</v>
@@ -26398,7 +26407,7 @@
         <v>1.22</v>
       </c>
       <c r="AT131">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26586,7 +26595,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT132">
         <v>1.39</v>
@@ -26690,7 +26699,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26971,7 +26980,7 @@
         <v>2.39</v>
       </c>
       <c r="AT134">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU134">
         <v>1.67</v>
@@ -27072,7 +27081,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27162,7 +27171,7 @@
         <v>2.06</v>
       </c>
       <c r="AT135">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU135">
         <v>1.68</v>
@@ -27263,7 +27272,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27645,7 +27654,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27732,10 +27741,10 @@
         <v>2</v>
       </c>
       <c r="AS138">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT138">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -27836,7 +27845,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27923,7 +27932,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT139">
         <v>1.28</v>
@@ -28027,7 +28036,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28218,7 +28227,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28791,7 +28800,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28878,10 +28887,10 @@
         <v>2.38</v>
       </c>
       <c r="AS144">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT144">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU144">
         <v>1.69</v>
@@ -29260,10 +29269,10 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT146">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU146">
         <v>1.89</v>
@@ -29451,7 +29460,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT147">
         <v>1.39</v>
@@ -29642,7 +29651,7 @@
         <v>0.78</v>
       </c>
       <c r="AS148">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT148">
         <v>1.11</v>
@@ -29746,7 +29755,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29836,7 +29845,7 @@
         <v>1.12</v>
       </c>
       <c r="AT149">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU149">
         <v>1.32</v>
@@ -30027,7 +30036,7 @@
         <v>1</v>
       </c>
       <c r="AT150">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU150">
         <v>1.48</v>
@@ -30128,7 +30137,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30218,7 +30227,7 @@
         <v>1.22</v>
       </c>
       <c r="AT151">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU151">
         <v>1.32</v>
@@ -30597,7 +30606,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT153">
         <v>0.65</v>
@@ -30892,7 +30901,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31083,7 +31092,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31170,7 +31179,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS156">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT156">
         <v>0.59</v>
@@ -32316,10 +32325,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT162">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU162">
         <v>1.78</v>
@@ -32420,7 +32429,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32701,7 +32710,7 @@
         <v>2.06</v>
       </c>
       <c r="AT164">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU164">
         <v>1.66</v>
@@ -32802,7 +32811,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -32889,7 +32898,7 @@
         <v>0.7</v>
       </c>
       <c r="AS165">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT165">
         <v>1.11</v>
@@ -33080,7 +33089,7 @@
         <v>0.6</v>
       </c>
       <c r="AS166">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT166">
         <v>0.59</v>
@@ -33274,7 +33283,7 @@
         <v>1</v>
       </c>
       <c r="AT167">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU167">
         <v>1.44</v>
@@ -33375,7 +33384,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33653,10 +33662,10 @@
         <v>2.5</v>
       </c>
       <c r="AS169">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT169">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU169">
         <v>2.21</v>
@@ -33757,7 +33766,7 @@
         <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33948,7 +33957,7 @@
         <v>112</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34139,7 +34148,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q172">
         <v>8</v>
@@ -34226,7 +34235,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT172">
         <v>0.78</v>
@@ -34712,7 +34721,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -34903,7 +34912,7 @@
         <v>81</v>
       </c>
       <c r="P176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q176">
         <v>9</v>
@@ -35667,7 +35676,7 @@
         <v>194</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>10</v>
@@ -35757,7 +35766,7 @@
         <v>1.12</v>
       </c>
       <c r="AT180">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU180">
         <v>1.38</v>
@@ -35945,7 +35954,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT181">
         <v>0.35</v>
@@ -36136,10 +36145,10 @@
         <v>1.09</v>
       </c>
       <c r="AS182">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT182">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU182">
         <v>1.62</v>
@@ -36240,7 +36249,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36518,10 +36527,10 @@
         <v>2.27</v>
       </c>
       <c r="AS184">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT184">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU184">
         <v>1.73</v>
@@ -36900,7 +36909,7 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT186">
         <v>0.61</v>
@@ -37195,7 +37204,7 @@
         <v>142</v>
       </c>
       <c r="P188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37386,7 +37395,7 @@
         <v>199</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -37476,7 +37485,7 @@
         <v>0.71</v>
       </c>
       <c r="AT189">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU189">
         <v>1.04</v>
@@ -37959,7 +37968,7 @@
         <v>81</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -38237,7 +38246,7 @@
         <v>1.45</v>
       </c>
       <c r="AS193">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT193">
         <v>1.06</v>
@@ -38532,7 +38541,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38810,10 +38819,10 @@
         <v>1.08</v>
       </c>
       <c r="AS196">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT196">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU196">
         <v>2.23</v>
@@ -38914,7 +38923,7 @@
         <v>81</v>
       </c>
       <c r="P197" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39105,7 +39114,7 @@
         <v>81</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39296,7 +39305,7 @@
         <v>81</v>
       </c>
       <c r="P199" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39383,10 +39392,10 @@
         <v>2.33</v>
       </c>
       <c r="AS199">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT199">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU199">
         <v>1.59</v>
@@ -39487,7 +39496,7 @@
         <v>119</v>
       </c>
       <c r="P200" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39577,7 +39586,7 @@
         <v>1.28</v>
       </c>
       <c r="AT200">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU200">
         <v>1.35</v>
@@ -39678,7 +39687,7 @@
         <v>204</v>
       </c>
       <c r="P201" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39765,7 +39774,7 @@
         <v>0.58</v>
       </c>
       <c r="AS201">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT201">
         <v>0.78</v>
@@ -40251,7 +40260,7 @@
         <v>183</v>
       </c>
       <c r="P204" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40442,7 +40451,7 @@
         <v>203</v>
       </c>
       <c r="P205" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40532,7 +40541,7 @@
         <v>1.89</v>
       </c>
       <c r="AT205">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU205">
         <v>1.72</v>
@@ -40824,7 +40833,7 @@
         <v>206</v>
       </c>
       <c r="P207" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40911,7 +40920,7 @@
         <v>0.25</v>
       </c>
       <c r="AS207">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT207">
         <v>0.33</v>
@@ -41293,7 +41302,7 @@
         <v>1.42</v>
       </c>
       <c r="AS209">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT209">
         <v>1.06</v>
@@ -41397,7 +41406,7 @@
         <v>81</v>
       </c>
       <c r="P210" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -41678,7 +41687,7 @@
         <v>2.39</v>
       </c>
       <c r="AT211">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU211">
         <v>2.14</v>
@@ -41869,7 +41878,7 @@
         <v>0.71</v>
       </c>
       <c r="AT212">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU212">
         <v>0.98</v>
@@ -42057,7 +42066,7 @@
         <v>1.31</v>
       </c>
       <c r="AS213">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT213">
         <v>1.06</v>
@@ -42251,7 +42260,7 @@
         <v>1.28</v>
       </c>
       <c r="AT214">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU214">
         <v>1.36</v>
@@ -42439,7 +42448,7 @@
         <v>0.77</v>
       </c>
       <c r="AS215">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT215">
         <v>0.59</v>
@@ -42821,7 +42830,7 @@
         <v>0.54</v>
       </c>
       <c r="AS217">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT217">
         <v>0.78</v>
@@ -42925,7 +42934,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -43307,7 +43316,7 @@
         <v>139</v>
       </c>
       <c r="P220" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43776,7 +43785,7 @@
         <v>1.38</v>
       </c>
       <c r="AS222">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT222">
         <v>1.39</v>
@@ -44158,7 +44167,7 @@
         <v>1.69</v>
       </c>
       <c r="AS224">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT224">
         <v>1.53</v>
@@ -44262,7 +44271,7 @@
         <v>81</v>
       </c>
       <c r="P225" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44352,7 +44361,7 @@
         <v>2.39</v>
       </c>
       <c r="AT225">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU225">
         <v>1.61</v>
@@ -44543,7 +44552,7 @@
         <v>1.44</v>
       </c>
       <c r="AT226">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU226">
         <v>1.48</v>
@@ -44731,7 +44740,7 @@
         <v>1.21</v>
       </c>
       <c r="AS227">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT227">
         <v>1.06</v>
@@ -44835,7 +44844,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45026,7 +45035,7 @@
         <v>216</v>
       </c>
       <c r="P229" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45408,7 +45417,7 @@
         <v>218</v>
       </c>
       <c r="P231" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q231">
         <v>6</v>
@@ -45599,7 +45608,7 @@
         <v>81</v>
       </c>
       <c r="P232" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q232">
         <v>1</v>
@@ -45689,7 +45698,7 @@
         <v>0.71</v>
       </c>
       <c r="AT232">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU232">
         <v>1</v>
@@ -45877,7 +45886,7 @@
         <v>0.79</v>
       </c>
       <c r="AS233">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT233">
         <v>0.61</v>
@@ -45981,7 +45990,7 @@
         <v>220</v>
       </c>
       <c r="P234" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q234">
         <v>7</v>
@@ -46071,7 +46080,7 @@
         <v>1.44</v>
       </c>
       <c r="AT234">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU234">
         <v>1.53</v>
@@ -46259,7 +46268,7 @@
         <v>1.29</v>
       </c>
       <c r="AS235">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT235">
         <v>1.28</v>
@@ -46363,7 +46372,7 @@
         <v>81</v>
       </c>
       <c r="P236" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46554,7 +46563,7 @@
         <v>221</v>
       </c>
       <c r="P237" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q237">
         <v>11</v>
@@ -46641,7 +46650,7 @@
         <v>0.29</v>
       </c>
       <c r="AS237">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT237">
         <v>0.33</v>
@@ -46745,7 +46754,7 @@
         <v>81</v>
       </c>
       <c r="P238" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q238">
         <v>2</v>
@@ -46832,10 +46841,10 @@
         <v>2.5</v>
       </c>
       <c r="AS238">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT238">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU238">
         <v>1.83</v>
@@ -46936,7 +46945,7 @@
         <v>81</v>
       </c>
       <c r="P239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q239">
         <v>8</v>
@@ -48169,7 +48178,7 @@
         <v>0.73</v>
       </c>
       <c r="AS245">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT245">
         <v>0.78</v>
@@ -48363,7 +48372,7 @@
         <v>1.89</v>
       </c>
       <c r="AT246">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU246">
         <v>1.67</v>
@@ -48464,7 +48473,7 @@
         <v>229</v>
       </c>
       <c r="P247" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -48551,7 +48560,7 @@
         <v>1.4</v>
       </c>
       <c r="AS247">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT247">
         <v>1.39</v>
@@ -49124,10 +49133,10 @@
         <v>1.13</v>
       </c>
       <c r="AS250">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT250">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU250">
         <v>1.48</v>
@@ -49228,7 +49237,7 @@
         <v>81</v>
       </c>
       <c r="P251" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q251">
         <v>10</v>
@@ -49315,10 +49324,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS251">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT251">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU251">
         <v>1.77</v>
@@ -49506,7 +49515,7 @@
         <v>1.6</v>
       </c>
       <c r="AS252">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT252">
         <v>1.53</v>
@@ -49610,7 +49619,7 @@
         <v>232</v>
       </c>
       <c r="P253" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q253">
         <v>5</v>
@@ -49700,7 +49709,7 @@
         <v>2.39</v>
       </c>
       <c r="AT253">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU253">
         <v>2.38</v>
@@ -49992,7 +50001,7 @@
         <v>81</v>
       </c>
       <c r="P255" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -50183,7 +50192,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50565,7 +50574,7 @@
         <v>236</v>
       </c>
       <c r="P258" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q258">
         <v>5</v>
@@ -51416,7 +51425,7 @@
         <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT262">
         <v>1.39</v>
@@ -51902,7 +51911,7 @@
         <v>242</v>
       </c>
       <c r="P265" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q265">
         <v>4</v>
@@ -51989,10 +51998,10 @@
         <v>2.53</v>
       </c>
       <c r="AS265">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT265">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU265">
         <v>1.65</v>
@@ -52093,7 +52102,7 @@
         <v>144</v>
       </c>
       <c r="P266" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q266">
         <v>2</v>
@@ -52183,7 +52192,7 @@
         <v>1.44</v>
       </c>
       <c r="AT266">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU266">
         <v>1.5</v>
@@ -52371,7 +52380,7 @@
         <v>1.38</v>
       </c>
       <c r="AS267">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT267">
         <v>1.28</v>
@@ -52475,7 +52484,7 @@
         <v>243</v>
       </c>
       <c r="P268" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52666,7 +52675,7 @@
         <v>95</v>
       </c>
       <c r="P269" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q269">
         <v>4</v>
@@ -53048,7 +53057,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q271">
         <v>4</v>
@@ -53239,7 +53248,7 @@
         <v>246</v>
       </c>
       <c r="P272" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q272">
         <v>9</v>
@@ -53812,7 +53821,7 @@
         <v>248</v>
       </c>
       <c r="P275" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54152,7 +54161,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>6088385</v>
+        <v>6088386</v>
       </c>
       <c r="C277" t="s">
         <v>63</v>
@@ -54167,10 +54176,10 @@
         <v>5</v>
       </c>
       <c r="G277" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H277" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -54194,7 +54203,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="Q277">
         <v>5</v>
@@ -54206,94 +54215,94 @@
         <v>7</v>
       </c>
       <c r="T277">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="U277">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="V277">
-        <v>4.06</v>
+        <v>4.22</v>
       </c>
       <c r="W277">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="X277">
-        <v>2.75</v>
+        <v>3.28</v>
       </c>
       <c r="Y277">
-        <v>3</v>
+        <v>2.41</v>
       </c>
       <c r="Z277">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AA277">
-        <v>7</v>
+        <v>5.65</v>
       </c>
       <c r="AB277">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AC277">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="AD277">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="AE277">
-        <v>3.6</v>
+        <v>2.59</v>
       </c>
       <c r="AF277">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AG277">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="AH277">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AI277">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="AJ277">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="AK277">
+        <v>1.78</v>
+      </c>
+      <c r="AL277">
         <v>1.6</v>
       </c>
-      <c r="AL277">
-        <v>1.85</v>
-      </c>
       <c r="AM277">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="AN277">
         <v>1.25</v>
       </c>
       <c r="AO277">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP277">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AQ277">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AR277">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AS277">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT277">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="AU277">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AV277">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AW277">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="AX277">
         <v>0</v>
@@ -54323,7 +54332,7 @@
         <v>6</v>
       </c>
       <c r="BG277">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH277">
         <v>3</v>
@@ -54335,7 +54344,7 @@
         <v>9</v>
       </c>
       <c r="BK277">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:63">
@@ -54343,7 +54352,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>6088386</v>
+        <v>6088385</v>
       </c>
       <c r="C278" t="s">
         <v>63</v>
@@ -54358,10 +54367,10 @@
         <v>5</v>
       </c>
       <c r="G278" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H278" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -54385,7 +54394,7 @@
         <v>251</v>
       </c>
       <c r="P278" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="Q278">
         <v>5</v>
@@ -54397,94 +54406,94 @@
         <v>7</v>
       </c>
       <c r="T278">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="U278">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="V278">
-        <v>4.22</v>
+        <v>4.06</v>
       </c>
       <c r="W278">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="X278">
-        <v>3.28</v>
+        <v>2.75</v>
       </c>
       <c r="Y278">
-        <v>2.41</v>
+        <v>3</v>
       </c>
       <c r="Z278">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AA278">
-        <v>5.65</v>
+        <v>7</v>
       </c>
       <c r="AB278">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AC278">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="AD278">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="AE278">
-        <v>2.59</v>
+        <v>3.6</v>
       </c>
       <c r="AF278">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AG278">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="AH278">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AI278">
-        <v>4.35</v>
+        <v>3</v>
       </c>
       <c r="AJ278">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="AK278">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AL278">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AM278">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="AN278">
         <v>1.25</v>
       </c>
       <c r="AO278">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP278">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AQ278">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR278">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AS278">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AT278">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="AU278">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AV278">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AW278">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="AX278">
         <v>0</v>
@@ -54514,7 +54523,7 @@
         <v>6</v>
       </c>
       <c r="BG278">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH278">
         <v>3</v>
@@ -54526,7 +54535,962 @@
         <v>9</v>
       </c>
       <c r="BK278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:63">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>6088387</v>
+      </c>
+      <c r="C279" t="s">
+        <v>63</v>
+      </c>
+      <c r="D279" t="s">
+        <v>64</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45083.5625</v>
+      </c>
+      <c r="F279">
+        <v>6</v>
+      </c>
+      <c r="G279" t="s">
+        <v>80</v>
+      </c>
+      <c r="H279" t="s">
+        <v>69</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>252</v>
+      </c>
+      <c r="P279" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q279">
+        <v>2</v>
+      </c>
+      <c r="R279">
+        <v>3</v>
+      </c>
+      <c r="S279">
+        <v>5</v>
+      </c>
+      <c r="T279">
+        <v>2.12</v>
+      </c>
+      <c r="U279">
+        <v>2.26</v>
+      </c>
+      <c r="V279">
+        <v>6.63</v>
+      </c>
+      <c r="W279">
+        <v>1.43</v>
+      </c>
+      <c r="X279">
+        <v>2.81</v>
+      </c>
+      <c r="Y279">
+        <v>3.15</v>
+      </c>
+      <c r="Z279">
+        <v>1.35</v>
+      </c>
+      <c r="AA279">
+        <v>7.8</v>
+      </c>
+      <c r="AB279">
+        <v>1.06</v>
+      </c>
+      <c r="AC279">
+        <v>1.5</v>
+      </c>
+      <c r="AD279">
+        <v>3.6</v>
+      </c>
+      <c r="AE279">
+        <v>6.5</v>
+      </c>
+      <c r="AF279">
+        <v>1.04</v>
+      </c>
+      <c r="AG279">
+        <v>9.5</v>
+      </c>
+      <c r="AH279">
+        <v>1.29</v>
+      </c>
+      <c r="AI279">
+        <v>3.05</v>
+      </c>
+      <c r="AJ279">
+        <v>2.15</v>
+      </c>
+      <c r="AK279">
+        <v>1.61</v>
+      </c>
+      <c r="AL279">
+        <v>2.16</v>
+      </c>
+      <c r="AM279">
+        <v>1.66</v>
+      </c>
+      <c r="AN279">
+        <v>1.1</v>
+      </c>
+      <c r="AO279">
+        <v>1.23</v>
+      </c>
+      <c r="AP279">
+        <v>2.54</v>
+      </c>
+      <c r="AQ279">
+        <v>1.88</v>
+      </c>
+      <c r="AR279">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS279">
+        <v>1.94</v>
+      </c>
+      <c r="AT279">
+        <v>0.89</v>
+      </c>
+      <c r="AU279">
+        <v>1.45</v>
+      </c>
+      <c r="AV279">
+        <v>1.19</v>
+      </c>
+      <c r="AW279">
+        <v>2.64</v>
+      </c>
+      <c r="AX279">
+        <v>0</v>
+      </c>
+      <c r="AY279">
+        <v>0</v>
+      </c>
+      <c r="AZ279">
+        <v>0</v>
+      </c>
+      <c r="BA279">
+        <v>0</v>
+      </c>
+      <c r="BB279">
+        <v>0</v>
+      </c>
+      <c r="BC279">
+        <v>0</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
         <v>8</v>
+      </c>
+      <c r="BG279">
+        <v>8</v>
+      </c>
+      <c r="BH279">
+        <v>6</v>
+      </c>
+      <c r="BI279">
+        <v>7</v>
+      </c>
+      <c r="BJ279">
+        <v>14</v>
+      </c>
+      <c r="BK279">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:63">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>6083752</v>
+      </c>
+      <c r="C280" t="s">
+        <v>63</v>
+      </c>
+      <c r="D280" t="s">
+        <v>64</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45083.5625</v>
+      </c>
+      <c r="F280">
+        <v>6</v>
+      </c>
+      <c r="G280" t="s">
+        <v>65</v>
+      </c>
+      <c r="H280" t="s">
+        <v>79</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>3</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>81</v>
+      </c>
+      <c r="P280" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q280">
+        <v>1</v>
+      </c>
+      <c r="R280">
+        <v>7</v>
+      </c>
+      <c r="S280">
+        <v>8</v>
+      </c>
+      <c r="T280">
+        <v>5.34</v>
+      </c>
+      <c r="U280">
+        <v>2.28</v>
+      </c>
+      <c r="V280">
+        <v>2.28</v>
+      </c>
+      <c r="W280">
+        <v>1.39</v>
+      </c>
+      <c r="X280">
+        <v>2.98</v>
+      </c>
+      <c r="Y280">
+        <v>2.93</v>
+      </c>
+      <c r="Z280">
+        <v>1.4</v>
+      </c>
+      <c r="AA280">
+        <v>7.1</v>
+      </c>
+      <c r="AB280">
+        <v>1.08</v>
+      </c>
+      <c r="AC280">
+        <v>5.5</v>
+      </c>
+      <c r="AD280">
+        <v>3.5</v>
+      </c>
+      <c r="AE280">
+        <v>1.57</v>
+      </c>
+      <c r="AF280">
+        <v>1.03</v>
+      </c>
+      <c r="AG280">
+        <v>10.5</v>
+      </c>
+      <c r="AH280">
+        <v>1.25</v>
+      </c>
+      <c r="AI280">
+        <v>3.3</v>
+      </c>
+      <c r="AJ280">
+        <v>2</v>
+      </c>
+      <c r="AK280">
+        <v>1.73</v>
+      </c>
+      <c r="AL280">
+        <v>1.88</v>
+      </c>
+      <c r="AM280">
+        <v>1.88</v>
+      </c>
+      <c r="AN280">
+        <v>2.19</v>
+      </c>
+      <c r="AO280">
+        <v>1.26</v>
+      </c>
+      <c r="AP280">
+        <v>1.17</v>
+      </c>
+      <c r="AQ280">
+        <v>1.29</v>
+      </c>
+      <c r="AR280">
+        <v>1.24</v>
+      </c>
+      <c r="AS280">
+        <v>1.22</v>
+      </c>
+      <c r="AT280">
+        <v>1.33</v>
+      </c>
+      <c r="AU280">
+        <v>1.82</v>
+      </c>
+      <c r="AV280">
+        <v>1.17</v>
+      </c>
+      <c r="AW280">
+        <v>2.99</v>
+      </c>
+      <c r="AX280">
+        <v>0</v>
+      </c>
+      <c r="AY280">
+        <v>0</v>
+      </c>
+      <c r="AZ280">
+        <v>0</v>
+      </c>
+      <c r="BA280">
+        <v>0</v>
+      </c>
+      <c r="BB280">
+        <v>0</v>
+      </c>
+      <c r="BC280">
+        <v>0</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>3</v>
+      </c>
+      <c r="BG280">
+        <v>11</v>
+      </c>
+      <c r="BH280">
+        <v>2</v>
+      </c>
+      <c r="BI280">
+        <v>10</v>
+      </c>
+      <c r="BJ280">
+        <v>5</v>
+      </c>
+      <c r="BK280">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:63">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6088388</v>
+      </c>
+      <c r="C281" t="s">
+        <v>63</v>
+      </c>
+      <c r="D281" t="s">
+        <v>64</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45084.53125</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+      <c r="G281" t="s">
+        <v>68</v>
+      </c>
+      <c r="H281" t="s">
+        <v>67</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281" t="s">
+        <v>81</v>
+      </c>
+      <c r="P281" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q281">
+        <v>8</v>
+      </c>
+      <c r="R281">
+        <v>5</v>
+      </c>
+      <c r="S281">
+        <v>13</v>
+      </c>
+      <c r="T281">
+        <v>2.12</v>
+      </c>
+      <c r="U281">
+        <v>2.2</v>
+      </c>
+      <c r="V281">
+        <v>6.25</v>
+      </c>
+      <c r="W281">
+        <v>1.41</v>
+      </c>
+      <c r="X281">
+        <v>2.79</v>
+      </c>
+      <c r="Y281">
+        <v>2.91</v>
+      </c>
+      <c r="Z281">
+        <v>1.38</v>
+      </c>
+      <c r="AA281">
+        <v>7.5</v>
+      </c>
+      <c r="AB281">
+        <v>1.07</v>
+      </c>
+      <c r="AC281">
+        <v>1.5</v>
+      </c>
+      <c r="AD281">
+        <v>3.75</v>
+      </c>
+      <c r="AE281">
+        <v>5.35</v>
+      </c>
+      <c r="AF281">
+        <v>1.02</v>
+      </c>
+      <c r="AG281">
+        <v>8.6</v>
+      </c>
+      <c r="AH281">
+        <v>1.3</v>
+      </c>
+      <c r="AI281">
+        <v>3.14</v>
+      </c>
+      <c r="AJ281">
+        <v>1.76</v>
+      </c>
+      <c r="AK281">
+        <v>1.81</v>
+      </c>
+      <c r="AL281">
+        <v>2.08</v>
+      </c>
+      <c r="AM281">
+        <v>1.71</v>
+      </c>
+      <c r="AN281">
+        <v>1.12</v>
+      </c>
+      <c r="AO281">
+        <v>1.23</v>
+      </c>
+      <c r="AP281">
+        <v>2.48</v>
+      </c>
+      <c r="AQ281">
+        <v>2.18</v>
+      </c>
+      <c r="AR281">
+        <v>1.06</v>
+      </c>
+      <c r="AS281">
+        <v>2.11</v>
+      </c>
+      <c r="AT281">
+        <v>1.06</v>
+      </c>
+      <c r="AU281">
+        <v>1.63</v>
+      </c>
+      <c r="AV281">
+        <v>1.25</v>
+      </c>
+      <c r="AW281">
+        <v>2.88</v>
+      </c>
+      <c r="AX281">
+        <v>0</v>
+      </c>
+      <c r="AY281">
+        <v>0</v>
+      </c>
+      <c r="AZ281">
+        <v>0</v>
+      </c>
+      <c r="BA281">
+        <v>0</v>
+      </c>
+      <c r="BB281">
+        <v>0</v>
+      </c>
+      <c r="BC281">
+        <v>0</v>
+      </c>
+      <c r="BD281">
+        <v>0</v>
+      </c>
+      <c r="BE281">
+        <v>0</v>
+      </c>
+      <c r="BF281">
+        <v>2</v>
+      </c>
+      <c r="BG281">
+        <v>2</v>
+      </c>
+      <c r="BH281">
+        <v>4</v>
+      </c>
+      <c r="BI281">
+        <v>5</v>
+      </c>
+      <c r="BJ281">
+        <v>6</v>
+      </c>
+      <c r="BK281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:63">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6083750</v>
+      </c>
+      <c r="C282" t="s">
+        <v>63</v>
+      </c>
+      <c r="D282" t="s">
+        <v>64</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45084.53125</v>
+      </c>
+      <c r="F282">
+        <v>5</v>
+      </c>
+      <c r="G282" t="s">
+        <v>75</v>
+      </c>
+      <c r="H282" t="s">
+        <v>70</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>81</v>
+      </c>
+      <c r="P282" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q282">
+        <v>2</v>
+      </c>
+      <c r="R282">
+        <v>6</v>
+      </c>
+      <c r="S282">
+        <v>8</v>
+      </c>
+      <c r="T282">
+        <v>3.2</v>
+      </c>
+      <c r="U282">
+        <v>1.88</v>
+      </c>
+      <c r="V282">
+        <v>3.6</v>
+      </c>
+      <c r="W282">
+        <v>1.48</v>
+      </c>
+      <c r="X282">
+        <v>2.3</v>
+      </c>
+      <c r="Y282">
+        <v>3.3</v>
+      </c>
+      <c r="Z282">
+        <v>1.25</v>
+      </c>
+      <c r="AA282">
+        <v>9.5</v>
+      </c>
+      <c r="AB282">
+        <v>1.04</v>
+      </c>
+      <c r="AC282">
+        <v>2.6</v>
+      </c>
+      <c r="AD282">
+        <v>2.8</v>
+      </c>
+      <c r="AE282">
+        <v>2.62</v>
+      </c>
+      <c r="AF282">
+        <v>1.07</v>
+      </c>
+      <c r="AG282">
+        <v>7.25</v>
+      </c>
+      <c r="AH282">
+        <v>1.45</v>
+      </c>
+      <c r="AI282">
+        <v>2.6</v>
+      </c>
+      <c r="AJ282">
+        <v>2.35</v>
+      </c>
+      <c r="AK282">
+        <v>1.5</v>
+      </c>
+      <c r="AL282">
+        <v>2.05</v>
+      </c>
+      <c r="AM282">
+        <v>1.66</v>
+      </c>
+      <c r="AN282">
+        <v>1.38</v>
+      </c>
+      <c r="AO282">
+        <v>1.35</v>
+      </c>
+      <c r="AP282">
+        <v>1.51</v>
+      </c>
+      <c r="AQ282">
+        <v>2.25</v>
+      </c>
+      <c r="AR282">
+        <v>2.38</v>
+      </c>
+      <c r="AS282">
+        <v>2.12</v>
+      </c>
+      <c r="AT282">
+        <v>2.41</v>
+      </c>
+      <c r="AU282">
+        <v>2.11</v>
+      </c>
+      <c r="AV282">
+        <v>1.48</v>
+      </c>
+      <c r="AW282">
+        <v>3.59</v>
+      </c>
+      <c r="AX282">
+        <v>1.77</v>
+      </c>
+      <c r="AY282">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ282">
+        <v>2.45</v>
+      </c>
+      <c r="BA282">
+        <v>1.62</v>
+      </c>
+      <c r="BB282">
+        <v>2.03</v>
+      </c>
+      <c r="BC282">
+        <v>2.4</v>
+      </c>
+      <c r="BD282">
+        <v>3.28</v>
+      </c>
+      <c r="BE282">
+        <v>4.9</v>
+      </c>
+      <c r="BF282">
+        <v>2</v>
+      </c>
+      <c r="BG282">
+        <v>6</v>
+      </c>
+      <c r="BH282">
+        <v>3</v>
+      </c>
+      <c r="BI282">
+        <v>7</v>
+      </c>
+      <c r="BJ282">
+        <v>5</v>
+      </c>
+      <c r="BK282">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:63">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6083751</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45084.53125</v>
+      </c>
+      <c r="F283">
+        <v>5</v>
+      </c>
+      <c r="G283" t="s">
+        <v>76</v>
+      </c>
+      <c r="H283" t="s">
+        <v>74</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
+        <v>81</v>
+      </c>
+      <c r="P283" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q283">
+        <v>2</v>
+      </c>
+      <c r="R283">
+        <v>8</v>
+      </c>
+      <c r="S283">
+        <v>10</v>
+      </c>
+      <c r="T283">
+        <v>5.75</v>
+      </c>
+      <c r="U283">
+        <v>2.25</v>
+      </c>
+      <c r="V283">
+        <v>1.98</v>
+      </c>
+      <c r="W283">
+        <v>1.36</v>
+      </c>
+      <c r="X283">
+        <v>2.87</v>
+      </c>
+      <c r="Y283">
+        <v>2.65</v>
+      </c>
+      <c r="Z283">
+        <v>1.42</v>
+      </c>
+      <c r="AA283">
+        <v>6.5</v>
+      </c>
+      <c r="AB283">
+        <v>1.09</v>
+      </c>
+      <c r="AC283">
+        <v>6.5</v>
+      </c>
+      <c r="AD283">
+        <v>3.9</v>
+      </c>
+      <c r="AE283">
+        <v>1.44</v>
+      </c>
+      <c r="AF283">
+        <v>1.03</v>
+      </c>
+      <c r="AG283">
+        <v>12</v>
+      </c>
+      <c r="AH283">
+        <v>1.23</v>
+      </c>
+      <c r="AI283">
+        <v>3.5</v>
+      </c>
+      <c r="AJ283">
+        <v>1.75</v>
+      </c>
+      <c r="AK283">
+        <v>1.87</v>
+      </c>
+      <c r="AL283">
+        <v>1.98</v>
+      </c>
+      <c r="AM283">
+        <v>1.73</v>
+      </c>
+      <c r="AN283">
+        <v>2.55</v>
+      </c>
+      <c r="AO283">
+        <v>1.21</v>
+      </c>
+      <c r="AP283">
+        <v>1.11</v>
+      </c>
+      <c r="AQ283">
+        <v>1.81</v>
+      </c>
+      <c r="AR283">
+        <v>2.44</v>
+      </c>
+      <c r="AS283">
+        <v>1.71</v>
+      </c>
+      <c r="AT283">
+        <v>2.47</v>
+      </c>
+      <c r="AU283">
+        <v>1.72</v>
+      </c>
+      <c r="AV283">
+        <v>2.07</v>
+      </c>
+      <c r="AW283">
+        <v>3.79</v>
+      </c>
+      <c r="AX283">
+        <v>0</v>
+      </c>
+      <c r="AY283">
+        <v>0</v>
+      </c>
+      <c r="AZ283">
+        <v>0</v>
+      </c>
+      <c r="BA283">
+        <v>0</v>
+      </c>
+      <c r="BB283">
+        <v>0</v>
+      </c>
+      <c r="BC283">
+        <v>0</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>2</v>
+      </c>
+      <c r="BG283">
+        <v>8</v>
+      </c>
+      <c r="BH283">
+        <v>1</v>
+      </c>
+      <c r="BI283">
+        <v>6</v>
+      </c>
+      <c r="BJ283">
+        <v>3</v>
+      </c>
+      <c r="BK283">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,9 @@
     <t>['88', '90']</t>
   </si>
   <si>
+    <t>['36', '58']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -1434,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK283"/>
+  <dimension ref="A1:BK284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1678,7 +1681,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1869,7 +1872,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2060,7 +2063,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2442,7 +2445,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2723,7 +2726,7 @@
         <v>2.39</v>
       </c>
       <c r="AT7">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3206,7 +3209,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3866,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT13">
         <v>0.33</v>
@@ -4161,7 +4164,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4352,7 +4355,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4734,7 +4737,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4925,7 +4928,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5307,7 +5310,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5397,7 +5400,7 @@
         <v>1.22</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU21">
         <v>2.4</v>
@@ -6071,7 +6074,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6644,7 +6647,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7217,7 +7220,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7599,7 +7602,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7790,7 +7793,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8068,7 +8071,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT35">
         <v>0.65</v>
@@ -8172,7 +8175,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8453,7 +8456,7 @@
         <v>2.06</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -8745,7 +8748,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9127,7 +9130,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9891,7 +9894,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -10082,7 +10085,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10172,7 +10175,7 @@
         <v>1.12</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU46">
         <v>1.55</v>
@@ -10360,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT47">
         <v>1.11</v>
@@ -10846,7 +10849,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11037,7 +11040,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11228,7 +11231,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11801,7 +11804,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12183,7 +12186,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12374,7 +12377,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -14180,10 +14183,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU67">
         <v>3.06</v>
@@ -14666,7 +14669,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -15239,7 +15242,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15621,7 +15624,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15812,7 +15815,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -16003,7 +16006,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16385,7 +16388,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17045,7 +17048,7 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT82">
         <v>2.41</v>
@@ -17149,7 +17152,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17239,7 +17242,7 @@
         <v>2.39</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU83">
         <v>2.07</v>
@@ -17531,7 +17534,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -18295,7 +18298,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18486,7 +18489,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18868,7 +18871,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -19528,7 +19531,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT95">
         <v>0.78</v>
@@ -19722,7 +19725,7 @@
         <v>1.44</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU96">
         <v>1.48</v>
@@ -20014,7 +20017,7 @@
         <v>81</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20778,7 +20781,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20868,7 +20871,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU102">
         <v>1.76</v>
@@ -21924,7 +21927,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -22115,7 +22118,7 @@
         <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22306,7 +22309,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22688,7 +22691,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22966,7 +22969,7 @@
         <v>1.67</v>
       </c>
       <c r="AS113">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT113">
         <v>1.06</v>
@@ -23070,7 +23073,7 @@
         <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23452,7 +23455,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23643,7 +23646,7 @@
         <v>112</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -24025,7 +24028,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24494,7 +24497,7 @@
         <v>1.57</v>
       </c>
       <c r="AS121">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT121">
         <v>1.53</v>
@@ -24598,7 +24601,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24789,7 +24792,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -25362,7 +25365,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -26126,7 +26129,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26407,7 +26410,7 @@
         <v>1.22</v>
       </c>
       <c r="AT131">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26699,7 +26702,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -27081,7 +27084,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27272,7 +27275,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27654,7 +27657,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27845,7 +27848,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27932,7 +27935,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT139">
         <v>1.28</v>
@@ -28036,7 +28039,7 @@
         <v>160</v>
       </c>
       <c r="P140" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28227,7 +28230,7 @@
         <v>176</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28800,7 +28803,7 @@
         <v>125</v>
       </c>
       <c r="P144" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29460,7 +29463,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT147">
         <v>1.39</v>
@@ -29755,7 +29758,7 @@
         <v>163</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -30036,7 +30039,7 @@
         <v>1</v>
       </c>
       <c r="AT150">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU150">
         <v>1.48</v>
@@ -30137,7 +30140,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30901,7 +30904,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31092,7 +31095,7 @@
         <v>147</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -32328,7 +32331,7 @@
         <v>2.11</v>
       </c>
       <c r="AT162">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU162">
         <v>1.78</v>
@@ -32429,7 +32432,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32811,7 +32814,7 @@
         <v>81</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>8</v>
@@ -33384,7 +33387,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33662,7 +33665,7 @@
         <v>2.5</v>
       </c>
       <c r="AS169">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT169">
         <v>2.47</v>
@@ -33766,7 +33769,7 @@
         <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33957,7 +33960,7 @@
         <v>112</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34148,7 +34151,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>8</v>
@@ -34721,7 +34724,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -34912,7 +34915,7 @@
         <v>81</v>
       </c>
       <c r="P176" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q176">
         <v>9</v>
@@ -35676,7 +35679,7 @@
         <v>194</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>10</v>
@@ -35954,7 +35957,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT181">
         <v>0.35</v>
@@ -36148,7 +36151,7 @@
         <v>1.94</v>
       </c>
       <c r="AT182">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU182">
         <v>1.62</v>
@@ -36249,7 +36252,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -37204,7 +37207,7 @@
         <v>142</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37395,7 +37398,7 @@
         <v>199</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -37968,7 +37971,7 @@
         <v>81</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -38541,7 +38544,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38819,7 +38822,7 @@
         <v>1.08</v>
       </c>
       <c r="AS196">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT196">
         <v>0.89</v>
@@ -38923,7 +38926,7 @@
         <v>81</v>
       </c>
       <c r="P197" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39114,7 +39117,7 @@
         <v>81</v>
       </c>
       <c r="P198" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39305,7 +39308,7 @@
         <v>81</v>
       </c>
       <c r="P199" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39496,7 +39499,7 @@
         <v>119</v>
       </c>
       <c r="P200" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39586,7 +39589,7 @@
         <v>1.28</v>
       </c>
       <c r="AT200">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU200">
         <v>1.35</v>
@@ -39687,7 +39690,7 @@
         <v>204</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -40260,7 +40263,7 @@
         <v>183</v>
       </c>
       <c r="P204" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40451,7 +40454,7 @@
         <v>203</v>
       </c>
       <c r="P205" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40833,7 +40836,7 @@
         <v>206</v>
       </c>
       <c r="P207" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -41406,7 +41409,7 @@
         <v>81</v>
       </c>
       <c r="P210" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -41878,7 +41881,7 @@
         <v>0.71</v>
       </c>
       <c r="AT212">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU212">
         <v>0.98</v>
@@ -42448,7 +42451,7 @@
         <v>0.77</v>
       </c>
       <c r="AS215">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT215">
         <v>0.59</v>
@@ -42934,7 +42937,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -43316,7 +43319,7 @@
         <v>139</v>
       </c>
       <c r="P220" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -44271,7 +44274,7 @@
         <v>81</v>
       </c>
       <c r="P225" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44844,7 +44847,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45035,7 +45038,7 @@
         <v>216</v>
       </c>
       <c r="P229" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45417,7 +45420,7 @@
         <v>218</v>
       </c>
       <c r="P231" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q231">
         <v>6</v>
@@ -45608,7 +45611,7 @@
         <v>81</v>
       </c>
       <c r="P232" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q232">
         <v>1</v>
@@ -45886,7 +45889,7 @@
         <v>0.79</v>
       </c>
       <c r="AS233">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT233">
         <v>0.61</v>
@@ -45990,7 +45993,7 @@
         <v>220</v>
       </c>
       <c r="P234" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q234">
         <v>7</v>
@@ -46080,7 +46083,7 @@
         <v>1.44</v>
       </c>
       <c r="AT234">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU234">
         <v>1.53</v>
@@ -46372,7 +46375,7 @@
         <v>81</v>
       </c>
       <c r="P236" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46563,7 +46566,7 @@
         <v>221</v>
       </c>
       <c r="P237" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q237">
         <v>11</v>
@@ -46754,7 +46757,7 @@
         <v>81</v>
       </c>
       <c r="P238" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q238">
         <v>2</v>
@@ -46945,7 +46948,7 @@
         <v>81</v>
       </c>
       <c r="P239" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q239">
         <v>8</v>
@@ -48473,7 +48476,7 @@
         <v>229</v>
       </c>
       <c r="P247" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -49136,7 +49139,7 @@
         <v>1.94</v>
       </c>
       <c r="AT250">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU250">
         <v>1.48</v>
@@ -49237,7 +49240,7 @@
         <v>81</v>
       </c>
       <c r="P251" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q251">
         <v>10</v>
@@ -49619,7 +49622,7 @@
         <v>232</v>
       </c>
       <c r="P253" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q253">
         <v>5</v>
@@ -50001,7 +50004,7 @@
         <v>81</v>
       </c>
       <c r="P255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -50192,7 +50195,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50574,7 +50577,7 @@
         <v>236</v>
       </c>
       <c r="P258" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q258">
         <v>5</v>
@@ -51425,7 +51428,7 @@
         <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT262">
         <v>1.39</v>
@@ -51911,7 +51914,7 @@
         <v>242</v>
       </c>
       <c r="P265" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q265">
         <v>4</v>
@@ -52102,7 +52105,7 @@
         <v>144</v>
       </c>
       <c r="P266" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q266">
         <v>2</v>
@@ -52192,7 +52195,7 @@
         <v>1.44</v>
       </c>
       <c r="AT266">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU266">
         <v>1.5</v>
@@ -52484,7 +52487,7 @@
         <v>243</v>
       </c>
       <c r="P268" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52675,7 +52678,7 @@
         <v>95</v>
       </c>
       <c r="P269" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q269">
         <v>4</v>
@@ -53057,7 +53060,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q271">
         <v>4</v>
@@ -53248,7 +53251,7 @@
         <v>246</v>
       </c>
       <c r="P272" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q272">
         <v>9</v>
@@ -53821,7 +53824,7 @@
         <v>248</v>
       </c>
       <c r="P275" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54394,7 +54397,7 @@
         <v>251</v>
       </c>
       <c r="P278" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q278">
         <v>5</v>
@@ -54776,7 +54779,7 @@
         <v>81</v>
       </c>
       <c r="P280" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q280">
         <v>1</v>
@@ -54866,7 +54869,7 @@
         <v>1.22</v>
       </c>
       <c r="AT280">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU280">
         <v>1.82</v>
@@ -55158,7 +55161,7 @@
         <v>81</v>
       </c>
       <c r="P282" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -55245,7 +55248,7 @@
         <v>2.38</v>
       </c>
       <c r="AS282">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT282">
         <v>2.41</v>
@@ -55349,7 +55352,7 @@
         <v>81</v>
       </c>
       <c r="P283" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q283">
         <v>2</v>
@@ -55491,6 +55494,197 @@
       </c>
       <c r="BK283">
         <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:63">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6374457</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
+      </c>
+      <c r="D284" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45088.54166666666</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="s">
+        <v>75</v>
+      </c>
+      <c r="H284" t="s">
+        <v>79</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>253</v>
+      </c>
+      <c r="P284" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q284">
+        <v>8</v>
+      </c>
+      <c r="R284">
+        <v>3</v>
+      </c>
+      <c r="S284">
+        <v>11</v>
+      </c>
+      <c r="T284">
+        <v>2.2</v>
+      </c>
+      <c r="U284">
+        <v>2.25</v>
+      </c>
+      <c r="V284">
+        <v>5.5</v>
+      </c>
+      <c r="W284">
+        <v>1.36</v>
+      </c>
+      <c r="X284">
+        <v>2.7</v>
+      </c>
+      <c r="Y284">
+        <v>2.85</v>
+      </c>
+      <c r="Z284">
+        <v>1.29</v>
+      </c>
+      <c r="AA284">
+        <v>6.75</v>
+      </c>
+      <c r="AB284">
+        <v>1.02</v>
+      </c>
+      <c r="AC284">
+        <v>1.57</v>
+      </c>
+      <c r="AD284">
+        <v>3.8</v>
+      </c>
+      <c r="AE284">
+        <v>5</v>
+      </c>
+      <c r="AF284">
+        <v>1.01</v>
+      </c>
+      <c r="AG284">
+        <v>9.5</v>
+      </c>
+      <c r="AH284">
+        <v>1.25</v>
+      </c>
+      <c r="AI284">
+        <v>3.2</v>
+      </c>
+      <c r="AJ284">
+        <v>1.94</v>
+      </c>
+      <c r="AK284">
+        <v>1.77</v>
+      </c>
+      <c r="AL284">
+        <v>1.86</v>
+      </c>
+      <c r="AM284">
+        <v>1.74</v>
+      </c>
+      <c r="AN284">
+        <v>1.12</v>
+      </c>
+      <c r="AO284">
+        <v>1.21</v>
+      </c>
+      <c r="AP284">
+        <v>2.15</v>
+      </c>
+      <c r="AQ284">
+        <v>1.74</v>
+      </c>
+      <c r="AR284">
+        <v>1.61</v>
+      </c>
+      <c r="AS284">
+        <v>1.78</v>
+      </c>
+      <c r="AT284">
+        <v>1.57</v>
+      </c>
+      <c r="AU284">
+        <v>2.04</v>
+      </c>
+      <c r="AV284">
+        <v>1.25</v>
+      </c>
+      <c r="AW284">
+        <v>3.29</v>
+      </c>
+      <c r="AX284">
+        <v>0</v>
+      </c>
+      <c r="AY284">
+        <v>0</v>
+      </c>
+      <c r="AZ284">
+        <v>0</v>
+      </c>
+      <c r="BA284">
+        <v>0</v>
+      </c>
+      <c r="BB284">
+        <v>0</v>
+      </c>
+      <c r="BC284">
+        <v>0</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>7</v>
+      </c>
+      <c r="BG284">
+        <v>4</v>
+      </c>
+      <c r="BH284">
+        <v>3</v>
+      </c>
+      <c r="BI284">
+        <v>5</v>
+      </c>
+      <c r="BJ284">
+        <v>10</v>
+      </c>
+      <c r="BK284">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
